--- a/AchsSynchronisierung.xlsx
+++ b/AchsSynchronisierung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Source\Repos\RoboAUP17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>J1</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>v_min</t>
-  </si>
-  <si>
-    <t>t_ac_tmp</t>
   </si>
 </sst>
 </file>
@@ -481,12 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,6 +485,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1026,160 +1023,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9625066600649097</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9250133201298194</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8875199801947282</c:v>
+                  <c:v>24.499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8500266402596388</c:v>
+                  <c:v>30.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8125333003245476</c:v>
+                  <c:v>37.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7750399603894564</c:v>
+                  <c:v>43.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.737546620454367</c:v>
+                  <c:v>50.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.700053280519278</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.662559940584186</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.625066600649095</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.587573260714006</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>54.590909090909122</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>48.090909090909115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>41.590909090909108</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>35.090909090909108</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>28.590909090909101</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>22.090909090909125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>15.590909090909122</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>9.0909090909091184</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.36870812296479</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>13.686585635586903</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.724078975521996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.761572315457082</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.799065655392177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.8365589953272625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.8740523352623555</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.9115456751974493</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.9490390151325343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.986532355067629</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.024025695002714</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.0615190349378079</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.0990123748729017</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -1970,160 +1967,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9791515916984768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.958303183396954</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.93745477509543</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.916606366793907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.895757958492386</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.874909550190861</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.854061141889339</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.833212733587814</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.812364325286296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.791515916984771</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.770667508683253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.180000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.200848408301539</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.221696816603043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.242545224904582</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31.263393633206082</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.284242041507618</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.305090449809157</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19.325938858110657</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15.346787266412194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.367635674713696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.388484083015233</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.40933249131677</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -2914,160 +2911,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1779812980387359</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3559625960774717</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5339438941162076</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7119251921549425</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8899064901936775</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.067887788232415</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.245869086271149</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.423850384309885</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.601831682348621</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.779812980387357</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.957794278426093</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.913800399895877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.078972375902126</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.900991077863392</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.72300977982465</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.545028481785918</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.367047183747177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.189065885708445</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.0110845876697141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.8331032896309711</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.6551219915922406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.4771406935534976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.2991593955147671</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.1211780974760353</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -3858,160 +3855,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7470320220910831</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4940640441821662</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2410960662732489</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9881280883643324</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.735160110455416</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4821921325464986</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2292241546375813</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9762561767286648</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7232881988197484</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.470320220910832</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.217352243001915</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.823615846033702</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.294198895271681</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.547166873180601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.8001348510895134</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.0531028289984334</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.3060708069073463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.5590387848162646</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.8120067627251846</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.0649747406340975</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3179427185430166</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.5709106964519295</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.8238786743608486</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.0768466522697682</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -4802,160 +4799,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9791515916984768</c:v>
+                  <c:v>6.9658536585365844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.958303183396954</c:v>
+                  <c:v>8.9317073170731689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.93745477509543</c:v>
+                  <c:v>10.897560975609753</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.916606366793907</c:v>
+                  <c:v>12.86341463414634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.895757958492386</c:v>
+                  <c:v>14.829268292682924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.874909550190861</c:v>
+                  <c:v>16.795121951219507</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.854061141889339</c:v>
+                  <c:v>18.760975609756095</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.833212733587814</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.812364325286296</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.791515916984771</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.770667508683253</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>20.121951219512191</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>19.998226164079831</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>18.032372505543243</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>16.066518847006655</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>14.100665188470071</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>12.134811529933483</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>10.168957871396906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>8.2031042128603193</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>6.2372505543237331</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.180000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.200848408301539</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.221696816603043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.242545224904582</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31.263393633206082</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.284242041507618</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.305090449809157</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19.325938858110657</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15.346787266412194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.367635674713696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.388484083015233</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.40933249131677</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -5746,160 +5743,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9791515916984768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.958303183396954</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.93745477509543</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.916606366793907</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.895757958492386</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.874909550190861</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.854061141889339</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.833212733587814</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.812364325286296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.791515916984771</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.770667508683253</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.000000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>47.180000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43.200848408301539</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.221696816603043</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.242545224904582</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>31.263393633206082</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.284242041507618</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>23.305090449809157</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19.325938858110657</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15.346787266412194</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.367635674713696</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.388484083015233</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.40933249131677</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -6211,11 +6208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-150098752"/>
-        <c:axId val="-150092224"/>
+        <c:axId val="-1740426528"/>
+        <c:axId val="-1740432512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-150098752"/>
+        <c:axId val="-1740426528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6272,12 +6269,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-150092224"/>
+        <c:crossAx val="-1740432512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-150092224"/>
+        <c:axId val="-1740432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6335,7 +6332,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-150098752"/>
+        <c:crossAx val="-1740426528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6977,15 +6974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7009,207 +7006,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1200150" cy="315343"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Textfeld 4"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3457575" y="123825"/>
-              <a:ext cx="1200150" cy="315343"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑐</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>= </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑣</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>𝑣</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>0</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Textfeld 4"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3457575" y="123825"/>
-              <a:ext cx="1200150" cy="315343"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡_𝑎𝑐=  (𝑣−𝑣_0)/𝑎</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:colOff>380999</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1171575" cy="316240"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7221,7 +7020,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3505199" y="981075"/>
+              <a:off x="3638549" y="1104900"/>
               <a:ext cx="1171575" cy="316240"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7347,7 +7146,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3505199" y="981075"/>
+              <a:off x="3638549" y="1104900"/>
               <a:ext cx="1171575" cy="316240"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7392,10 +7191,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1171575" cy="187872"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7407,7 +7206,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3390899" y="6515100"/>
+              <a:off x="7772399" y="5810250"/>
               <a:ext cx="1171575" cy="187872"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7571,7 +7370,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3390899" y="6515100"/>
+              <a:off x="7772399" y="5810250"/>
               <a:ext cx="1171575" cy="187872"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7619,10 +7418,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2495551" cy="384464"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7634,7 +7433,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4886324" y="6572250"/>
+              <a:off x="3781424" y="6134100"/>
               <a:ext cx="2495551" cy="384464"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8070,7 +7869,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4886324" y="6572250"/>
+              <a:off x="3781424" y="6134100"/>
               <a:ext cx="2495551" cy="384464"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8137,10 +7936,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2695576" cy="314958"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8152,7 +7951,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5705474" y="6057900"/>
+              <a:off x="4762499" y="5715000"/>
               <a:ext cx="2695576" cy="314958"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8509,7 +8308,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5705474" y="6057900"/>
+              <a:off x="4762499" y="5715000"/>
               <a:ext cx="2695576" cy="314958"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8567,19 +8366,7 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑠 − 𝑠_𝑐𝑜𝑛𝑠𝑡</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1200" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/</a:t>
+                <a:t>𝑠 − 𝑠_𝑐𝑜𝑛𝑠𝑡)/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1200" b="0" i="0">
@@ -8613,10 +8400,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428623</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3733801" cy="377989"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8628,7 +8415,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1800223" y="5834062"/>
+              <a:off x="857248" y="5719762"/>
               <a:ext cx="3733801" cy="377989"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8949,7 +8736,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8961,7 +8748,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -8975,7 +8762,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -8988,7 +8775,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9002,7 +8789,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9015,7 +8802,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9029,7 +8816,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9043,7 +8830,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9057,7 +8844,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9070,7 +8857,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9084,7 +8871,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9098,7 +8885,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9112,7 +8899,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9125,7 +8912,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9139,7 +8926,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9153,7 +8940,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9169,7 +8956,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9184,7 +8971,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9197,7 +8984,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9211,7 +8998,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9227,7 +9014,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9259,7 +9046,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1800223" y="5834062"/>
+              <a:off x="857248" y="5719762"/>
               <a:ext cx="3733801" cy="377989"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9338,7 +9125,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -9350,7 +9137,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -9373,380 +9160,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1514475" cy="345672"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Textfeld 19"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3362324" y="490537"/>
-              <a:ext cx="1514475" cy="345672"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑠</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑐</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1200" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>1</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑎</m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑡</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑎𝑐</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑣</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>0</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>∗</m:t>
-                    </m:r>
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑎𝑐</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="de-DE" sz="1050"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="Textfeld 19"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3362324" y="490537"/>
-              <a:ext cx="1514475" cy="345672"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1200" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑠_𝑎𝑐=1/2 𝑎</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝑡_𝑎𝑐〗^2+𝑣_0∗𝑡_𝑎𝑐</a:t>
-              </a:r>
-              <a:endParaRPr lang="de-DE" sz="1050"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1200150" cy="545662"/>
+    <xdr:ext cx="1771650" cy="400751"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -9756,8 +9174,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7943850" y="1438275"/>
-              <a:ext cx="1200150" cy="545662"/>
+              <a:off x="3438525" y="619125"/>
+              <a:ext cx="1771650" cy="400751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9822,69 +9240,252 @@
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
-                    <m:rad>
-                      <m:radPr>
-                        <m:degHide m:val="on"/>
+                    <m:f>
+                      <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1200" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:radPr>
-                      <m:deg/>
-                      <m:e>
-                        <m:f>
-                          <m:fPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
                             <m:ctrlPr>
-                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                             </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
                             <m:r>
-                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
                               <m:t>2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑎</m:t>
                             </m:r>
                             <m:sSub>
                               <m:sSubPr>
                                 <m:ctrlPr>
-                                  <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
                               <m:e>
                                 <m:r>
-                                  <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
                                   <m:t>𝑠</m:t>
                                 </m:r>
                               </m:e>
                               <m:sub>
                                 <m:r>
-                                  <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
                                   <m:t>𝑎𝑐</m:t>
                                 </m:r>
                               </m:sub>
                             </m:sSub>
-                          </m:num>
-                          <m:den>
                             <m:r>
-                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑎</m:t>
+                              <m:t>+</m:t>
                             </m:r>
-                          </m:den>
-                        </m:f>
-                      </m:e>
-                    </m:rad>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑣</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>0</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:rad>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑣</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>0</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -9901,8 +9502,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7943850" y="1438275"/>
-              <a:ext cx="1200150" cy="545662"/>
+              <a:off x="3438525" y="619125"/>
+              <a:ext cx="1771650" cy="400751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9934,9 +9535,348 @@
                 <a:rPr lang="de-DE" sz="1200" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑡_𝑎𝑐=√((2𝑠_𝑎𝑐)/𝑎)</a:t>
+                <a:t>𝑡_𝑎𝑐=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2𝑎𝑠_𝑎𝑐+〖𝑣_0〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−𝑣_0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1514475" cy="369332"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Textfeld 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3495674" y="147637"/>
+              <a:ext cx="1514475" cy="369332"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑎𝑐</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚𝑎𝑥</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1200" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1200" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑣</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑣</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>0</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1050"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="Textfeld 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3495674" y="147637"/>
+              <a:ext cx="1514475" cy="369332"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖𝑠_𝑎𝑐〗_𝑚𝑎𝑥=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑣^2−〖𝑣_0〗^2)/2𝑎</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1050"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -10210,10 +10150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W29"/>
+  <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10234,7 +10174,7 @@
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="36"/>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -10251,447 +10191,420 @@
       <c r="G1"/>
       <c r="H1" s="1"/>
       <c r="K1" s="14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="O1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="12">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F2" s="20">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G2"/>
       <c r="H2" s="1"/>
       <c r="K2" s="16">
-        <f>(C2-D2)/E2</f>
-        <v>4.7</v>
+        <f>(C2^2-D2^2)/(2*E2)</f>
+        <v>23.076923076923077</v>
       </c>
       <c r="L2" s="16">
-        <f>(E2*K2^2)/2+D2*K2</f>
-        <v>124.55000000000001</v>
+        <f>IF((F2-K2*2)&gt;0,K2,F2/2)</f>
+        <v>23.076923076923077</v>
       </c>
       <c r="M2" s="16">
-        <f>IF((F2-L2*2)&gt;0,L2,F2/2)</f>
-        <v>30</v>
-      </c>
-      <c r="N2" s="16">
-        <f>IF((F2-L2*2)&gt;0,F2-2*L2,0)</f>
-        <v>0</v>
+        <f>IF((F2-K2*2)&gt;0,F2-2*K2,0)</f>
+        <v>83.84615384615384</v>
+      </c>
+      <c r="N2" s="8">
+        <f>(SQRT(2*E2*L2+D2^2)-D2)/E2</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="O2" s="8">
-        <f>(SQRT(2*E2*M2+D2^2)-D2)/E2</f>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="P2" s="8">
-        <f>N2/C2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <f>P2+2*K2</f>
-        <v>9.4</v>
+        <f>M2/C2</f>
+        <v>1.5244755244755244</v>
+      </c>
+      <c r="P2" s="6">
+        <f t="shared" ref="P2:P6" si="0">O2+2*N2</f>
+        <v>3.0629370629370629</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S7" si="1">P2</f>
+        <v>3.0629370629370629</v>
       </c>
       <c r="T2">
-        <f>Q2</f>
-        <v>9.4</v>
+        <f>N2</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="U2">
         <f>O2</f>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="V2">
-        <f>P2</f>
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <f>(F2-L2*2)&gt;0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+        <v>1.5244755244755244</v>
+      </c>
+      <c r="V2" t="b">
+        <f>(F2-K2*2)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="12">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F3" s="20">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="1"/>
       <c r="K3" s="16">
-        <f>(C3-D3)/E3</f>
-        <v>0.94</v>
+        <f>(C3^2-D3^2)/(2*E3)</f>
+        <v>23.261538461538461</v>
       </c>
       <c r="L3" s="16">
-        <f>(E3*K3^2)/2+D3*K3</f>
-        <v>24.91</v>
+        <f>IF((F3-K3*2)&gt;0,K3,F3/2)</f>
+        <v>0</v>
       </c>
       <c r="M3" s="16">
-        <f>IF((F3-L3*2)&gt;0,L3,F3/2)</f>
-        <v>24.91</v>
-      </c>
-      <c r="N3" s="16">
-        <f>IF((F3-L3*2)&gt;0,F3-2*L3,0)</f>
-        <v>150.18</v>
+        <f>IF((F3-K3*2)&gt;0,F3-2*K3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <f>(SQRT(2*E3*L3+D3^2)-D3)/E3</f>
+        <v>0</v>
       </c>
       <c r="O3" s="8">
-        <f t="shared" ref="O3:O7" si="0">(SQRT(2*E3*M3+D3^2)-D3)/E3</f>
-        <v>0.94</v>
-      </c>
-      <c r="P3" s="8">
-        <f>N3/C3</f>
-        <v>3.0036</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>P3+2*K3</f>
-        <v>4.8835999999999995</v>
+        <f>M3/C3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f>Q3</f>
-        <v>4.8835999999999995</v>
+        <f t="shared" ref="T3:T7" si="2">N3</f>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U7" si="1">O3</f>
-        <v>0.94</v>
-      </c>
-      <c r="V3">
-        <f>P3</f>
-        <v>3.0036</v>
-      </c>
-      <c r="W3" t="b">
-        <f>(F3-L3*2)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+        <f>O3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <f>(F3-K3*2)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" s="20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G4"/>
       <c r="H4" s="1"/>
       <c r="K4" s="16">
-        <f>(C4-D4)/E4</f>
-        <v>0.94</v>
+        <f>(C4^2-D4^2)/(2*E4)</f>
+        <v>21.12</v>
       </c>
       <c r="L4" s="16">
-        <f>(E4*K4^2)/2+D4*K4</f>
-        <v>24.91</v>
+        <f>IF((F4-K4*2)&gt;0,K4,F4/2)</f>
+        <v>0</v>
       </c>
       <c r="M4" s="16">
-        <f>IF((F4-L4*2)&gt;0,L4,F4/2)</f>
-        <v>24.91</v>
-      </c>
-      <c r="N4" s="16">
-        <f>IF((F4-L4*2)&gt;0,F4-2*L4,0)</f>
-        <v>20.18</v>
+        <f>IF((F4-K4*2)&gt;0,F4-2*K4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <f>(SQRT(2*E4*L4+D4^2)-D4)/E4</f>
+        <v>0</v>
       </c>
       <c r="O4" s="8">
+        <f>M4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-      <c r="P4" s="8">
-        <f>N4/C4</f>
-        <v>0.40360000000000001</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>P4+2*K4</f>
-        <v>2.2835999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T4">
-        <f>Q4</f>
-        <v>2.2835999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="V4">
-        <f>P4</f>
-        <v>0.40360000000000001</v>
-      </c>
-      <c r="W4" t="b">
-        <f>(F4-L4*2)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <f>(F4-K4*2)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="12">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5" s="20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="1"/>
       <c r="K5" s="16">
-        <f>(C5-D5)/E5</f>
-        <v>0.94</v>
+        <f>(C5^2-D5^2)/(2*E5)</f>
+        <v>21.12</v>
       </c>
       <c r="L5" s="16">
-        <f>(E5*K5^2)/2+D5*K5</f>
-        <v>24.91</v>
+        <f>IF((F5-K5*2)&gt;0,K5,F5/2)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="16">
-        <f>IF((F5-L5*2)&gt;0,L5,F5/2)</f>
-        <v>24.91</v>
-      </c>
-      <c r="N5" s="16">
-        <f>IF((F5-L5*2)&gt;0,F5-2*L5,0)</f>
-        <v>0.17999999999999972</v>
+        <f>IF((F5-K5*2)&gt;0,F5-2*K5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <f>(SQRT(2*E5*L5+D5^2)-D5)/E5</f>
+        <v>0</v>
       </c>
       <c r="O5" s="8">
+        <f>M5/C5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-      <c r="P5" s="8">
-        <f>N5/C5</f>
-        <v>3.5999999999999943E-3</v>
-      </c>
-      <c r="Q5" s="6">
-        <f>P5+2*K5</f>
-        <v>1.8835999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T5">
-        <f>Q5</f>
-        <v>1.8835999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="V5">
-        <f>P5</f>
-        <v>3.5999999999999943E-3</v>
-      </c>
-      <c r="W5" t="b">
-        <f>(F5-L5*2)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <f>(F5-K5*2)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="12">
+        <v>65</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="F6" s="20">
         <v>50</v>
-      </c>
-      <c r="D6" s="12">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12">
-        <v>50</v>
-      </c>
-      <c r="F6" s="20">
-        <v>200</v>
       </c>
       <c r="G6"/>
       <c r="H6" s="1"/>
       <c r="K6" s="16">
-        <f>(C6-D6)/E6</f>
-        <v>0.94</v>
+        <f>(C6^2-D6^2)/(2*E6)</f>
+        <v>21</v>
       </c>
       <c r="L6" s="16">
-        <f>(E6*K6^2)/2+D6*K6</f>
-        <v>24.91</v>
+        <f>IF((F6-K6*2)&gt;0,K6,F6/2)</f>
+        <v>21</v>
       </c>
       <c r="M6" s="16">
-        <f>IF((F6-L6*2)&gt;0,L6,F6/2)</f>
-        <v>24.91</v>
-      </c>
-      <c r="N6" s="16">
-        <f>IF((F6-L6*2)&gt;0,F6-2*L6,0)</f>
-        <v>150.18</v>
+        <f>IF((F6-K6*2)&gt;0,F6-2*K6,0)</f>
+        <v>8</v>
+      </c>
+      <c r="N6" s="8">
+        <f>(SQRT(2*E6*L6+D6^2)-D6)/E6</f>
+        <v>0.6</v>
       </c>
       <c r="O6" s="8">
+        <f>M6/C6</f>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-      <c r="P6" s="8">
-        <f>N6/C6</f>
-        <v>3.0036</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>P6+2*K6</f>
-        <v>4.8835999999999995</v>
+        <v>1.323076923076923</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>1.323076923076923</v>
       </c>
       <c r="T6">
-        <f>Q6</f>
-        <v>4.8835999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
       <c r="U6">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="V6">
-        <f>P6</f>
-        <v>3.0036</v>
-      </c>
-      <c r="W6" t="b">
-        <f>(F6-L6*2)&gt;0</f>
+        <f>O6</f>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="V6" t="b">
+        <f>(F6-K6*2)&gt;0</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" s="22">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="1"/>
       <c r="K7" s="16">
-        <f>(C7-D7)/E7</f>
-        <v>0.94</v>
+        <f>(C7^2-D7^2)/(2*E7)</f>
+        <v>49.994999999999997</v>
       </c>
       <c r="L7" s="16">
-        <f>(E7*K7^2)/2+D7*K7</f>
-        <v>24.91</v>
+        <f>IF((F7-K7*2)&gt;0,K7,F7/2)</f>
+        <v>0</v>
       </c>
       <c r="M7" s="16">
-        <f>IF((F7-L7*2)&gt;0,L7,F7/2)</f>
-        <v>24.91</v>
-      </c>
-      <c r="N7" s="16">
-        <f>IF((F7-L7*2)&gt;0,F7-2*L7,0)</f>
-        <v>150.18</v>
+        <f>IF((F7-K7*2)&gt;0,F7-2*K7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <f>(SQRT(2*E7*L7+D7^2)-D7)/E7</f>
+        <v>0</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.94</v>
-      </c>
-      <c r="P7" s="8">
-        <f>N7/C7</f>
-        <v>3.0036</v>
-      </c>
-      <c r="Q7" s="6">
-        <f>P7+2*K7</f>
-        <v>4.8835999999999995</v>
+        <f>M7/C7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>O7+2*N7</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f>Q7</f>
-        <v>4.8835999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="V7">
-        <f>P7</f>
-        <v>3.0036</v>
-      </c>
-      <c r="W7" t="b">
-        <f>(F7-L7*2)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" t="b">
+        <f>(F7-K7*2)&gt;0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="24">
-        <f>MAX(Q2:Q7)</f>
-        <v>9.4</v>
+        <f>MAX(P2:P7)</f>
+        <v>3.0629370629370629</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="26">
-        <f>VLOOKUP(C10,$T$2:$V$7,2,FALSE)</f>
-        <v>2.1677925358506132</v>
+        <f>VLOOKUP(C10,$S$2:$U$7,2,FALSE)</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="26">
-        <f>VLOOKUP(C10,$T$2:$V$7,3,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C10,$S$2:$U$7,3,FALSE)</f>
+        <v>1.5244755244755244</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="27" t="b">
-        <f>VLOOKUP(C10,T2:W7,4,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+        <f>VLOOKUP(C10,S2:V7,4,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>24</v>
@@ -10712,503 +10625,476 @@
         <v>22</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="L12" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="M12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="N12" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="O12" s="11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="16">
         <f>IF((F2-D2*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))&lt;0,F2/(2*$E$10+$G$10),D2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="16">
         <f>(F2-C13*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))</f>
-        <v>10</v>
+        <v>64.999999999999986</v>
       </c>
       <c r="E13" s="16">
         <f>D13*$E$10+C13</f>
-        <v>24.67792535850613</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="F13" s="3">
-        <f>IF(D13&gt;E2,E2,D13)</f>
-        <v>10</v>
+        <f t="shared" ref="F13:F18" si="3">IF(D13&gt;E2,E2,D13)</f>
+        <v>64.999999999999986</v>
       </c>
       <c r="G13" s="16">
-        <f>IF(E13&gt;C2,C2,E13)</f>
-        <v>24.67792535850613</v>
+        <f t="shared" ref="G13:G18" si="4">IF(E13&gt;C2,C2,E13)</f>
+        <v>54.999999999999993</v>
       </c>
       <c r="H13" s="16" t="str">
-        <f t="shared" ref="H13:H18" si="2">IF(OR(F13&lt;&gt;D13,G13&lt;&gt;E13),"x","")</f>
+        <f t="shared" ref="H13:H18" si="5">IF(OR(F13&lt;&gt;D13,G13&lt;&gt;E13),"x","")</f>
         <v/>
       </c>
       <c r="K13" s="16">
-        <f>IF(F13&gt;0,(G13-C13)/F13,0)</f>
-        <v>2.1677925358506132</v>
+        <f>IF(F13&gt;0,(G13^2-C13^2)/(2*F13),0)</f>
+        <v>23.076923076923077</v>
       </c>
       <c r="L13" s="16">
-        <f>(F13*K13^2)/2+C13*K13</f>
-        <v>30</v>
+        <f>IF((F2-K13*2)&gt;0,K13,F2/2)</f>
+        <v>23.076923076923077</v>
       </c>
       <c r="M13" s="16">
-        <f>IF((F2-L13*2)&gt;0,L13,F2/2)</f>
-        <v>30</v>
-      </c>
-      <c r="N13" s="16">
-        <f>IF((F2-L13*2)&gt;0,F2-2*L13,0)</f>
-        <v>0</v>
+        <f>IF((F2-K13*2)&gt;0,F2-2*K13,0)</f>
+        <v>83.84615384615384</v>
+      </c>
+      <c r="N13" s="8">
+        <f>IF(F13&gt;0,(SQRT(2*F13*L13+D2^2)-C13)/F13,0)</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="O13" s="8">
-        <f>(SQRT(2*F13*M13+D2^2)-C13)/F13</f>
-        <v>2.1677925358506132</v>
+        <f>IF(G13=0,0,M13/G13)</f>
+        <v>1.5244755244755246</v>
       </c>
       <c r="P13" s="8">
-        <f>IF(G13=0,0,N13/G13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <f>P13+K13*2</f>
-        <v>4.3355850717012263</v>
+        <f>O13+N13*2</f>
+        <v>3.0629370629370634</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S18" si="6">P13</f>
+        <v>3.0629370629370634</v>
       </c>
       <c r="T13">
-        <f>Q13</f>
-        <v>4.3355850717012263</v>
+        <f>N13</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="U13">
         <f>O13</f>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="V13">
-        <f>P13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" t="b">
+        <v>1.5244755244755246</v>
+      </c>
+      <c r="V13" t="b">
         <f>(F2-(G13^2/(2*F13))*2)&gt;0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="16">
-        <f t="shared" ref="C14:C18" si="3">IF((F3-D3*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))&lt;0,F3/(2*$E$10+$G$10),D3)</f>
-        <v>3</v>
+        <f t="shared" ref="C14:C18" si="7">IF((F3-D3*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))&lt;0,F3/(2*$E$10+$G$10),D3)</f>
+        <v>0</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" ref="D14:D18" si="4">(F3-C14*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))</f>
-        <v>39.791515916984764</v>
+        <f t="shared" ref="D14:D18" si="8">(F3-C14*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))</f>
+        <v>0</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" ref="E14:E18" si="5">D14*$E$10+C14</f>
-        <v>89.259751195020442</v>
+        <f t="shared" ref="E14:E18" si="9">D14*$E$10+C14</f>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <f>IF(D14&gt;E3,E3,D14)</f>
-        <v>39.791515916984764</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f>IF(E14&gt;C3,C3,E14)</f>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H14" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>x</v>
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="K14" s="16">
-        <f t="shared" ref="K14:K18" si="6">IF(F14&gt;0,(G14-C14)/F14,0)</f>
-        <v>1.1811563072403164</v>
+        <f>IF(F14&gt;0,(G14^2-C14^2)/(2*F14),0)</f>
+        <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" ref="L14:L18" si="7">(F14*K14^2)/2+C14*K14</f>
-        <v>31.30064214186838</v>
+        <f>IF((F3-K14*2)&gt;0,K14,F3/2)</f>
+        <v>0</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" ref="M14:M18" si="8">IF((F3-L14*2)&gt;0,L14,F3/2)</f>
-        <v>31.30064214186838</v>
-      </c>
-      <c r="N14" s="16">
-        <f t="shared" ref="N14:N18" si="9">IF((F3-L14*2)&gt;0,F3-2*L14,0)</f>
-        <v>137.39871571626324</v>
+        <f>IF((F3-K14*2)&gt;0,F3-2*K14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <f>IF(F14&gt;0,(SQRT(2*F14*L14+D3^2)-C14)/F14,0)</f>
+        <v>0</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" ref="O14:O18" si="10">(SQRT(2*F14*M14+D3^2)-C14)/F14</f>
-        <v>1.1811563072403164</v>
+        <f>IF(G14=0,0,M14/G14)</f>
+        <v>0</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P18" si="11">IF(G14=0,0,N14/G14)</f>
-        <v>2.7479743143252646</v>
-      </c>
-      <c r="Q14" s="8">
-        <f t="shared" ref="Q14:Q18" si="12">P14+K14*2</f>
-        <v>5.1102869288058974</v>
+        <f t="shared" ref="P14:P18" si="10">O14+N14*2</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="T14">
-        <f>Q14</f>
-        <v>5.1102869288058974</v>
+        <f t="shared" ref="T14:T18" si="11">N14</f>
+        <v>0</v>
       </c>
       <c r="U14">
-        <f t="shared" ref="U14:U18" si="13">O14</f>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="V14">
-        <f>P14</f>
-        <v>2.7479743143252646</v>
-      </c>
-      <c r="W14" t="b">
+        <f>O14</f>
+        <v>0</v>
+      </c>
+      <c r="V14" t="e">
         <f>(F3-(G14^2/(2*F14))*2)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
         <f t="shared" si="4"/>
-        <v>12.12796542264177</v>
-      </c>
-      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>29.290912918257156</v>
-      </c>
-      <c r="F15" s="3">
-        <f>IF(D15&gt;E4,E4,D15)</f>
-        <v>12.12796542264177</v>
-      </c>
-      <c r="G15" s="16">
-        <f>IF(E15&gt;C4,C4,E15)</f>
-        <v>29.290912918257156</v>
-      </c>
-      <c r="H15" s="16" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K15" s="16">
+        <f>IF(F15&gt;0,(G15^2-C15^2)/(2*F15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <f>IF((F4-K15*2)&gt;0,K15,F4/2)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <f>IF((F4-K15*2)&gt;0,F4-2*K15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f>IF(F15&gt;0,(SQRT(2*F15*L15+D4^2)-C15)/F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f>IF(G15=0,0,M15/G15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="6"/>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="M15" s="16">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="N15" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="10"/>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="12"/>
-        <v>4.3355850717012263</v>
-      </c>
-      <c r="T15">
-        <f>Q15</f>
-        <v>4.3355850717012263</v>
-      </c>
       <c r="U15">
-        <f t="shared" si="13"/>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="V15">
-        <f>P15</f>
-        <v>0</v>
-      </c>
-      <c r="W15" t="b">
+        <f>O15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" t="e">
         <f>(F4-(G15^2/(2*F15))*2)&gt;0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
         <f t="shared" si="4"/>
-        <v>7.8720345773582316</v>
-      </c>
-      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>20.064937798755111</v>
-      </c>
-      <c r="F16" s="3">
-        <f>IF(D16&gt;E5,E5,D16)</f>
-        <v>7.8720345773582316</v>
-      </c>
-      <c r="G16" s="16">
-        <f>IF(E16&gt;C5,C5,E16)</f>
-        <v>20.064937798755111</v>
-      </c>
-      <c r="H16" s="16" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K16" s="16">
+        <f>IF(F16&gt;0,(G16^2-C16^2)/(2*F16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <f>IF((F5-K16*2)&gt;0,K16,F5/2)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <f>IF((F5-K16*2)&gt;0,F5-2*K16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <f>IF(F16&gt;0,(SQRT(2*F16*L16+D5^2)-C16)/F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <f>IF(G16=0,0,M16/G16)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="6"/>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="M16" s="16">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="N16" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="10"/>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="12"/>
-        <v>4.3355850717012263</v>
-      </c>
-      <c r="T16">
-        <f>Q16</f>
-        <v>4.3355850717012263</v>
-      </c>
       <c r="U16">
-        <f t="shared" si="13"/>
-        <v>2.1677925358506132</v>
-      </c>
-      <c r="V16">
-        <f>P16</f>
-        <v>0</v>
-      </c>
-      <c r="W16" t="b">
+        <f>O16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" t="e">
         <f>(F5-(G16^2/(2*F16))*2)&gt;0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="8"/>
+        <v>19.658536585365852</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="9"/>
+        <v>20.121951219512194</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D17" s="16">
+        <v>19.658536585365852</v>
+      </c>
+      <c r="G17" s="16">
         <f t="shared" si="4"/>
-        <v>39.791515916984764</v>
-      </c>
-      <c r="E17" s="16">
+        <v>20.121951219512194</v>
+      </c>
+      <c r="H17" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>89.259751195020442</v>
-      </c>
-      <c r="F17" s="3">
-        <f>IF(D17&gt;E6,E6,D17)</f>
-        <v>39.791515916984764</v>
-      </c>
-      <c r="G17" s="16">
-        <f>IF(E17&gt;C6,C6,E17)</f>
-        <v>50</v>
-      </c>
-      <c r="H17" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="K17" s="16">
+        <f>IF(F17&gt;0,(G17^2-C17^2)/(2*F17),0)</f>
+        <v>9.6622889305816138</v>
+      </c>
+      <c r="L17" s="16">
+        <f>IF((F6-K17*2)&gt;0,K17,F6/2)</f>
+        <v>9.6622889305816138</v>
+      </c>
+      <c r="M17" s="16">
+        <f>IF((F6-K17*2)&gt;0,F6-2*K17,0)</f>
+        <v>30.675422138836772</v>
+      </c>
+      <c r="N17" s="8">
+        <f>IF(F17&gt;0,(SQRT(2*F17*L17+D6^2)-C17)/F17,0)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="O17" s="8">
+        <f>IF(G17=0,0,M17/G17)</f>
+        <v>1.5244755244755246</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="10"/>
+        <v>3.0629370629370634</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="6"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="7"/>
-        <v>31.30064214186838</v>
-      </c>
-      <c r="M17" s="16">
-        <f t="shared" si="8"/>
-        <v>31.30064214186838</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" si="9"/>
-        <v>137.39871571626324</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="10"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="P17" s="8">
+        <v>3.0629370629370634</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="11"/>
-        <v>2.7479743143252646</v>
-      </c>
-      <c r="Q17" s="8">
-        <f t="shared" si="12"/>
-        <v>5.1102869288058974</v>
-      </c>
-      <c r="T17">
-        <f>Q17</f>
-        <v>5.1102869288058974</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="U17">
-        <f t="shared" si="13"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="V17">
-        <f>P17</f>
-        <v>2.7479743143252646</v>
-      </c>
-      <c r="W17" t="b">
+        <f>O17</f>
+        <v>1.5244755244755246</v>
+      </c>
+      <c r="V17" t="b">
         <f>(F6-(G17^2/(2*F17))*2)&gt;0</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
         <f t="shared" si="4"/>
-        <v>39.791515916984764</v>
-      </c>
-      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>89.259751195020442</v>
-      </c>
-      <c r="F18" s="3">
-        <f>IF(D18&gt;E7,E7,D18)</f>
-        <v>39.791515916984764</v>
-      </c>
-      <c r="G18" s="16">
-        <f>IF(E18&gt;C7,C7,E18)</f>
-        <v>50</v>
-      </c>
-      <c r="H18" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="K18" s="16">
+        <f>IF(F18&gt;0,(G18^2-C18^2)/(2*F18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <f>IF((F7-K18*2)&gt;0,K18,F7/2)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
+        <f>IF((F7-K18*2)&gt;0,F7-2*K18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <f>IF(F18&gt;0,(SQRT(2*F18*L18+D7^2)-C18)/F18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <f>IF(G18=0,0,M18/G18)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="6"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="7"/>
-        <v>31.30064214186838</v>
-      </c>
-      <c r="M18" s="16">
-        <f t="shared" si="8"/>
-        <v>31.30064214186838</v>
-      </c>
-      <c r="N18" s="16">
-        <f t="shared" si="9"/>
-        <v>137.39871571626324</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="10"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="11"/>
-        <v>2.7479743143252646</v>
-      </c>
-      <c r="Q18" s="8">
-        <f t="shared" si="12"/>
-        <v>5.1102869288058974</v>
-      </c>
-      <c r="T18">
-        <f>Q18</f>
-        <v>5.1102869288058974</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <f t="shared" si="13"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="V18">
-        <f>P18</f>
-        <v>2.7479743143252646</v>
-      </c>
-      <c r="W18" t="b">
+        <f>O18</f>
+        <v>0</v>
+      </c>
+      <c r="V18" t="e">
         <f>(F7-(G18^2/(2*F18))*2)&gt;0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="29">
-        <f>MAX(Q13:Q18)</f>
-        <v>5.1102869288058974</v>
+        <f>MAX(P13:P18)</f>
+        <v>3.0629370629370634</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="29">
-        <f>VLOOKUP(C21,T13:V18,2,FALSE)</f>
-        <v>1.1811563072403164</v>
+        <f>VLOOKUP(C21,S13:U18,2,FALSE)</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="29">
-        <f>VLOOKUP(C21,T13:V18,3,FALSE)</f>
-        <v>2.7479743143252646</v>
+        <f>VLOOKUP(C21,S13:U18,3,FALSE)</f>
+        <v>1.5244755244755246</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="27" t="b">
-        <f>VLOOKUP(C21,T13:W18,4,FALSE)</f>
+        <f>VLOOKUP(C21,S13:V18,4,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
       <c r="C23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="41" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="33" t="s">
@@ -11224,164 +11110,153 @@
         <v>22</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="L23" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="M23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="N23" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="O23" s="11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="34">
         <f>IF((F2-D2*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))&lt;0,F2/(2*$E$21+$G$21),C13)</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="44">
+        <v>5</v>
+      </c>
+      <c r="D24" s="42">
         <f>(F2-C24*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))</f>
-        <v>9.6250666006490952</v>
+        <v>64.999999999999986</v>
       </c>
       <c r="E24" s="35">
         <f>D24*$E$21+C24</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="F24" s="3">
-        <f>IF(D24&gt;E2,E2,D24)</f>
-        <v>9.6250666006490952</v>
+        <f t="shared" ref="F24:F29" si="12">IF(D24&gt;E2,E2,D24)</f>
+        <v>64.999999999999986</v>
       </c>
       <c r="G24" s="16">
-        <f>IF(E24&gt;C2,C2,E24)</f>
-        <v>14.36870812296479</v>
+        <f t="shared" ref="G24:G29" si="13">IF(E24&gt;C2,C2,E24)</f>
+        <v>54.999999999999993</v>
       </c>
       <c r="H24" s="16" t="str">
         <f t="shared" ref="H24:H29" si="14">IF(OR(F24&lt;&gt;D24,G24&lt;&gt;E24),"x","")</f>
         <v/>
       </c>
       <c r="K24" s="16">
-        <f>IF(F24&gt;0,(G24-C24)/F24,0)</f>
-        <v>1.1811563072403164</v>
+        <f>IF(F24&gt;0,(G24^2-C24^2)/(2*F24),0)</f>
+        <v>23.076923076923077</v>
       </c>
       <c r="L24" s="16">
-        <f>(F24*K24^2)/2+C24*K24</f>
-        <v>10.257579574027989</v>
+        <f>IF((F2-K24*2)&gt;0,K24,F2/2)</f>
+        <v>23.076923076923077</v>
       </c>
       <c r="M24" s="16">
-        <f>IF((F2-L24*2)&gt;0,L24,F2/2)</f>
-        <v>10.257579574027989</v>
-      </c>
-      <c r="N24" s="16">
-        <f>IF((F2-L24*2)&gt;0,F2-2*L24,0)</f>
-        <v>39.484840851944021</v>
+        <f>IF((F2-K24*2)&gt;0,F2-2*K24,0)</f>
+        <v>83.84615384615384</v>
+      </c>
+      <c r="N24" s="8">
+        <f>IF(F24&gt;0,(SQRT(2*F24*L24+C24^2)-C24)/F24,0)</f>
+        <v>0.76923076923076927</v>
       </c>
       <c r="O24" s="8">
-        <f>(SQRT(2*F24*M24+C24^2)-C24)/F24</f>
-        <v>1.1811563072403164</v>
+        <f>IF(G24=0,0,M24/G24)</f>
+        <v>1.5244755244755246</v>
       </c>
       <c r="P24" s="8">
-        <f>IF(G24=0,0,N24/G24)</f>
-        <v>2.7479743143252642</v>
-      </c>
-      <c r="Q24" s="8">
-        <f>P24+K24*2</f>
-        <v>5.1102869288058965</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+        <f>O24+N24*2</f>
+        <v>3.0629370629370634</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="34">
         <f t="shared" ref="C25:C29" si="15">IF((F3-D3*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))&lt;0,F3/(2*$E$21+$G$21),C14)</f>
-        <v>3</v>
-      </c>
-      <c r="D25" s="44">
+        <v>0</v>
+      </c>
+      <c r="D25" s="42">
         <f t="shared" ref="D25:D29" si="16">(F3-C25*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))</f>
-        <v>39.791515916984771</v>
+        <v>0</v>
       </c>
       <c r="E25" s="35">
         <f t="shared" ref="E25:E29" si="17">D25*$E$21+C25</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f>IF(D25&gt;E3,E3,D25)</f>
-        <v>39.791515916984771</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G25" s="16">
-        <f>IF(E25&gt;C3,C3,E25)</f>
-        <v>50.000000000000007</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H25" s="16" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K25" s="16">
-        <f t="shared" ref="K25:K29" si="18">IF(F25&gt;0,(G25-C25)/F25,0)</f>
-        <v>1.1811563072403164</v>
+        <f t="shared" ref="K25:K29" si="18">IF(F25&gt;0,(G25^2-C25^2)/(2*F25),0)</f>
+        <v>0</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" ref="L25:L29" si="19">(F25*K25^2)/2+C25*K25</f>
-        <v>31.300642141868387</v>
+        <f>IF((F3-K25*2)&gt;0,K25,F3/2)</f>
+        <v>0</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" ref="M25:M29" si="20">IF((F3-L25*2)&gt;0,L25,F3/2)</f>
-        <v>31.300642141868387</v>
-      </c>
-      <c r="N25" s="16">
-        <f t="shared" ref="N25:N29" si="21">IF((F3-L25*2)&gt;0,F3-2*L25,0)</f>
-        <v>137.39871571626321</v>
+        <f>IF((F3-K25*2)&gt;0,F3-2*K25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <f>IF(F25&gt;0,(SQRT(2*F25*L25+C25^2)-C25)/F25,0)</f>
+        <v>0</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" ref="O25:O29" si="22">(SQRT(2*F25*M25+C25^2)-C25)/F25</f>
-        <v>1.1811563072403164</v>
+        <f>IF(G25=0,0,M25/G25)</f>
+        <v>0</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" ref="P25:P29" si="23">IF(G25=0,0,N25/G25)</f>
-        <v>2.7479743143252637</v>
-      </c>
-      <c r="Q25" s="8">
-        <f t="shared" ref="Q25:Q29" si="24">P25+K25*2</f>
-        <v>5.1102869288058965</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P25:P29" si="19">O25+N25*2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="D26" s="44">
+        <v>0</v>
+      </c>
+      <c r="D26" s="42">
         <f t="shared" si="16"/>
-        <v>11.779812980387357</v>
+        <v>0</v>
       </c>
       <c r="E26" s="35">
         <f t="shared" si="17"/>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f>IF(D26&gt;E4,E4,D26)</f>
-        <v>11.779812980387357</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G26" s="16">
-        <f>IF(E26&gt;C4,C4,E26)</f>
-        <v>16.913800399895877</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H26" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11389,56 +11264,52 @@
       </c>
       <c r="K26" s="16">
         <f t="shared" si="18"/>
-        <v>1.1811563072403164</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16">
+        <f>IF((F4-K26*2)&gt;0,K26,F4/2)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <f>IF((F4-K26*2)&gt;0,F4-2*K26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <f>IF(F26&gt;0,(SQRT(2*F26*L26+C26^2)-C26)/F26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <f>IF(G26=0,0,M26/G26)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
         <f t="shared" si="19"/>
-        <v>11.760655471730875</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="20"/>
-        <v>11.760655471730875</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" si="21"/>
-        <v>46.478689056538251</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="22"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="23"/>
-        <v>2.7479743143252642</v>
-      </c>
-      <c r="Q26" s="8">
-        <f t="shared" si="24"/>
-        <v>5.1102869288058965</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="D27" s="44">
+        <v>0</v>
+      </c>
+      <c r="D27" s="42">
         <f t="shared" si="16"/>
-        <v>7.4703202209108319</v>
+        <v>0</v>
       </c>
       <c r="E27" s="35">
         <f t="shared" si="17"/>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f>IF(D27&gt;E5,E5,D27)</f>
-        <v>7.4703202209108319</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G27" s="16">
-        <f>IF(E27&gt;C5,C5,E27)</f>
-        <v>11.823615846033702</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H27" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11446,56 +11317,52 @@
       </c>
       <c r="K27" s="16">
         <f t="shared" si="18"/>
-        <v>1.1811563072403162</v>
+        <v>0</v>
       </c>
       <c r="L27" s="16">
+        <f>IF((F5-K27*2)&gt;0,K27,F5/2)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <f>IF((F5-K27*2)&gt;0,F5-2*K27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <f>IF(F27&gt;0,(SQRT(2*F27*L27+C27^2)-C27)/F27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <f>IF(G27=0,0,M27/G27)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
         <f t="shared" si="19"/>
-        <v>8.7545036763251005</v>
-      </c>
-      <c r="M27" s="16">
-        <f t="shared" si="20"/>
-        <v>8.7545036763251005</v>
-      </c>
-      <c r="N27" s="16">
-        <f t="shared" si="21"/>
-        <v>32.490992647349799</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="22"/>
-        <v>1.1811563072403162</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="23"/>
-        <v>2.7479743143252651</v>
-      </c>
-      <c r="Q27" s="8">
-        <f t="shared" si="24"/>
-        <v>5.1102869288058974</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="34">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="D28" s="44">
+        <v>5</v>
+      </c>
+      <c r="D28" s="42">
         <f t="shared" si="16"/>
-        <v>39.791515916984771</v>
+        <v>19.658536585365848</v>
       </c>
       <c r="E28" s="35">
         <f t="shared" si="17"/>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="F28" s="3">
-        <f>IF(D28&gt;E6,E6,D28)</f>
-        <v>39.791515916984771</v>
+        <f t="shared" si="12"/>
+        <v>19.658536585365848</v>
       </c>
       <c r="G28" s="16">
-        <f>IF(E28&gt;C6,C6,E28)</f>
-        <v>50.000000000000007</v>
+        <f t="shared" si="13"/>
+        <v>20.121951219512191</v>
       </c>
       <c r="H28" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11503,56 +11370,52 @@
       </c>
       <c r="K28" s="16">
         <f t="shared" si="18"/>
-        <v>1.1811563072403164</v>
+        <v>9.662288930581612</v>
       </c>
       <c r="L28" s="16">
+        <f>IF((F6-K28*2)&gt;0,K28,F6/2)</f>
+        <v>9.662288930581612</v>
+      </c>
+      <c r="M28" s="16">
+        <f>IF((F6-K28*2)&gt;0,F6-2*K28,0)</f>
+        <v>30.675422138836776</v>
+      </c>
+      <c r="N28" s="8">
+        <f>IF(F28&gt;0,(SQRT(2*F28*L28+C28^2)-C28)/F28,0)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="O28" s="8">
+        <f>IF(G28=0,0,M28/G28)</f>
+        <v>1.524475524475525</v>
+      </c>
+      <c r="P28" s="8">
         <f t="shared" si="19"/>
-        <v>31.300642141868387</v>
-      </c>
-      <c r="M28" s="16">
-        <f t="shared" si="20"/>
-        <v>31.300642141868387</v>
-      </c>
-      <c r="N28" s="16">
-        <f t="shared" si="21"/>
-        <v>137.39871571626321</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" si="22"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="P28" s="8">
-        <f t="shared" si="23"/>
-        <v>2.7479743143252637</v>
-      </c>
-      <c r="Q28" s="8">
-        <f t="shared" si="24"/>
-        <v>5.1102869288058965</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.0629370629370634</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="39">
         <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="D29" s="45">
+        <v>0</v>
+      </c>
+      <c r="D29" s="43">
         <f t="shared" si="16"/>
-        <v>39.791515916984771</v>
-      </c>
-      <c r="E29" s="42">
+        <v>0</v>
+      </c>
+      <c r="E29" s="40">
         <f t="shared" si="17"/>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <f>IF(D29&gt;E7,E7,D29)</f>
-        <v>39.791515916984771</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G29" s="16">
-        <f>IF(E29&gt;C7,C7,E29)</f>
-        <v>50.000000000000007</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H29" s="16" t="str">
         <f t="shared" si="14"/>
@@ -11560,31 +11423,27 @@
       </c>
       <c r="K29" s="16">
         <f t="shared" si="18"/>
-        <v>1.1811563072403164</v>
+        <v>0</v>
       </c>
       <c r="L29" s="16">
+        <f>IF((F7-K29*2)&gt;0,K29,F7/2)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <f>IF((F7-K29*2)&gt;0,F7-2*K29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <f>IF(F29&gt;0,(SQRT(2*F29*L29+C29^2)-C29)/F29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <f>IF(G29=0,0,M29/G29)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
         <f t="shared" si="19"/>
-        <v>31.300642141868387</v>
-      </c>
-      <c r="M29" s="16">
-        <f t="shared" si="20"/>
-        <v>31.300642141868387</v>
-      </c>
-      <c r="N29" s="16">
-        <f t="shared" si="21"/>
-        <v>137.39871571626321</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" si="22"/>
-        <v>1.1811563072403164</v>
-      </c>
-      <c r="P29" s="8">
-        <f t="shared" si="23"/>
-        <v>2.7479743143252637</v>
-      </c>
-      <c r="Q29" s="8">
-        <f t="shared" si="24"/>
-        <v>5.1102869288058965</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11606,17 +11465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -11662,27 +11521,27 @@
       </c>
       <c r="B3">
         <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A3)+Tabelle1!$C$24,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A3+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A3)+Tabelle1!$C$25,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A3+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A3)+Tabelle1!$C$26,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A3+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A3)+Tabelle1!$C$27,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A3+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A3)+Tabelle1!$C$28,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A3+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A3)+Tabelle1!$C$29,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A3+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11691,27 +11550,27 @@
       </c>
       <c r="B4">
         <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A4)+Tabelle1!$C$24,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A4+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>3.9625066600649097</v>
+        <v>11.5</v>
       </c>
       <c r="C4">
         <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A4)+Tabelle1!$C$25,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A4+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>6.9791515916984768</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A4)+Tabelle1!$C$26,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A4+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>4.1779812980387359</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A4)+Tabelle1!$C$27,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A4+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>3.7470320220910831</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A4)+Tabelle1!$C$28,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A4+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>6.9791515916984768</v>
+        <v>6.9658536585365844</v>
       </c>
       <c r="G4">
         <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A4)+Tabelle1!$C$29,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A4+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>6.9791515916984768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11720,27 +11579,27 @@
       </c>
       <c r="B5">
         <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A5)+Tabelle1!$C$24,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A5+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>4.9250133201298194</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A5)+Tabelle1!$C$25,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A5+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>10.958303183396954</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A5)+Tabelle1!$C$26,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A5+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>5.3559625960774717</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A5)+Tabelle1!$C$27,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A5+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>4.4940640441821662</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A5)+Tabelle1!$C$28,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A5+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>10.958303183396954</v>
+        <v>8.9317073170731689</v>
       </c>
       <c r="G5">
         <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A5)+Tabelle1!$C$29,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A5+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>10.958303183396954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11749,27 +11608,27 @@
       </c>
       <c r="B6">
         <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A6)+Tabelle1!$C$24,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A6+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>5.8875199801947282</v>
+        <v>24.499999999999996</v>
       </c>
       <c r="C6">
         <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A6)+Tabelle1!$C$25,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A6+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>14.93745477509543</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A6)+Tabelle1!$C$26,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A6+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>6.5339438941162076</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A6)+Tabelle1!$C$27,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A6+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>5.2410960662732489</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A6)+Tabelle1!$C$28,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A6+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>14.93745477509543</v>
+        <v>10.897560975609753</v>
       </c>
       <c r="G6">
         <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A6)+Tabelle1!$C$29,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A6+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>14.93745477509543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11778,27 +11637,27 @@
       </c>
       <c r="B7">
         <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A7)+Tabelle1!$C$24,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A7+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>6.8500266402596388</v>
+        <v>30.999999999999996</v>
       </c>
       <c r="C7">
         <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A7)+Tabelle1!$C$25,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A7+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>18.916606366793907</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A7)+Tabelle1!$C$26,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A7+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>7.7119251921549425</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A7)+Tabelle1!$C$27,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A7+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>5.9881280883643324</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A7)+Tabelle1!$C$28,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A7+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>18.916606366793907</v>
+        <v>12.86341463414634</v>
       </c>
       <c r="G7">
         <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A7)+Tabelle1!$C$29,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A7+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>18.916606366793907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11807,27 +11666,27 @@
       </c>
       <c r="B8">
         <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A8)+Tabelle1!$C$24,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A8+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>7.8125333003245476</v>
+        <v>37.499999999999993</v>
       </c>
       <c r="C8">
         <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A8)+Tabelle1!$C$25,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A8+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>22.895757958492386</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A8)+Tabelle1!$C$26,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A8+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>8.8899064901936775</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A8)+Tabelle1!$C$27,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A8+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>6.735160110455416</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A8)+Tabelle1!$C$28,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A8+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>22.895757958492386</v>
+        <v>14.829268292682924</v>
       </c>
       <c r="G8">
         <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A8)+Tabelle1!$C$29,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A8+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>22.895757958492386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11836,27 +11695,27 @@
       </c>
       <c r="B9">
         <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A9)+Tabelle1!$C$24,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A9+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>8.7750399603894564</v>
+        <v>43.999999999999993</v>
       </c>
       <c r="C9">
         <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A9)+Tabelle1!$C$25,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A9+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>26.874909550190861</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A9)+Tabelle1!$C$26,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A9+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>10.067887788232415</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A9)+Tabelle1!$C$27,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A9+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>7.4821921325464986</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A9)+Tabelle1!$C$28,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A9+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>26.874909550190861</v>
+        <v>16.795121951219507</v>
       </c>
       <c r="G9">
         <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A9)+Tabelle1!$C$29,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A9+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>26.874909550190861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11865,27 +11724,27 @@
       </c>
       <c r="B10">
         <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A10)+Tabelle1!$C$24,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A10+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>9.737546620454367</v>
+        <v>50.499999999999986</v>
       </c>
       <c r="C10">
         <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A10)+Tabelle1!$C$25,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A10+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>30.854061141889339</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A10)+Tabelle1!$C$26,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A10+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>11.245869086271149</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A10)+Tabelle1!$C$27,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A10+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>8.2292241546375813</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A10)+Tabelle1!$C$28,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A10+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>30.854061141889339</v>
+        <v>18.760975609756095</v>
       </c>
       <c r="G10">
         <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A10)+Tabelle1!$C$29,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A10+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>30.854061141889339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11894,27 +11753,27 @@
       </c>
       <c r="B11">
         <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A11)+Tabelle1!$C$24,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A11+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>10.700053280519278</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C11">
         <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A11)+Tabelle1!$C$25,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A11+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>34.833212733587814</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A11)+Tabelle1!$C$26,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A11+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>12.423850384309885</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A11)+Tabelle1!$C$27,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A11+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>8.9762561767286648</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A11)+Tabelle1!$C$28,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A11+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>34.833212733587814</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G11">
         <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A11)+Tabelle1!$C$29,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A11+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>34.833212733587814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11923,27 +11782,27 @@
       </c>
       <c r="B12">
         <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A12)+Tabelle1!$C$24,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A12+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>11.662559940584186</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C12">
         <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A12)+Tabelle1!$C$25,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A12+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>38.812364325286296</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A12)+Tabelle1!$C$26,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A12+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>13.601831682348621</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A12)+Tabelle1!$C$27,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A12+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>9.7232881988197484</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A12)+Tabelle1!$C$28,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A12+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>38.812364325286296</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G12">
         <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A12)+Tabelle1!$C$29,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A12+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>38.812364325286296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11952,27 +11811,27 @@
       </c>
       <c r="B13">
         <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A13)+Tabelle1!$C$24,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A13+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>12.625066600649095</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C13">
         <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A13)+Tabelle1!$C$25,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A13+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>42.791515916984771</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A13)+Tabelle1!$C$26,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A13+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>14.779812980387357</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A13)+Tabelle1!$C$27,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A13+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>10.470320220910832</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A13)+Tabelle1!$C$28,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A13+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>42.791515916984771</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G13">
         <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A13)+Tabelle1!$C$29,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A13+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>42.791515916984771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -11981,27 +11840,27 @@
       </c>
       <c r="B14">
         <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A14)+Tabelle1!$C$24,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A14+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>13.587573260714006</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C14">
         <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A14)+Tabelle1!$C$25,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A14+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>46.770667508683253</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A14)+Tabelle1!$C$26,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A14+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>15.957794278426093</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A14)+Tabelle1!$C$27,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A14+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.217352243001915</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A14)+Tabelle1!$C$28,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A14+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>46.770667508683253</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G14">
         <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A14)+Tabelle1!$C$29,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A14+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>46.770667508683253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12010,27 +11869,27 @@
       </c>
       <c r="B15">
         <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A15)+Tabelle1!$C$24,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A15+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C15">
         <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A15)+Tabelle1!$C$25,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A15+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A15)+Tabelle1!$C$26,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A15+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A15)+Tabelle1!$C$27,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A15+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A15)+Tabelle1!$C$28,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A15+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G15">
         <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A15)+Tabelle1!$C$29,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A15+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -12039,27 +11898,27 @@
       </c>
       <c r="B16">
         <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A16)+Tabelle1!$C$24,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A16+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C16">
         <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A16)+Tabelle1!$C$25,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A16+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A16)+Tabelle1!$C$26,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A16+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A16)+Tabelle1!$C$27,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A16+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A16)+Tabelle1!$C$28,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A16+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G16">
         <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A16)+Tabelle1!$C$29,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A16+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12068,27 +11927,27 @@
       </c>
       <c r="B17">
         <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A17)+Tabelle1!$C$24,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A17+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C17">
         <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A17)+Tabelle1!$C$25,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A17+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A17)+Tabelle1!$C$26,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A17+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A17)+Tabelle1!$C$27,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A17+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A17)+Tabelle1!$C$28,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A17+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G17">
         <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A17)+Tabelle1!$C$29,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A17+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12097,27 +11956,27 @@
       </c>
       <c r="B18">
         <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A18)+Tabelle1!$C$24,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A18+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C18">
         <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A18)+Tabelle1!$C$25,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A18+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A18)+Tabelle1!$C$26,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A18+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A18)+Tabelle1!$C$27,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A18+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A18)+Tabelle1!$C$28,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A18+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G18">
         <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A18)+Tabelle1!$C$29,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A18+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12126,27 +11985,27 @@
       </c>
       <c r="B19">
         <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A19)+Tabelle1!$C$24,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A19+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C19">
         <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A19)+Tabelle1!$C$25,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A19+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A19)+Tabelle1!$C$26,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A19+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A19)+Tabelle1!$C$27,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A19+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A19)+Tabelle1!$C$28,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A19+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G19">
         <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A19)+Tabelle1!$C$29,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A19+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12155,27 +12014,27 @@
       </c>
       <c r="B20">
         <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A20)+Tabelle1!$C$24,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A20+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C20">
         <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A20)+Tabelle1!$C$25,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A20+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A20)+Tabelle1!$C$26,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A20+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A20)+Tabelle1!$C$27,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A20+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A20)+Tabelle1!$C$28,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A20+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G20">
         <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A20)+Tabelle1!$C$29,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A20+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12184,27 +12043,27 @@
       </c>
       <c r="B21">
         <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A21)+Tabelle1!$C$24,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A21+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C21">
         <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A21)+Tabelle1!$C$25,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A21+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A21)+Tabelle1!$C$26,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A21+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A21)+Tabelle1!$C$27,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A21+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A21)+Tabelle1!$C$28,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A21+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G21">
         <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A21)+Tabelle1!$C$29,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A21+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12213,27 +12072,27 @@
       </c>
       <c r="B22">
         <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A22)+Tabelle1!$C$24,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A22+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C22">
         <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A22)+Tabelle1!$C$25,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A22+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A22)+Tabelle1!$C$26,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A22+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A22)+Tabelle1!$C$27,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A22+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A22)+Tabelle1!$C$28,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A22+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G22">
         <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A22)+Tabelle1!$C$29,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A22+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -12242,27 +12101,27 @@
       </c>
       <c r="B23">
         <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A23)+Tabelle1!$C$24,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A23+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C23">
         <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A23)+Tabelle1!$C$25,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A23+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A23)+Tabelle1!$C$26,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A23+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A23)+Tabelle1!$C$27,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A23+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A23)+Tabelle1!$C$28,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A23+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G23">
         <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A23)+Tabelle1!$C$29,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A23+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -12271,27 +12130,27 @@
       </c>
       <c r="B24">
         <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A24)+Tabelle1!$C$24,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A24+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C24">
         <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A24)+Tabelle1!$C$25,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A24+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A24)+Tabelle1!$C$26,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A24+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A24)+Tabelle1!$C$27,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A24+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A24)+Tabelle1!$C$28,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A24+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G24">
         <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A24)+Tabelle1!$C$29,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A24+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -12300,27 +12159,27 @@
       </c>
       <c r="B25">
         <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A25)+Tabelle1!$C$24,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A25+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.999999999999993</v>
       </c>
       <c r="C25">
         <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A25)+Tabelle1!$C$25,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A25+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A25)+Tabelle1!$C$26,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A25+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A25)+Tabelle1!$C$27,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A25+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A25)+Tabelle1!$C$28,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A25+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>20.121951219512191</v>
       </c>
       <c r="G25">
         <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A25)+Tabelle1!$C$29,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A25+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -12329,27 +12188,27 @@
       </c>
       <c r="B26">
         <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A26)+Tabelle1!$C$24,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A26+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>54.590909090909122</v>
       </c>
       <c r="C26">
         <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A26)+Tabelle1!$C$25,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A26+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A26)+Tabelle1!$C$26,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A26+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A26)+Tabelle1!$C$27,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A26+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A26)+Tabelle1!$C$28,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A26+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>19.998226164079831</v>
       </c>
       <c r="G26">
         <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A26)+Tabelle1!$C$29,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A26+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -12358,27 +12217,27 @@
       </c>
       <c r="B27">
         <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A27)+Tabelle1!$C$24,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A27+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>48.090909090909115</v>
       </c>
       <c r="C27">
         <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A27)+Tabelle1!$C$25,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A27+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A27)+Tabelle1!$C$26,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A27+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A27)+Tabelle1!$C$27,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A27+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A27)+Tabelle1!$C$28,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A27+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>18.032372505543243</v>
       </c>
       <c r="G27">
         <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A27)+Tabelle1!$C$29,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A27+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -12387,27 +12246,27 @@
       </c>
       <c r="B28">
         <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A28)+Tabelle1!$C$24,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A28+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>41.590909090909108</v>
       </c>
       <c r="C28">
         <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A28)+Tabelle1!$C$25,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A28+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A28)+Tabelle1!$C$26,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A28+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A28)+Tabelle1!$C$27,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A28+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A28)+Tabelle1!$C$28,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A28+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>16.066518847006655</v>
       </c>
       <c r="G28">
         <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A28)+Tabelle1!$C$29,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A28+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -12416,27 +12275,27 @@
       </c>
       <c r="B29">
         <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A29)+Tabelle1!$C$24,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A29+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>35.090909090909108</v>
       </c>
       <c r="C29">
         <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A29)+Tabelle1!$C$25,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A29+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A29)+Tabelle1!$C$26,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A29+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A29)+Tabelle1!$C$27,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A29+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A29)+Tabelle1!$C$28,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A29+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>14.100665188470071</v>
       </c>
       <c r="G29">
         <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A29)+Tabelle1!$C$29,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A29+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -12445,27 +12304,27 @@
       </c>
       <c r="B30">
         <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A30)+Tabelle1!$C$24,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A30+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>28.590909090909101</v>
       </c>
       <c r="C30">
         <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A30)+Tabelle1!$C$25,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A30+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A30)+Tabelle1!$C$26,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A30+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A30)+Tabelle1!$C$27,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A30+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A30)+Tabelle1!$C$28,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A30+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>12.134811529933483</v>
       </c>
       <c r="G30">
         <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A30)+Tabelle1!$C$29,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A30+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -12474,27 +12333,27 @@
       </c>
       <c r="B31">
         <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A31)+Tabelle1!$C$24,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A31+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>22.090909090909125</v>
       </c>
       <c r="C31">
         <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A31)+Tabelle1!$C$25,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A31+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A31)+Tabelle1!$C$26,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A31+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A31)+Tabelle1!$C$27,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A31+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A31)+Tabelle1!$C$28,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A31+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>10.168957871396906</v>
       </c>
       <c r="G31">
         <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A31)+Tabelle1!$C$29,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A31+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12503,27 +12362,27 @@
       </c>
       <c r="B32">
         <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A32)+Tabelle1!$C$24,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A32+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>15.590909090909122</v>
       </c>
       <c r="C32">
         <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A32)+Tabelle1!$C$25,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A32+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A32)+Tabelle1!$C$26,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A32+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A32)+Tabelle1!$C$27,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A32+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A32)+Tabelle1!$C$28,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A32+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>8.2031042128603193</v>
       </c>
       <c r="G32">
         <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A32)+Tabelle1!$C$29,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A32+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -12532,27 +12391,27 @@
       </c>
       <c r="B33">
         <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A33)+Tabelle1!$C$24,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A33+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>9.0909090909091184</v>
       </c>
       <c r="C33">
         <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A33)+Tabelle1!$C$25,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A33+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A33)+Tabelle1!$C$26,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A33+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A33)+Tabelle1!$C$27,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A33+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A33)+Tabelle1!$C$28,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A33+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>6.2372505543237331</v>
       </c>
       <c r="G33">
         <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A33)+Tabelle1!$C$29,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A33+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12561,27 +12420,27 @@
       </c>
       <c r="B34">
         <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A34)+Tabelle1!$C$24,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A34+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A34)+Tabelle1!$C$25,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A34+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A34)+Tabelle1!$C$26,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A34+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A34)+Tabelle1!$C$27,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A34+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A34)+Tabelle1!$C$28,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A34+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A34)+Tabelle1!$C$29,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A34+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12590,27 +12449,27 @@
       </c>
       <c r="B35">
         <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A35)+Tabelle1!$C$24,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A35+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A35)+Tabelle1!$C$25,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A35+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A35)+Tabelle1!$C$26,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A35+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A35)+Tabelle1!$C$27,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A35+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A35)+Tabelle1!$C$28,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A35+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A35)+Tabelle1!$C$29,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A35+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12619,27 +12478,27 @@
       </c>
       <c r="B36">
         <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A36)+Tabelle1!$C$24,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A36+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A36)+Tabelle1!$C$25,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A36+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A36)+Tabelle1!$C$26,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A36+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A36)+Tabelle1!$C$27,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A36+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A36)+Tabelle1!$C$28,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A36+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A36)+Tabelle1!$C$29,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A36+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12648,27 +12507,27 @@
       </c>
       <c r="B37">
         <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A37)+Tabelle1!$C$24,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A37+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A37)+Tabelle1!$C$25,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A37+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A37)+Tabelle1!$C$26,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A37+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A37)+Tabelle1!$C$27,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A37+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A37)+Tabelle1!$C$28,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A37+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A37)+Tabelle1!$C$29,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A37+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -12677,27 +12536,27 @@
       </c>
       <c r="B38">
         <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A38)+Tabelle1!$C$24,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A38+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A38)+Tabelle1!$C$25,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A38+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A38)+Tabelle1!$C$26,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A38+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A38)+Tabelle1!$C$27,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A38+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A38)+Tabelle1!$C$28,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A38+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A38)+Tabelle1!$C$29,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A38+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -12706,27 +12565,27 @@
       </c>
       <c r="B39">
         <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A39)+Tabelle1!$C$24,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A39+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A39)+Tabelle1!$C$25,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A39+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A39)+Tabelle1!$C$26,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A39+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A39)+Tabelle1!$C$27,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A39+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A39)+Tabelle1!$C$28,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A39+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A39)+Tabelle1!$C$29,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A39+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12735,27 +12594,27 @@
       </c>
       <c r="B40">
         <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A40)+Tabelle1!$C$24,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A40+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A40)+Tabelle1!$C$25,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A40+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A40)+Tabelle1!$C$26,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A40+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A40)+Tabelle1!$C$27,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A40+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A40)+Tabelle1!$C$28,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A40+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A40)+Tabelle1!$C$29,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A40+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12764,27 +12623,27 @@
       </c>
       <c r="B41">
         <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A41)+Tabelle1!$C$24,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A41+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A41)+Tabelle1!$C$25,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A41+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A41)+Tabelle1!$C$26,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A41+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A41)+Tabelle1!$C$27,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A41+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A41)+Tabelle1!$C$28,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A41+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A41)+Tabelle1!$C$29,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A41+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -12793,27 +12652,27 @@
       </c>
       <c r="B42">
         <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A42)+Tabelle1!$C$24,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A42+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>14.36870812296479</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A42)+Tabelle1!$C$25,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A42+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A42)+Tabelle1!$C$26,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A42+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.913800399895877</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A42)+Tabelle1!$C$27,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A42+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.823615846033702</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A42)+Tabelle1!$C$28,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A42+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A42)+Tabelle1!$C$29,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A42+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>50.000000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -12822,27 +12681,27 @@
       </c>
       <c r="B43">
         <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A43)+Tabelle1!$C$24,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A43+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>13.686585635586903</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A43)+Tabelle1!$C$25,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A43+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>47.180000000000007</v>
+        <v>0</v>
       </c>
       <c r="D43">
         <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A43)+Tabelle1!$C$26,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A43+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>16.078972375902126</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A43)+Tabelle1!$C$27,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A43+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>11.294198895271681</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A43)+Tabelle1!$C$28,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A43+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>47.180000000000007</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A43)+Tabelle1!$C$29,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A43+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>47.180000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -12851,27 +12710,27 @@
       </c>
       <c r="B44">
         <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A44)+Tabelle1!$C$24,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A44+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>12.724078975521996</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A44)+Tabelle1!$C$25,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A44+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>43.200848408301539</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A44)+Tabelle1!$C$26,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A44+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>14.900991077863392</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A44)+Tabelle1!$C$27,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A44+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>10.547166873180601</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A44)+Tabelle1!$C$28,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A44+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>43.200848408301539</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A44)+Tabelle1!$C$29,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A44+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>43.200848408301539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -12880,27 +12739,27 @@
       </c>
       <c r="B45">
         <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A45)+Tabelle1!$C$24,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A45+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>11.761572315457082</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A45)+Tabelle1!$C$25,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A45+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>39.221696816603043</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A45)+Tabelle1!$C$26,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A45+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>13.72300977982465</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A45)+Tabelle1!$C$27,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A45+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>9.8001348510895134</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A45)+Tabelle1!$C$28,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A45+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>39.221696816603043</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A45)+Tabelle1!$C$29,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A45+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>39.221696816603043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -12909,27 +12768,27 @@
       </c>
       <c r="B46">
         <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A46)+Tabelle1!$C$24,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A46+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>10.799065655392177</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A46)+Tabelle1!$C$25,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A46+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>35.242545224904582</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A46)+Tabelle1!$C$26,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A46+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>12.545028481785918</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A46)+Tabelle1!$C$27,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A46+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>9.0531028289984334</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A46)+Tabelle1!$C$28,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A46+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>35.242545224904582</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A46)+Tabelle1!$C$29,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A46+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>35.242545224904582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -12938,27 +12797,27 @@
       </c>
       <c r="B47">
         <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A47)+Tabelle1!$C$24,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A47+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>9.8365589953272625</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A47)+Tabelle1!$C$25,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A47+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>31.263393633206082</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A47)+Tabelle1!$C$26,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A47+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>11.367047183747177</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A47)+Tabelle1!$C$27,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A47+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>8.3060708069073463</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A47)+Tabelle1!$C$28,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A47+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>31.263393633206082</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A47)+Tabelle1!$C$29,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A47+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>31.263393633206082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -12967,27 +12826,27 @@
       </c>
       <c r="B48">
         <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A48)+Tabelle1!$C$24,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A48+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>8.8740523352623555</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A48)+Tabelle1!$C$25,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A48+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>27.284242041507618</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A48)+Tabelle1!$C$26,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A48+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>10.189065885708445</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A48)+Tabelle1!$C$27,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A48+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>7.5590387848162646</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A48)+Tabelle1!$C$28,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A48+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>27.284242041507618</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A48)+Tabelle1!$C$29,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A48+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>27.284242041507618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -12996,27 +12855,27 @@
       </c>
       <c r="B49">
         <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A49)+Tabelle1!$C$24,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A49+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>7.9115456751974493</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A49)+Tabelle1!$C$25,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A49+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>23.305090449809157</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A49)+Tabelle1!$C$26,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A49+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>9.0110845876697141</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A49)+Tabelle1!$C$27,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A49+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>6.8120067627251846</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A49)+Tabelle1!$C$28,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A49+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>23.305090449809157</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A49)+Tabelle1!$C$29,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A49+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>23.305090449809157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -13025,27 +12884,27 @@
       </c>
       <c r="B50">
         <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A50)+Tabelle1!$C$24,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A50+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>6.9490390151325343</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A50)+Tabelle1!$C$25,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A50+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>19.325938858110657</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A50)+Tabelle1!$C$26,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A50+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>7.8331032896309711</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A50)+Tabelle1!$C$27,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A50+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>6.0649747406340975</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A50)+Tabelle1!$C$28,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A50+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>19.325938858110657</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A50)+Tabelle1!$C$29,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A50+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>19.325938858110657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -13054,27 +12913,27 @@
       </c>
       <c r="B51">
         <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A51)+Tabelle1!$C$24,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A51+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>5.986532355067629</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A51)+Tabelle1!$C$25,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A51+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>15.346787266412194</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A51)+Tabelle1!$C$26,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A51+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>6.6551219915922406</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A51)+Tabelle1!$C$27,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A51+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>5.3179427185430166</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A51)+Tabelle1!$C$28,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A51+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>15.346787266412194</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A51)+Tabelle1!$C$29,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A51+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>15.346787266412194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -13083,27 +12942,27 @@
       </c>
       <c r="B52">
         <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A52)+Tabelle1!$C$24,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A52+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>5.024025695002714</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A52)+Tabelle1!$C$25,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A52+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>11.367635674713696</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A52)+Tabelle1!$C$26,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A52+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>5.4771406935534976</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A52)+Tabelle1!$C$27,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A52+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>4.5709106964519295</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A52)+Tabelle1!$C$28,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A52+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>11.367635674713696</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A52)+Tabelle1!$C$29,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A52+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>11.367635674713696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -13112,27 +12971,27 @@
       </c>
       <c r="B53">
         <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A53)+Tabelle1!$C$24,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A53+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>4.0615190349378079</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A53)+Tabelle1!$C$25,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A53+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>7.388484083015233</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A53)+Tabelle1!$C$26,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A53+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>4.2991593955147671</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A53)+Tabelle1!$C$27,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A53+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>3.8238786743608486</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A53)+Tabelle1!$C$28,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A53+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>7.388484083015233</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A53)+Tabelle1!$C$29,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A53+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>7.388484083015233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -13141,27 +13000,27 @@
       </c>
       <c r="B54">
         <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A54)+Tabelle1!$C$24,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A54+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>3.0990123748729017</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A54)+Tabelle1!$C$25,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A54+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>3.40933249131677</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A54)+Tabelle1!$C$26,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A54+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>3.1211780974760353</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A54)+Tabelle1!$C$27,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A54+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>3.0768466522697682</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A54)+Tabelle1!$C$28,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A54+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>3.40933249131677</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A54)+Tabelle1!$C$29,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A54+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>3.40933249131677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">

--- a/AchsSynchronisierung.xlsx
+++ b/AchsSynchronisierung.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>J1</t>
   </si>
@@ -1023,106 +1023,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>5.1999792225041217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>9.3999584450082434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.499999999999996</c:v>
+                  <c:v>13.599937667512366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.999999999999996</c:v>
+                  <c:v>17.799916890016487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.499999999999993</c:v>
+                  <c:v>21.999896112520609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.999999999999993</c:v>
+                  <c:v>26.199875335024732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.499999999999986</c:v>
+                  <c:v>30.399854557528851</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.999999999999993</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>54.590909090909122</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.090909090909115</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41.590909090909108</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.090909090909108</c:v>
+                  <c:v>30.450063240505632</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.590909090909101</c:v>
+                  <c:v>26.427517425431688</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.090909090909125</c:v>
+                  <c:v>22.22753820292758</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15.590909090909122</c:v>
+                  <c:v>18.027558980423454</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.0909090909091184</c:v>
+                  <c:v>13.827579757919327</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>9.627600535415203</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>5.4276213129110769</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.22764209040697</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -1967,106 +1967,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>46.577704298535664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>40.352304978014388</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>33.852304978014416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>27.352304978014406</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>20.852304978014402</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>14.352304978014395</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>7.8523049780143896</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.3523049780144127</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -2911,106 +2911,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.6500103887479405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16.300020777495881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>23.950031166243818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>31.600041554991762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>39.250051943739699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>46.900062332487636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>54.550072721235573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>54.64152482755069</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>47.314698754305745</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>39.664688365557836</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>32.014677976809885</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>24.364667588061941</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>16.714657199313994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>9.064646810566046</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.4146364218181342</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -3855,106 +3855,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.128595174281006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19.257190348562013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28.385785522843015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>37.514380697124025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>46.642975871405028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>55.771571045686031</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>64.900166219967033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>65.009294079141426</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>56.266347895251776</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>47.137752720970802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>38.009157546689792</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>28.880562372408775</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>19.751967198127762</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>10.623372023846748</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.4947768495657761</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -4799,106 +4799,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9658536585365844</c:v>
+                  <c:v>6.6238016085729994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9317073170731689</c:v>
+                  <c:v>12.247603217145999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.897560975609753</c:v>
+                  <c:v>17.871404825718997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.86341463414634</c:v>
+                  <c:v>23.495206434291998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.829268292682924</c:v>
+                  <c:v>29.119008042864994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.795121951219507</c:v>
+                  <c:v>34.742809651437994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.760975609756095</c:v>
+                  <c:v>40.366611260010991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.121951219512191</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.998226164079831</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18.032372505543243</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.066518847006655</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14.100665188470071</c:v>
+                  <c:v>40.433841038333746</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.134811529933483</c:v>
+                  <c:v>35.047624005601932</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.168957871396906</c:v>
+                  <c:v>29.423822397028953</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2031042128603193</c:v>
+                  <c:v>23.800020788455949</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.2372505543237331</c:v>
+                  <c:v>18.176219179882946</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>12.552417571309942</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>6.928615962736937</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.3048143541639583</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -5743,106 +5743,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.526208780174942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>18.052417560349884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26.578626340524824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>35.104835120699768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>43.631043900874708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>52.157252681049648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>60.683461461224589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>60.785388087752608</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>52.619379726718208</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>44.093170946543296</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>35.566962166368349</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>27.040753386193398</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>18.51454460601845</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>9.9883358258434995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1.4621270456685886</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -6973,16 +6973,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7005,10 +7005,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1171575" cy="316240"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7020,26 +7020,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3638549" y="1104900"/>
+              <a:off x="7658099" y="1533525"/>
               <a:ext cx="1171575" cy="316240"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -7146,26 +7145,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3638549" y="1104900"/>
+              <a:off x="7658099" y="1533525"/>
               <a:ext cx="1171575" cy="316240"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -7192,9 +7190,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1171575" cy="187872"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7206,7 +7204,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7772399" y="5810250"/>
+              <a:off x="7972424" y="4733925"/>
               <a:ext cx="1171575" cy="187872"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7370,7 +7368,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7772399" y="5810250"/>
+              <a:off x="7972424" y="4733925"/>
               <a:ext cx="1171575" cy="187872"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7418,12 +7416,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2495551" cy="384464"/>
+    <xdr:ext cx="1790701" cy="384464"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -7433,26 +7431,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3781424" y="6134100"/>
-              <a:ext cx="2495551" cy="384464"/>
+              <a:off x="6286499" y="5153025"/>
+              <a:ext cx="1790701" cy="384464"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -7869,26 +7866,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3781424" y="6134100"/>
-              <a:ext cx="2495551" cy="384464"/>
+              <a:off x="6286499" y="5153025"/>
+              <a:ext cx="1790701" cy="384464"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -7936,10 +7932,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2695576" cy="314958"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7951,7 +7947,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4762499" y="5715000"/>
+              <a:off x="5943599" y="4248150"/>
               <a:ext cx="2695576" cy="314958"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8308,7 +8304,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4762499" y="5715000"/>
+              <a:off x="5943599" y="4248150"/>
               <a:ext cx="2695576" cy="314958"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8400,10 +8396,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209548</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3733801" cy="377989"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8415,7 +8411,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="857248" y="5719762"/>
+              <a:off x="5486398" y="3719512"/>
               <a:ext cx="3733801" cy="377989"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9046,7 +9042,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="857248" y="5719762"/>
+              <a:off x="5486398" y="3719512"/>
               <a:ext cx="3733801" cy="377989"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9159,10 +9155,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1771650" cy="400751"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9174,26 +9170,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3438525" y="619125"/>
+              <a:off x="5657850" y="1466850"/>
               <a:ext cx="1771650" cy="400751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -9502,26 +9497,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3438525" y="619125"/>
+              <a:off x="5657850" y="1466850"/>
               <a:ext cx="1771650" cy="400751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -9613,8 +9607,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
@@ -9628,26 +9622,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3495674" y="147637"/>
+              <a:off x="3790949" y="147637"/>
               <a:ext cx="1514475" cy="369332"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -9829,26 +9822,25 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3495674" y="147637"/>
+              <a:off x="3790949" y="147637"/>
               <a:ext cx="1514475" cy="369332"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
             </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
+              <a:schemeClr val="accent2"/>
             </a:effectRef>
             <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
@@ -10153,13 +10145,13 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
@@ -10174,20 +10166,7 @@
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="36"/>
-      <c r="C1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1"/>
       <c r="H1" s="1"/>
       <c r="K1" s="14" t="s">
@@ -10210,387 +10189,396 @@
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>55</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="36"/>
+      <c r="D2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12">
-        <v>65</v>
-      </c>
-      <c r="F2" s="20">
-        <v>130</v>
-      </c>
-      <c r="G2"/>
       <c r="H2" s="1"/>
       <c r="K2" s="16">
-        <f>(C2^2-D2^2)/(2*E2)</f>
-        <v>23.076923076923077</v>
+        <f>(D3^2-E3^2)/(2*F3)</f>
+        <v>23.261538461538461</v>
       </c>
       <c r="L2" s="16">
-        <f>IF((F2-K2*2)&gt;0,K2,F2/2)</f>
-        <v>23.076923076923077</v>
+        <f>IF((G3-K2*2)&gt;0,K2,G3/2)</f>
+        <v>23.261538461538461</v>
       </c>
       <c r="M2" s="16">
-        <f>IF((F2-K2*2)&gt;0,F2-2*K2,0)</f>
-        <v>83.84615384615384</v>
+        <f>IF((G3-K2*2)&gt;0,G3-2*K2,0)</f>
+        <v>33.476923076923079</v>
       </c>
       <c r="N2" s="8">
-        <f>(SQRT(2*E2*L2+D2^2)-D2)/E2</f>
-        <v>0.76923076923076927</v>
+        <f>(SQRT(2*F3*L2+E3^2)-E3)/F3</f>
+        <v>0.83076923076923082</v>
       </c>
       <c r="O2" s="8">
-        <f>M2/C2</f>
-        <v>1.5244755244755244</v>
+        <f>M2/D3</f>
+        <v>0.60867132867132867</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P6" si="0">O2+2*N2</f>
-        <v>3.0629370629370629</v>
+        <v>2.2702097902097904</v>
       </c>
       <c r="S2">
         <f t="shared" ref="S2:S7" si="1">P2</f>
-        <v>3.0629370629370629</v>
+        <v>2.2702097902097904</v>
       </c>
       <c r="T2">
         <f>N2</f>
-        <v>0.76923076923076927</v>
+        <v>0.83076923076923082</v>
       </c>
       <c r="U2">
         <f>O2</f>
-        <v>1.5244755244755244</v>
+        <v>0.60867132867132867</v>
       </c>
       <c r="V2" t="b">
-        <f>(F2-K2*2)&gt;0</f>
+        <f>(G3-K2*2)&gt;0</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>55</v>
+      </c>
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>55</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="F3" s="12">
         <v>65</v>
       </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3"/>
+      <c r="G3" s="20">
+        <v>80</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="K3" s="16">
-        <f>(C3^2-D3^2)/(2*E3)</f>
+        <f>(D4^2-E4^2)/(2*F4)</f>
         <v>23.261538461538461</v>
       </c>
       <c r="L3" s="16">
-        <f>IF((F3-K3*2)&gt;0,K3,F3/2)</f>
-        <v>0</v>
+        <f>IF((G4-K3*2)&gt;0,K3,G4/2)</f>
+        <v>23.261538461538461</v>
       </c>
       <c r="M3" s="16">
-        <f>IF((F3-K3*2)&gt;0,F3-2*K3,0)</f>
-        <v>0</v>
+        <f>IF((G4-K3*2)&gt;0,G4-2*K3,0)</f>
+        <v>75.476923076923072</v>
       </c>
       <c r="N3" s="8">
-        <f>(SQRT(2*E3*L3+D3^2)-D3)/E3</f>
-        <v>0</v>
+        <f>(SQRT(2*F4*L3+E4^2)-E4)/F4</f>
+        <v>0.83076923076923082</v>
       </c>
       <c r="O3" s="8">
-        <f>M3/C3</f>
-        <v>0</v>
+        <f>M3/D4</f>
+        <v>1.3723076923076922</v>
       </c>
       <c r="P3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0338461538461541</v>
       </c>
       <c r="S3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.0338461538461541</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T7" si="2">N3</f>
-        <v>0</v>
+        <v>0.83076923076923082</v>
       </c>
       <c r="U3">
         <f>O3</f>
-        <v>0</v>
+        <v>1.3723076923076922</v>
       </c>
       <c r="V3" t="b">
-        <f>(F3-K3*2)&gt;0</f>
-        <v>0</v>
+        <f>(G4-K3*2)&gt;0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="C4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>55</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
         <v>65</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>100</v>
-      </c>
-      <c r="F4" s="20">
-        <v>0</v>
-      </c>
-      <c r="G4"/>
+      <c r="G4" s="20">
+        <v>122</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="K4" s="16">
-        <f>(C4^2-D4^2)/(2*E4)</f>
+        <f>(D5^2-E5^2)/(2*F5)</f>
         <v>21.12</v>
       </c>
       <c r="L4" s="16">
-        <f>IF((F4-K4*2)&gt;0,K4,F4/2)</f>
-        <v>0</v>
+        <f>IF((G5-K4*2)&gt;0,K4,G5/2)</f>
+        <v>21.12</v>
       </c>
       <c r="M4" s="16">
-        <f>IF((F4-K4*2)&gt;0,F4-2*K4,0)</f>
-        <v>0</v>
+        <f>IF((G5-K4*2)&gt;0,G5-2*K4,0)</f>
+        <v>100.75999999999999</v>
       </c>
       <c r="N4" s="8">
-        <f>(SQRT(2*E4*L4+D4^2)-D4)/E4</f>
-        <v>0</v>
+        <f>(SQRT(2*F5*L4+E5^2)-E5)/F5</f>
+        <v>0.64</v>
       </c>
       <c r="O4" s="8">
-        <f>M4/C4</f>
-        <v>0</v>
+        <f>M4/D5</f>
+        <v>1.550153846153846</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8301538461538458</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8301538461538458</v>
       </c>
       <c r="T4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="U4">
         <f>O4</f>
-        <v>0</v>
+        <v>1.550153846153846</v>
       </c>
       <c r="V4" t="b">
-        <f>(F4-K4*2)&gt;0</f>
-        <v>0</v>
+        <f>(G5-K4*2)&gt;0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="C5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
         <v>65</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F5" s="12">
         <v>100</v>
       </c>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5"/>
+      <c r="G5" s="20">
+        <v>143</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="K5" s="16">
-        <f>(C5^2-D5^2)/(2*E5)</f>
+        <f>(D6^2-E6^2)/(2*F6)</f>
         <v>21.12</v>
       </c>
       <c r="L5" s="16">
-        <f>IF((F5-K5*2)&gt;0,K5,F5/2)</f>
-        <v>0</v>
+        <f>IF((G6-K5*2)&gt;0,K5,G6/2)</f>
+        <v>21.12</v>
       </c>
       <c r="M5" s="16">
-        <f>IF((F5-K5*2)&gt;0,F5-2*K5,0)</f>
-        <v>0</v>
+        <f>IF((G6-K5*2)&gt;0,G6-2*K5,0)</f>
+        <v>127.75999999999999</v>
       </c>
       <c r="N5" s="8">
-        <f>(SQRT(2*E5*L5+D5^2)-D5)/E5</f>
-        <v>0</v>
+        <f>(SQRT(2*F6*L5+E6^2)-E6)/F6</f>
+        <v>0.64</v>
       </c>
       <c r="O5" s="8">
-        <f>M5/C5</f>
-        <v>0</v>
+        <f>M5/D6</f>
+        <v>1.9655384615384615</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2455384615384615</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2455384615384615</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="U5">
         <f>O5</f>
-        <v>0</v>
+        <v>1.9655384615384615</v>
       </c>
       <c r="V5" t="b">
-        <f>(F5-K5*2)&gt;0</f>
-        <v>0</v>
+        <f>(G6-K5*2)&gt;0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="C6" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
         <v>65</v>
       </c>
-      <c r="D6" s="12">
-        <v>5</v>
-      </c>
       <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
         <v>100</v>
       </c>
-      <c r="F6" s="20">
-        <v>50</v>
-      </c>
-      <c r="G6"/>
+      <c r="G6" s="20">
+        <v>170</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="K6" s="16">
-        <f>(C6^2-D6^2)/(2*E6)</f>
-        <v>21</v>
+        <f>(D7^2-E7^2)/(2*F7)</f>
+        <v>21.12</v>
       </c>
       <c r="L6" s="16">
-        <f>IF((F6-K6*2)&gt;0,K6,F6/2)</f>
-        <v>21</v>
+        <f>IF((G7-K6*2)&gt;0,K6,G7/2)</f>
+        <v>21.12</v>
       </c>
       <c r="M6" s="16">
-        <f>IF((F6-K6*2)&gt;0,F6-2*K6,0)</f>
-        <v>8</v>
+        <f>IF((G7-K6*2)&gt;0,G7-2*K6,0)</f>
+        <v>63.76</v>
       </c>
       <c r="N6" s="8">
-        <f>(SQRT(2*E6*L6+D6^2)-D6)/E6</f>
-        <v>0.6</v>
+        <f>(SQRT(2*F7*L6+E7^2)-E7)/F7</f>
+        <v>0.64</v>
       </c>
       <c r="O6" s="8">
-        <f>M6/C6</f>
-        <v>0.12307692307692308</v>
+        <f>M6/D7</f>
+        <v>0.9809230769230769</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="0"/>
-        <v>1.323076923076923</v>
+        <v>2.2609230769230768</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>1.323076923076923</v>
+        <v>2.2609230769230768</v>
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="U6">
         <f>O6</f>
-        <v>0.12307692307692308</v>
+        <v>0.9809230769230769</v>
       </c>
       <c r="V6" t="b">
-        <f>(F6-K6*2)&gt;0</f>
+        <f>(G7-K6*2)&gt;0</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="21">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
         <v>100</v>
       </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21">
-        <v>100</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0</v>
-      </c>
-      <c r="G7"/>
+      <c r="G7" s="20">
+        <v>106</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="K7" s="16">
-        <f>(C7^2-D7^2)/(2*E7)</f>
+        <f>(D8^2-E8^2)/(2*F8)</f>
         <v>49.994999999999997</v>
       </c>
       <c r="L7" s="16">
-        <f>IF((F7-K7*2)&gt;0,K7,F7/2)</f>
-        <v>0</v>
+        <f>IF((G8-K7*2)&gt;0,K7,G8/2)</f>
+        <v>49.994999999999997</v>
       </c>
       <c r="M7" s="16">
-        <f>IF((F7-K7*2)&gt;0,F7-2*K7,0)</f>
-        <v>0</v>
+        <f>IF((G8-K7*2)&gt;0,G8-2*K7,0)</f>
+        <v>59.010000000000005</v>
       </c>
       <c r="N7" s="8">
-        <f>(SQRT(2*E7*L7+D7^2)-D7)/E7</f>
-        <v>0</v>
+        <f>(SQRT(2*F8*L7+E8^2)-E8)/F8</f>
+        <v>0.99</v>
       </c>
       <c r="O7" s="8">
-        <f>M7/C7</f>
-        <v>0</v>
+        <f>M7/D8</f>
+        <v>0.59010000000000007</v>
       </c>
       <c r="P7" s="6">
         <f>O7+2*N7</f>
-        <v>0</v>
+        <v>2.5701000000000001</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5701000000000001</v>
       </c>
       <c r="T7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="U7">
         <f>O7</f>
-        <v>0</v>
+        <v>0.59010000000000007</v>
       </c>
       <c r="V7" t="b">
-        <f>(F7-K7*2)&gt;0</f>
-        <v>0</v>
+        <f>(G8-K7*2)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21">
+        <v>100</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <v>100</v>
+      </c>
+      <c r="G8" s="22">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24">
+      <c r="D10" s="24">
         <f>MAX(P2:P7)</f>
-        <v>3.0629370629370629</v>
-      </c>
-      <c r="D10" s="25" t="s">
+        <v>3.2455384615384615</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="26">
-        <f>VLOOKUP(C10,$S$2:$U$7,2,FALSE)</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="26">
+        <f>VLOOKUP(D10,$S$2:$U$7,2,FALSE)</f>
+        <v>0.64</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="26">
-        <f>VLOOKUP(C10,$S$2:$U$7,3,FALSE)</f>
-        <v>1.5244755244755244</v>
-      </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="26">
+        <f>VLOOKUP(D10,$S$2:$U$7,3,FALSE)</f>
+        <v>1.9655384615384615</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="27" t="b">
-        <f>VLOOKUP(C10,S2:V7,4,FALSE)</f>
+      <c r="J10" s="27" t="b">
+        <f>VLOOKUP(D10,S2:V7,4,FALSE)</f>
         <v>1</v>
       </c>
     </row>
@@ -10605,23 +10593,23 @@
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="G12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="14" t="s">
@@ -10644,813 +10632,651 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16">
-        <f>IF((F2-D2*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))&lt;0,F2/(2*$E$10+$G$10),D2)</f>
-        <v>5</v>
+      <c r="C13" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="D13" s="16">
-        <f>(F2-C13*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))</f>
-        <v>64.999999999999986</v>
+        <f>IF((G3-E3*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))&lt;0,G3/(2*$F$10+$H$10),E3)</f>
+        <v>1</v>
       </c>
       <c r="E13" s="16">
-        <f>D13*$E$10+C13</f>
-        <v>54.999999999999993</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" ref="F13:F18" si="3">IF(D13&gt;E2,E2,D13)</f>
-        <v>64.999999999999986</v>
-      </c>
-      <c r="G13" s="16">
-        <f t="shared" ref="G13:G18" si="4">IF(E13&gt;C2,C2,E13)</f>
-        <v>54.999999999999993</v>
-      </c>
-      <c r="H13" s="16" t="str">
-        <f t="shared" ref="H13:H18" si="5">IF(OR(F13&lt;&gt;D13,G13&lt;&gt;E13),"x","")</f>
+        <f>(G3-D13*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))</f>
+        <v>46.028430562116206</v>
+      </c>
+      <c r="F13" s="16">
+        <f>E13*$F$10+D13</f>
+        <v>30.458195559754373</v>
+      </c>
+      <c r="G13" s="3">
+        <f>IF(E13&gt;F3,F3,E13)</f>
+        <v>46.028430562116206</v>
+      </c>
+      <c r="H13" s="16">
+        <f>IF(F13&gt;D3,D3,F13)</f>
+        <v>30.458195559754373</v>
+      </c>
+      <c r="I13" s="16" t="str">
+        <f t="shared" ref="I13:I18" si="3">IF(OR(G13&lt;&gt;E13,H13&lt;&gt;F13),"x","")</f>
         <v/>
       </c>
       <c r="K13" s="16">
-        <f>IF(F13&gt;0,(G13^2-C13^2)/(2*F13),0)</f>
-        <v>23.076923076923077</v>
+        <f>IF(G13&gt;0,(H13^2-D13^2)/(2*G13),0)</f>
+        <v>10.0666225791214</v>
       </c>
       <c r="L13" s="16">
-        <f>IF((F2-K13*2)&gt;0,K13,F2/2)</f>
-        <v>23.076923076923077</v>
+        <f>IF((G3-K13*2)&gt;0,K13,G3/2)</f>
+        <v>10.0666225791214</v>
       </c>
       <c r="M13" s="16">
-        <f>IF((F2-K13*2)&gt;0,F2-2*K13,0)</f>
-        <v>83.84615384615384</v>
+        <f>IF((G3-K13*2)&gt;0,G3-2*K13,0)</f>
+        <v>59.866754841757199</v>
       </c>
       <c r="N13" s="8">
-        <f>IF(F13&gt;0,(SQRT(2*F13*L13+D2^2)-C13)/F13,0)</f>
-        <v>0.76923076923076927</v>
+        <f>IF(G13&gt;0,(SQRT(2*G13*L13+E3^2)-D13)/G13,0)</f>
+        <v>0.64000000000000012</v>
       </c>
       <c r="O13" s="8">
-        <f>IF(G13=0,0,M13/G13)</f>
-        <v>1.5244755244755246</v>
+        <f>IF(H13=0,0,M13/H13)</f>
+        <v>1.9655384615384612</v>
       </c>
       <c r="P13" s="8">
         <f>O13+N13*2</f>
-        <v>3.0629370629370634</v>
+        <v>3.2455384615384615</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S18" si="6">P13</f>
-        <v>3.0629370629370634</v>
+        <f t="shared" ref="S13:S18" si="4">P13</f>
+        <v>3.2455384615384615</v>
       </c>
       <c r="T13">
         <f>N13</f>
-        <v>0.76923076923076927</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="U13">
         <f>O13</f>
-        <v>1.5244755244755246</v>
+        <v>1.9655384615384612</v>
       </c>
       <c r="V13" t="b">
-        <f>(F2-(G13^2/(2*F13))*2)&gt;0</f>
+        <f>(G3-(H13^2/(2*G13))*2)&gt;0</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="16">
-        <f t="shared" ref="C14:C18" si="7">IF((F3-D3*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))&lt;0,F3/(2*$E$10+$G$10),D3)</f>
-        <v>0</v>
-      </c>
       <c r="D14" s="16">
-        <f t="shared" ref="D14:D18" si="8">(F3-C14*(2*$E$10+$G$10))/($E$10*($E$10+$G$10))</f>
-        <v>0</v>
+        <f>IF((G4-E4*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))&lt;0,G4/(2*$F$10+$H$10),E4)</f>
+        <v>1</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" ref="E14:E18" si="9">D14*$E$10+C14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+        <f>(G4-D14*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))</f>
+        <v>71.215162966461975</v>
+      </c>
+      <c r="F14" s="16">
+        <f>E14*$F$10+D14</f>
+        <v>46.577704298535664</v>
+      </c>
+      <c r="G14" s="3">
+        <f>IF(E14&gt;F4,F4,E14)</f>
+        <v>65</v>
+      </c>
+      <c r="H14" s="16">
+        <f>IF(F14&gt;D4,D4,F14)</f>
+        <v>46.577704298535664</v>
+      </c>
+      <c r="I14" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+        <v>x</v>
+      </c>
+      <c r="K14" s="16">
+        <f>IF(G14&gt;0,(H14^2-D14^2)/(2*G14),0)</f>
+        <v>16.68063490555252</v>
+      </c>
+      <c r="L14" s="16">
+        <f>IF((G4-K14*2)&gt;0,K14,G4/2)</f>
+        <v>16.68063490555252</v>
+      </c>
+      <c r="M14" s="16">
+        <f>IF((G4-K14*2)&gt;0,G4-2*K14,0)</f>
+        <v>88.638730188894954</v>
+      </c>
+      <c r="N14" s="8">
+        <f>IF(G14&gt;0,(SQRT(2*G14*L14+E4^2)-D14)/G14,0)</f>
+        <v>0.70119545074670253</v>
+      </c>
+      <c r="O14" s="8">
+        <f>IF(H14=0,0,M14/H14)</f>
+        <v>1.9030291750914317</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" ref="P14:P18" si="5">O14+N14*2</f>
+        <v>3.3054200765848369</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K14" s="16">
-        <f>IF(F14&gt;0,(G14^2-C14^2)/(2*F14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="16">
-        <f>IF((F3-K14*2)&gt;0,K14,F3/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <f>IF((F3-K14*2)&gt;0,F3-2*K14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <f>IF(F14&gt;0,(SQRT(2*F14*L14+D3^2)-C14)/F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <f>IF(G14=0,0,M14/G14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" ref="P14:P18" si="10">O14+N14*2</f>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.3054200765848369</v>
       </c>
       <c r="T14">
-        <f t="shared" ref="T14:T18" si="11">N14</f>
-        <v>0</v>
+        <f t="shared" ref="T14:T18" si="6">N14</f>
+        <v>0.70119545074670253</v>
       </c>
       <c r="U14">
         <f>O14</f>
-        <v>0</v>
-      </c>
-      <c r="V14" t="e">
-        <f>(F3-(G14^2/(2*F14))*2)&gt;0</f>
-        <v>#DIV/0!</v>
+        <v>1.9030291750914317</v>
+      </c>
+      <c r="V14" t="b">
+        <f>(G4-(H14^2/(2*G14))*2)&gt;0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="D15" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF((G5-E5*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))&lt;0,G5/(2*$F$10+$H$10),E5)</f>
+        <v>1</v>
       </c>
       <c r="E15" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+        <f>(G5-D15*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))</f>
+        <v>83.808529168634848</v>
+      </c>
+      <c r="F15" s="16">
+        <f>E15*$F$10+D15</f>
+        <v>54.637458667926303</v>
+      </c>
+      <c r="G15" s="3">
+        <f>IF(E15&gt;F5,F5,E15)</f>
+        <v>83.808529168634848</v>
+      </c>
+      <c r="H15" s="16">
+        <f>IF(F15&gt;D5,D5,F15)</f>
+        <v>54.637458667926303</v>
+      </c>
+      <c r="I15" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+        <v/>
+      </c>
+      <c r="K15" s="16">
+        <f>IF(G15&gt;0,(H15^2-D15^2)/(2*G15),0)</f>
+        <v>17.803986773736419</v>
+      </c>
+      <c r="L15" s="16">
+        <f>IF((G5-K15*2)&gt;0,K15,G5/2)</f>
+        <v>17.803986773736419</v>
+      </c>
+      <c r="M15" s="16">
+        <f>IF((G5-K15*2)&gt;0,G5-2*K15,0)</f>
+        <v>107.39202645252716</v>
+      </c>
+      <c r="N15" s="8">
+        <f>IF(G15&gt;0,(SQRT(2*G15*L15+E5^2)-D15)/G15,0)</f>
+        <v>0.64</v>
+      </c>
+      <c r="O15" s="8">
+        <f>IF(H15=0,0,M15/H15)</f>
+        <v>1.9655384615384619</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="5"/>
+        <v>3.2455384615384619</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K15" s="16">
-        <f>IF(F15&gt;0,(G15^2-C15^2)/(2*F15),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
-        <f>IF((F4-K15*2)&gt;0,K15,F4/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <f>IF((F4-K15*2)&gt;0,F4-2*K15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <f>IF(F15&gt;0,(SQRT(2*F15*L15+D4^2)-C15)/F15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <f>IF(G15=0,0,M15/G15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
+        <v>3.2455384615384619</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="U15">
         <f>O15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" t="e">
-        <f>(F4-(G15^2/(2*F15))*2)&gt;0</f>
-        <v>#DIV/0!</v>
+        <v>1.9655384615384619</v>
+      </c>
+      <c r="V15" t="b">
+        <f>(G5-(H15^2/(2*G15))*2)&gt;0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="D16" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF((G6-E6*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))&lt;0,G6/(2*$F$10+$H$10),E6)</f>
+        <v>1</v>
       </c>
       <c r="E16" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+        <f>(G6-D16*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="F16" s="16">
+        <f>E16*$F$10+D16</f>
+        <v>65</v>
+      </c>
+      <c r="G16" s="3">
+        <f>IF(E16&gt;F6,F6,E16)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="H16" s="16">
+        <f>IF(F16&gt;D6,D6,F16)</f>
+        <v>65</v>
+      </c>
+      <c r="I16" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
+        <v/>
+      </c>
+      <c r="K16" s="16">
+        <f>IF(G16&gt;0,(H16^2-D16^2)/(2*G16),0)</f>
+        <v>21.120000000000005</v>
+      </c>
+      <c r="L16" s="16">
+        <f>IF((G6-K16*2)&gt;0,K16,G6/2)</f>
+        <v>21.120000000000005</v>
+      </c>
+      <c r="M16" s="16">
+        <f>IF((G6-K16*2)&gt;0,G6-2*K16,0)</f>
+        <v>127.75999999999999</v>
+      </c>
+      <c r="N16" s="8">
+        <f>IF(G16&gt;0,(SQRT(2*G16*L16+E6^2)-D16)/G16,0)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="O16" s="8">
+        <f>IF(H16=0,0,M16/H16)</f>
+        <v>1.9655384615384615</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="5"/>
+        <v>3.2455384615384615</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K16" s="16">
-        <f>IF(F16&gt;0,(G16^2-C16^2)/(2*F16),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="16">
-        <f>IF((F5-K16*2)&gt;0,K16,F5/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="16">
-        <f>IF((F5-K16*2)&gt;0,F5-2*K16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <f>IF(F16&gt;0,(SQRT(2*F16*L16+D5^2)-C16)/F16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <f>IF(G16=0,0,M16/G16)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
+        <v>3.2455384615384615</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="U16">
         <f>O16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" t="e">
-        <f>(F5-(G16^2/(2*F16))*2)&gt;0</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+        <v>1.9655384615384615</v>
+      </c>
+      <c r="V16" t="b">
+        <f>(G6-(H16^2/(2*G16))*2)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
       <c r="D17" s="16">
-        <f t="shared" si="8"/>
-        <v>19.658536585365852</v>
+        <f>IF((G7-E7*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))&lt;0,G7/(2*$F$10+$H$10),E7)</f>
+        <v>1</v>
       </c>
       <c r="E17" s="16">
-        <f t="shared" si="9"/>
-        <v>20.121951219512194</v>
-      </c>
-      <c r="F17" s="3">
+        <f>(G7-D17*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))</f>
+        <v>61.620217288615969</v>
+      </c>
+      <c r="F17" s="16">
+        <f>E17*$F$10+D17</f>
+        <v>40.436939064714224</v>
+      </c>
+      <c r="G17" s="3">
+        <f>IF(E17&gt;F7,F7,E17)</f>
+        <v>61.620217288615969</v>
+      </c>
+      <c r="H17" s="16">
+        <f>IF(F17&gt;D7,D7,F17)</f>
+        <v>40.436939064714224</v>
+      </c>
+      <c r="I17" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>19.658536585365852</v>
-      </c>
-      <c r="G17" s="16">
+        <v/>
+      </c>
+      <c r="K17" s="16">
+        <f>IF(G17&gt;0,(H17^2-D17^2)/(2*G17),0)</f>
+        <v>13.259820500708553</v>
+      </c>
+      <c r="L17" s="16">
+        <f>IF((G7-K17*2)&gt;0,K17,G7/2)</f>
+        <v>13.259820500708553</v>
+      </c>
+      <c r="M17" s="16">
+        <f>IF((G7-K17*2)&gt;0,G7-2*K17,0)</f>
+        <v>79.480358998582886</v>
+      </c>
+      <c r="N17" s="8">
+        <f>IF(G17&gt;0,(SQRT(2*G17*L17+E7^2)-D17)/G17,0)</f>
+        <v>0.64</v>
+      </c>
+      <c r="O17" s="8">
+        <f>IF(H17=0,0,M17/H17)</f>
+        <v>1.965538461538461</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="5"/>
+        <v>3.245538461538461</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="4"/>
-        <v>20.121951219512194</v>
-      </c>
-      <c r="H17" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K17" s="16">
-        <f>IF(F17&gt;0,(G17^2-C17^2)/(2*F17),0)</f>
-        <v>9.6622889305816138</v>
-      </c>
-      <c r="L17" s="16">
-        <f>IF((F6-K17*2)&gt;0,K17,F6/2)</f>
-        <v>9.6622889305816138</v>
-      </c>
-      <c r="M17" s="16">
-        <f>IF((F6-K17*2)&gt;0,F6-2*K17,0)</f>
-        <v>30.675422138836772</v>
-      </c>
-      <c r="N17" s="8">
-        <f>IF(F17&gt;0,(SQRT(2*F17*L17+D6^2)-C17)/F17,0)</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="O17" s="8">
-        <f>IF(G17=0,0,M17/G17)</f>
-        <v>1.5244755244755246</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="10"/>
-        <v>3.0629370629370634</v>
-      </c>
-      <c r="S17">
+        <v>3.245538461538461</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="6"/>
-        <v>3.0629370629370634</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="11"/>
-        <v>0.76923076923076927</v>
+        <v>0.64</v>
       </c>
       <c r="U17">
         <f>O17</f>
-        <v>1.5244755244755246</v>
+        <v>1.965538461538461</v>
       </c>
       <c r="V17" t="b">
-        <f>(F6-(G17^2/(2*F17))*2)&gt;0</f>
+        <f>(G7-(H17^2/(2*G17))*2)&gt;0</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="D18" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF((G8-E8*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))&lt;0,G8/(2*$F$10+$H$10),E8)</f>
+        <v>1</v>
       </c>
       <c r="E18" s="16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+        <f>(G8-D18*(2*$F$10+$H$10))/($F$10*($F$10+$H$10))</f>
+        <v>93.403474846480862</v>
+      </c>
+      <c r="F18" s="16">
+        <f>E18*$F$10+D18</f>
+        <v>60.778223901747751</v>
+      </c>
+      <c r="G18" s="3">
+        <f>IF(E18&gt;F8,F8,E18)</f>
+        <v>93.403474846480862</v>
+      </c>
+      <c r="H18" s="16">
+        <f>IF(F18&gt;D8,D8,F18)</f>
+        <v>60.778223901747751</v>
+      </c>
+      <c r="I18" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
+        <v/>
+      </c>
+      <c r="K18" s="16">
+        <f>IF(G18&gt;0,(H18^2-D18^2)/(2*G18),0)</f>
+        <v>19.769031648559281</v>
+      </c>
+      <c r="L18" s="16">
+        <f>IF((G8-K18*2)&gt;0,K18,G8/2)</f>
+        <v>19.769031648559281</v>
+      </c>
+      <c r="M18" s="16">
+        <f>IF((G8-K18*2)&gt;0,G8-2*K18,0)</f>
+        <v>119.46193670288145</v>
+      </c>
+      <c r="N18" s="8">
+        <f>IF(G18&gt;0,(SQRT(2*G18*L18+E8^2)-D18)/G18,0)</f>
+        <v>0.64</v>
+      </c>
+      <c r="O18" s="8">
+        <f>IF(H18=0,0,M18/H18)</f>
+        <v>1.9655384615384619</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="5"/>
+        <v>3.2455384615384619</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K18" s="16">
-        <f>IF(F18&gt;0,(G18^2-C18^2)/(2*F18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="16">
-        <f>IF((F7-K18*2)&gt;0,K18,F7/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="16">
-        <f>IF((F7-K18*2)&gt;0,F7-2*K18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <f>IF(F18&gt;0,(SQRT(2*F18*L18+D7^2)-C18)/F18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <f>IF(G18=0,0,M18/G18)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
+        <v>3.2455384615384619</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="U18">
         <f>O18</f>
-        <v>0</v>
-      </c>
-      <c r="V18" t="e">
-        <f>(F7-(G18^2/(2*F18))*2)&gt;0</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
+        <v>1.9655384615384619</v>
+      </c>
+      <c r="V18" t="b">
+        <f>(G8-(H18^2/(2*G18))*2)&gt;0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="29">
+      <c r="D21" s="29">
         <f>MAX(P13:P18)</f>
-        <v>3.0629370629370634</v>
-      </c>
-      <c r="D21" s="25" t="s">
+        <v>3.3054200765848369</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="29">
-        <f>VLOOKUP(C21,S13:U18,2,FALSE)</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="29">
+        <f>VLOOKUP(D21,S13:U18,2,FALSE)</f>
+        <v>0.70119545074670253</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="29">
-        <f>VLOOKUP(C21,S13:U18,3,FALSE)</f>
-        <v>1.5244755244755246</v>
-      </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="29">
+        <f>VLOOKUP(D21,S13:U18,3,FALSE)</f>
+        <v>1.9030291750914317</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="27" t="b">
-        <f>VLOOKUP(C21,S13:V18,4,FALSE)</f>
+      <c r="J21" s="27" t="b">
+        <f>VLOOKUP(D21,S13:V18,4,FALSE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32" t="s">
+    <row r="22" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="31"/>
+      <c r="D23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="E23" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="G23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="I23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="34">
-        <f>IF((F2-D2*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))&lt;0,F2/(2*$E$21+$G$21),C13)</f>
-        <v>5</v>
-      </c>
-      <c r="D24" s="42">
-        <f>(F2-C24*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))</f>
-        <v>64.999999999999986</v>
-      </c>
-      <c r="E24" s="35">
-        <f>D24*$E$21+C24</f>
-        <v>54.999999999999993</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" ref="F24:F29" si="12">IF(D24&gt;E2,E2,D24)</f>
-        <v>64.999999999999986</v>
-      </c>
-      <c r="G24" s="16">
-        <f t="shared" ref="G24:G29" si="13">IF(E24&gt;C2,C2,E24)</f>
-        <v>54.999999999999993</v>
-      </c>
-      <c r="H24" s="16" t="str">
-        <f t="shared" ref="H24:H29" si="14">IF(OR(F24&lt;&gt;D24,G24&lt;&gt;E24),"x","")</f>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34">
+        <f>IF((G3-E3*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))&lt;0,G3/(2*$F$21+$H$21),D13)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="42">
+        <f>(G3-D24*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))</f>
+        <v>41.999792225041219</v>
+      </c>
+      <c r="F24" s="35">
+        <f>E24*$F$21+D24</f>
+        <v>30.450063240505632</v>
+      </c>
+      <c r="G24" s="3">
+        <f>IF(E24&gt;F3,F3,E24)</f>
+        <v>41.999792225041219</v>
+      </c>
+      <c r="H24" s="16">
+        <f>IF(F24&gt;D3,D3,F24)</f>
+        <v>30.450063240505632</v>
+      </c>
+      <c r="I24" s="16" t="str">
+        <f t="shared" ref="I24:I29" si="7">IF(OR(G24&lt;&gt;E24,H24&lt;&gt;F24),"x","")</f>
         <v/>
       </c>
-      <c r="K24" s="16">
-        <f>IF(F24&gt;0,(G24^2-C24^2)/(2*F24),0)</f>
-        <v>23.076923076923077</v>
-      </c>
-      <c r="L24" s="16">
-        <f>IF((F2-K24*2)&gt;0,K24,F2/2)</f>
-        <v>23.076923076923077</v>
-      </c>
-      <c r="M24" s="16">
-        <f>IF((F2-K24*2)&gt;0,F2-2*K24,0)</f>
-        <v>83.84615384615384</v>
-      </c>
-      <c r="N24" s="8">
-        <f>IF(F24&gt;0,(SQRT(2*F24*L24+C24^2)-C24)/F24,0)</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="O24" s="8">
-        <f>IF(G24=0,0,M24/G24)</f>
-        <v>1.5244755244755246</v>
-      </c>
-      <c r="P24" s="8">
-        <f>O24+N24*2</f>
-        <v>3.0629370629370634</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="34">
-        <f t="shared" ref="C25:C29" si="15">IF((F3-D3*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))&lt;0,F3/(2*$E$21+$G$21),C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
-        <f t="shared" ref="D25:D29" si="16">(F3-C25*(2*$E$21+$G$21))/($E$21*($E$21+$G$21))</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="35">
-        <f t="shared" ref="E25:E29" si="17">D25*$E$21+C25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="16" t="str">
-        <f t="shared" si="14"/>
+      <c r="D25" s="34">
+        <f>IF((G4-E4*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))&lt;0,G4/(2*$F$21+$H$21),D14)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="42">
+        <f>(G4-D25*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))</f>
+        <v>65</v>
+      </c>
+      <c r="F25" s="35">
+        <f>E25*$F$21+D25</f>
+        <v>46.577704298535664</v>
+      </c>
+      <c r="G25" s="3">
+        <f>IF(E25&gt;F4,F4,E25)</f>
+        <v>65</v>
+      </c>
+      <c r="H25" s="16">
+        <f>IF(F25&gt;D4,D4,F25)</f>
+        <v>46.577704298535664</v>
+      </c>
+      <c r="I25" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K25" s="16">
-        <f t="shared" ref="K25:K29" si="18">IF(F25&gt;0,(G25^2-C25^2)/(2*F25),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="16">
-        <f>IF((F3-K25*2)&gt;0,K25,F3/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="16">
-        <f>IF((F3-K25*2)&gt;0,F3-2*K25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <f>IF(F25&gt;0,(SQRT(2*F25*L25+C25^2)-C25)/F25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <f>IF(G25=0,0,M25/G25)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="8">
-        <f t="shared" ref="P25:P29" si="19">O25+N25*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="16" t="str">
-        <f t="shared" si="14"/>
+      <c r="D26" s="34">
+        <f>IF((G5-E5*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))&lt;0,G5/(2*$F$21+$H$21),D15)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="42">
+        <f>(G5-D26*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))</f>
+        <v>76.500103887479398</v>
+      </c>
+      <c r="F26" s="35">
+        <f>E26*$F$21+D26</f>
+        <v>54.64152482755069</v>
+      </c>
+      <c r="G26" s="3">
+        <f>IF(E26&gt;F5,F5,E26)</f>
+        <v>76.500103887479398</v>
+      </c>
+      <c r="H26" s="16">
+        <f>IF(F26&gt;D5,D5,F26)</f>
+        <v>54.64152482755069</v>
+      </c>
+      <c r="I26" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K26" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <f>IF((F4-K26*2)&gt;0,K26,F4/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <f>IF((F4-K26*2)&gt;0,F4-2*K26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
-        <f>IF(F26&gt;0,(SQRT(2*F26*L26+C26^2)-C26)/F26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <f>IF(G26=0,0,M26/G26)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="34">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="16" t="str">
-        <f t="shared" si="14"/>
+      <c r="D27" s="34">
+        <f>IF((G6-E6*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))&lt;0,G6/(2*$F$21+$H$21),D16)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="42">
+        <f>(G6-D27*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))</f>
+        <v>91.285951742810056</v>
+      </c>
+      <c r="F27" s="35">
+        <f>E27*$F$21+D27</f>
+        <v>65.009294079141426</v>
+      </c>
+      <c r="G27" s="3">
+        <f>IF(E27&gt;F6,F6,E27)</f>
+        <v>91.285951742810056</v>
+      </c>
+      <c r="H27" s="16">
+        <f>IF(F27&gt;D6,D6,F27)</f>
+        <v>65</v>
+      </c>
+      <c r="I27" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="34">
+        <f>IF((G7-E7*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))&lt;0,G7/(2*$F$21+$H$21),D17)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="42">
+        <f>(G7-D28*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))</f>
+        <v>56.238016085729988</v>
+      </c>
+      <c r="F28" s="35">
+        <f>E28*$F$21+D28</f>
+        <v>40.433841038333746</v>
+      </c>
+      <c r="G28" s="3">
+        <f>IF(E28&gt;F7,F7,E28)</f>
+        <v>56.238016085729988</v>
+      </c>
+      <c r="H28" s="16">
+        <f>IF(F28&gt;D7,D7,F28)</f>
+        <v>40.433841038333746</v>
+      </c>
+      <c r="I28" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K27" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
-        <f>IF((F5-K27*2)&gt;0,K27,F5/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="16">
-        <f>IF((F5-K27*2)&gt;0,F5-2*K27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <f>IF(F27&gt;0,(SQRT(2*F27*L27+C27^2)-C27)/F27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <f>IF(G27=0,0,M27/G27)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="34">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="D28" s="42">
-        <f t="shared" si="16"/>
-        <v>19.658536585365848</v>
-      </c>
-      <c r="E28" s="35">
-        <f t="shared" si="17"/>
-        <v>20.121951219512191</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="12"/>
-        <v>19.658536585365848</v>
-      </c>
-      <c r="G28" s="16">
-        <f t="shared" si="13"/>
-        <v>20.121951219512191</v>
-      </c>
-      <c r="H28" s="16" t="str">
-        <f t="shared" si="14"/>
+    </row>
+    <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="39">
+        <f>IF((G8-E8*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))&lt;0,G8/(2*$F$21+$H$21),D18)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="43">
+        <f>(G8-D29*(2*$F$21+$H$21))/($F$21*($F$21+$H$21))</f>
+        <v>85.262087801749416</v>
+      </c>
+      <c r="F29" s="40">
+        <f>E29*$F$21+D29</f>
+        <v>60.785388087752608</v>
+      </c>
+      <c r="G29" s="3">
+        <f>IF(E29&gt;F8,F8,E29)</f>
+        <v>85.262087801749416</v>
+      </c>
+      <c r="H29" s="16">
+        <f>IF(F29&gt;D8,D8,F29)</f>
+        <v>60.785388087752608</v>
+      </c>
+      <c r="I29" s="16" t="str">
+        <f t="shared" si="7"/>
         <v/>
-      </c>
-      <c r="K28" s="16">
-        <f t="shared" si="18"/>
-        <v>9.662288930581612</v>
-      </c>
-      <c r="L28" s="16">
-        <f>IF((F6-K28*2)&gt;0,K28,F6/2)</f>
-        <v>9.662288930581612</v>
-      </c>
-      <c r="M28" s="16">
-        <f>IF((F6-K28*2)&gt;0,F6-2*K28,0)</f>
-        <v>30.675422138836776</v>
-      </c>
-      <c r="N28" s="8">
-        <f>IF(F28&gt;0,(SQRT(2*F28*L28+C28^2)-C28)/F28,0)</f>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="O28" s="8">
-        <f>IF(G28=0,0,M28/G28)</f>
-        <v>1.524475524475525</v>
-      </c>
-      <c r="P28" s="8">
-        <f t="shared" si="19"/>
-        <v>3.0629370629370634</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="39">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="43">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="40">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K29" s="16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
-        <f>IF((F7-K29*2)&gt;0,K29,F7/2)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="16">
-        <f>IF((F7-K29*2)&gt;0,F7-2*K29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
-        <f>IF(F29&gt;0,(SQRT(2*F29*L29+C29^2)-C29)/F29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <f>IF(G29=0,0,M29/G29)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B11:D11"/>
   </mergeCells>
-  <conditionalFormatting sqref="H13:H18 H24:H29">
+  <conditionalFormatting sqref="I13:I18 I24:I29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -11520,28 +11346,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A3)+Tabelle1!$C$24,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A3+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>5</v>
+        <f>IF(A3&gt;=Tabelle1!$D$21,0,IF($A3&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A3)+Tabelle1!$D$24,IF($A3&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A3+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>1</v>
       </c>
       <c r="C3">
-        <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A3)+Tabelle1!$C$25,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A3+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A3&gt;=Tabelle1!$D$21,0,IF($A3&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A3)+Tabelle1!$D$25,IF($A3&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A3+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A3)+Tabelle1!$C$26,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A3+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A3&gt;=Tabelle1!$D$21,0,IF($A3&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A3)+Tabelle1!$D$26,IF($A3&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A3+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A3)+Tabelle1!$C$27,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A3+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A3&gt;=Tabelle1!$D$21,0,IF($A3&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A3)+Tabelle1!$D$27,IF($A3&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A3+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A3)+Tabelle1!$C$28,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A3+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>5</v>
+        <f>IF(A3&gt;=Tabelle1!$D$21,0,IF($A3&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A3)+Tabelle1!$D$28,IF($A3&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A3+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f>IF(A3&gt;=Tabelle1!$C$21,0,IF($A3&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A3)+Tabelle1!$C$29,IF($A3&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A3+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A3&gt;=Tabelle1!$D$21,0,IF($A3&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A3)+Tabelle1!$D$29,IF($A3&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A3+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11549,28 +11375,28 @@
         <v>0.1</v>
       </c>
       <c r="B4">
-        <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A4)+Tabelle1!$C$24,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A4+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>11.5</v>
+        <f>IF(A4&gt;=Tabelle1!$D$21,0,IF($A4&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A4)+Tabelle1!$D$24,IF($A4&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A4+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>5.1999792225041217</v>
       </c>
       <c r="C4">
-        <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A4)+Tabelle1!$C$25,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A4+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A4&gt;=Tabelle1!$D$21,0,IF($A4&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A4)+Tabelle1!$D$25,IF($A4&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A4+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>7.5</v>
       </c>
       <c r="D4">
-        <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A4)+Tabelle1!$C$26,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A4+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A4&gt;=Tabelle1!$D$21,0,IF($A4&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A4)+Tabelle1!$D$26,IF($A4&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A4+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>8.6500103887479405</v>
       </c>
       <c r="E4">
-        <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A4)+Tabelle1!$C$27,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A4+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A4&gt;=Tabelle1!$D$21,0,IF($A4&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A4)+Tabelle1!$D$27,IF($A4&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A4+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>10.128595174281006</v>
       </c>
       <c r="F4">
-        <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A4)+Tabelle1!$C$28,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A4+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>6.9658536585365844</v>
+        <f>IF(A4&gt;=Tabelle1!$D$21,0,IF($A4&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A4)+Tabelle1!$D$28,IF($A4&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A4+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>6.6238016085729994</v>
       </c>
       <c r="G4">
-        <f>IF(A4&gt;=Tabelle1!$C$21,0,IF($A4&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A4)+Tabelle1!$C$29,IF($A4&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A4+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A4&gt;=Tabelle1!$D$21,0,IF($A4&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A4)+Tabelle1!$D$29,IF($A4&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A4+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>9.526208780174942</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11578,28 +11404,28 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A5)+Tabelle1!$C$24,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A5+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>18</v>
+        <f>IF(A5&gt;=Tabelle1!$D$21,0,IF($A5&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A5)+Tabelle1!$D$24,IF($A5&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A5+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>9.3999584450082434</v>
       </c>
       <c r="C5">
-        <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A5)+Tabelle1!$C$25,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A5+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A5&gt;=Tabelle1!$D$21,0,IF($A5&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A5)+Tabelle1!$D$25,IF($A5&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A5+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>14</v>
       </c>
       <c r="D5">
-        <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A5)+Tabelle1!$C$26,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A5+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A5&gt;=Tabelle1!$D$21,0,IF($A5&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A5)+Tabelle1!$D$26,IF($A5&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A5+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>16.300020777495881</v>
       </c>
       <c r="E5">
-        <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A5)+Tabelle1!$C$27,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A5+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A5&gt;=Tabelle1!$D$21,0,IF($A5&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A5)+Tabelle1!$D$27,IF($A5&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A5+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>19.257190348562013</v>
       </c>
       <c r="F5">
-        <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A5)+Tabelle1!$C$28,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A5+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>8.9317073170731689</v>
+        <f>IF(A5&gt;=Tabelle1!$D$21,0,IF($A5&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A5)+Tabelle1!$D$28,IF($A5&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A5+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>12.247603217145999</v>
       </c>
       <c r="G5">
-        <f>IF(A5&gt;=Tabelle1!$C$21,0,IF($A5&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A5)+Tabelle1!$C$29,IF($A5&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A5+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A5&gt;=Tabelle1!$D$21,0,IF($A5&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A5)+Tabelle1!$D$29,IF($A5&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A5+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>18.052417560349884</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11607,28 +11433,28 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A6)+Tabelle1!$C$24,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A6+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>24.499999999999996</v>
+        <f>IF(A6&gt;=Tabelle1!$D$21,0,IF($A6&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A6)+Tabelle1!$D$24,IF($A6&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A6+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>13.599937667512366</v>
       </c>
       <c r="C6">
-        <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A6)+Tabelle1!$C$25,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A6+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A6&gt;=Tabelle1!$D$21,0,IF($A6&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A6)+Tabelle1!$D$25,IF($A6&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A6+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>20.5</v>
       </c>
       <c r="D6">
-        <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A6)+Tabelle1!$C$26,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A6+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A6&gt;=Tabelle1!$D$21,0,IF($A6&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A6)+Tabelle1!$D$26,IF($A6&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A6+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>23.950031166243818</v>
       </c>
       <c r="E6">
-        <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A6)+Tabelle1!$C$27,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A6+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A6&gt;=Tabelle1!$D$21,0,IF($A6&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A6)+Tabelle1!$D$27,IF($A6&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A6+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>28.385785522843015</v>
       </c>
       <c r="F6">
-        <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A6)+Tabelle1!$C$28,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A6+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>10.897560975609753</v>
+        <f>IF(A6&gt;=Tabelle1!$D$21,0,IF($A6&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A6)+Tabelle1!$D$28,IF($A6&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A6+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>17.871404825718997</v>
       </c>
       <c r="G6">
-        <f>IF(A6&gt;=Tabelle1!$C$21,0,IF($A6&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A6)+Tabelle1!$C$29,IF($A6&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A6+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A6&gt;=Tabelle1!$D$21,0,IF($A6&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A6)+Tabelle1!$D$29,IF($A6&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A6+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>26.578626340524824</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11636,28 +11462,28 @@
         <v>0.4</v>
       </c>
       <c r="B7">
-        <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A7)+Tabelle1!$C$24,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A7+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>30.999999999999996</v>
+        <f>IF(A7&gt;=Tabelle1!$D$21,0,IF($A7&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A7)+Tabelle1!$D$24,IF($A7&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A7+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>17.799916890016487</v>
       </c>
       <c r="C7">
-        <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A7)+Tabelle1!$C$25,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A7+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A7&gt;=Tabelle1!$D$21,0,IF($A7&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A7)+Tabelle1!$D$25,IF($A7&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A7+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>27</v>
       </c>
       <c r="D7">
-        <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A7)+Tabelle1!$C$26,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A7+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A7&gt;=Tabelle1!$D$21,0,IF($A7&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A7)+Tabelle1!$D$26,IF($A7&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A7+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>31.600041554991762</v>
       </c>
       <c r="E7">
-        <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A7)+Tabelle1!$C$27,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A7+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A7&gt;=Tabelle1!$D$21,0,IF($A7&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A7)+Tabelle1!$D$27,IF($A7&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A7+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>37.514380697124025</v>
       </c>
       <c r="F7">
-        <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A7)+Tabelle1!$C$28,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A7+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>12.86341463414634</v>
+        <f>IF(A7&gt;=Tabelle1!$D$21,0,IF($A7&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A7)+Tabelle1!$D$28,IF($A7&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A7+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>23.495206434291998</v>
       </c>
       <c r="G7">
-        <f>IF(A7&gt;=Tabelle1!$C$21,0,IF($A7&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A7)+Tabelle1!$C$29,IF($A7&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A7+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A7&gt;=Tabelle1!$D$21,0,IF($A7&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A7)+Tabelle1!$D$29,IF($A7&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A7+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>35.104835120699768</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11665,28 +11491,28 @@
         <v>0.5</v>
       </c>
       <c r="B8">
-        <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A8)+Tabelle1!$C$24,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A8+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>37.499999999999993</v>
+        <f>IF(A8&gt;=Tabelle1!$D$21,0,IF($A8&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A8)+Tabelle1!$D$24,IF($A8&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A8+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>21.999896112520609</v>
       </c>
       <c r="C8">
-        <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A8)+Tabelle1!$C$25,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A8+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A8&gt;=Tabelle1!$D$21,0,IF($A8&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A8)+Tabelle1!$D$25,IF($A8&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A8+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>33.5</v>
       </c>
       <c r="D8">
-        <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A8)+Tabelle1!$C$26,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A8+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A8&gt;=Tabelle1!$D$21,0,IF($A8&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A8)+Tabelle1!$D$26,IF($A8&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A8+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>39.250051943739699</v>
       </c>
       <c r="E8">
-        <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A8)+Tabelle1!$C$27,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A8+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A8&gt;=Tabelle1!$D$21,0,IF($A8&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A8)+Tabelle1!$D$27,IF($A8&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A8+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>46.642975871405028</v>
       </c>
       <c r="F8">
-        <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A8)+Tabelle1!$C$28,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A8+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>14.829268292682924</v>
+        <f>IF(A8&gt;=Tabelle1!$D$21,0,IF($A8&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A8)+Tabelle1!$D$28,IF($A8&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A8+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>29.119008042864994</v>
       </c>
       <c r="G8">
-        <f>IF(A8&gt;=Tabelle1!$C$21,0,IF($A8&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A8)+Tabelle1!$C$29,IF($A8&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A8+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A8&gt;=Tabelle1!$D$21,0,IF($A8&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A8)+Tabelle1!$D$29,IF($A8&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A8+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>43.631043900874708</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11694,28 +11520,28 @@
         <v>0.6</v>
       </c>
       <c r="B9">
-        <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A9)+Tabelle1!$C$24,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A9+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>43.999999999999993</v>
+        <f>IF(A9&gt;=Tabelle1!$D$21,0,IF($A9&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A9)+Tabelle1!$D$24,IF($A9&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A9+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>26.199875335024732</v>
       </c>
       <c r="C9">
-        <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A9)+Tabelle1!$C$25,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A9+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A9&gt;=Tabelle1!$D$21,0,IF($A9&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A9)+Tabelle1!$D$25,IF($A9&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A9+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>40</v>
       </c>
       <c r="D9">
-        <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A9)+Tabelle1!$C$26,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A9+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A9&gt;=Tabelle1!$D$21,0,IF($A9&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A9)+Tabelle1!$D$26,IF($A9&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A9+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>46.900062332487636</v>
       </c>
       <c r="E9">
-        <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A9)+Tabelle1!$C$27,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A9+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A9&gt;=Tabelle1!$D$21,0,IF($A9&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A9)+Tabelle1!$D$27,IF($A9&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A9+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>55.771571045686031</v>
       </c>
       <c r="F9">
-        <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A9)+Tabelle1!$C$28,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A9+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>16.795121951219507</v>
+        <f>IF(A9&gt;=Tabelle1!$D$21,0,IF($A9&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A9)+Tabelle1!$D$28,IF($A9&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A9+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>34.742809651437994</v>
       </c>
       <c r="G9">
-        <f>IF(A9&gt;=Tabelle1!$C$21,0,IF($A9&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A9)+Tabelle1!$C$29,IF($A9&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A9+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A9&gt;=Tabelle1!$D$21,0,IF($A9&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A9)+Tabelle1!$D$29,IF($A9&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A9+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>52.157252681049648</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11723,28 +11549,28 @@
         <v>0.7</v>
       </c>
       <c r="B10">
-        <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A10)+Tabelle1!$C$24,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A10+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>50.499999999999986</v>
+        <f>IF(A10&gt;=Tabelle1!$D$21,0,IF($A10&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A10)+Tabelle1!$D$24,IF($A10&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A10+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.399854557528851</v>
       </c>
       <c r="C10">
-        <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A10)+Tabelle1!$C$25,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A10+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A10&gt;=Tabelle1!$D$21,0,IF($A10&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A10)+Tabelle1!$D$25,IF($A10&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A10+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.5</v>
       </c>
       <c r="D10">
-        <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A10)+Tabelle1!$C$26,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A10+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A10&gt;=Tabelle1!$D$21,0,IF($A10&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A10)+Tabelle1!$D$26,IF($A10&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A10+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.550072721235573</v>
       </c>
       <c r="E10">
-        <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A10)+Tabelle1!$C$27,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A10+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A10&gt;=Tabelle1!$D$21,0,IF($A10&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A10)+Tabelle1!$D$27,IF($A10&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A10+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>64.900166219967033</v>
       </c>
       <c r="F10">
-        <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A10)+Tabelle1!$C$28,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A10+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>18.760975609756095</v>
+        <f>IF(A10&gt;=Tabelle1!$D$21,0,IF($A10&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A10)+Tabelle1!$D$28,IF($A10&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A10+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.366611260010991</v>
       </c>
       <c r="G10">
-        <f>IF(A10&gt;=Tabelle1!$C$21,0,IF($A10&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A10)+Tabelle1!$C$29,IF($A10&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A10+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A10&gt;=Tabelle1!$D$21,0,IF($A10&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A10)+Tabelle1!$D$29,IF($A10&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A10+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.683461461224589</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11752,28 +11578,28 @@
         <v>0.8</v>
       </c>
       <c r="B11">
-        <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A11)+Tabelle1!$C$24,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A11+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A11&gt;=Tabelle1!$D$21,0,IF($A11&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A11)+Tabelle1!$D$24,IF($A11&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A11+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C11">
-        <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A11)+Tabelle1!$C$25,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A11+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A11&gt;=Tabelle1!$D$21,0,IF($A11&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A11)+Tabelle1!$D$25,IF($A11&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A11+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D11">
-        <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A11)+Tabelle1!$C$26,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A11+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A11&gt;=Tabelle1!$D$21,0,IF($A11&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A11)+Tabelle1!$D$26,IF($A11&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A11+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E11">
-        <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A11)+Tabelle1!$C$27,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A11+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A11&gt;=Tabelle1!$D$21,0,IF($A11&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A11)+Tabelle1!$D$27,IF($A11&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A11+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F11">
-        <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A11)+Tabelle1!$C$28,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A11+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A11&gt;=Tabelle1!$D$21,0,IF($A11&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A11)+Tabelle1!$D$28,IF($A11&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A11+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G11">
-        <f>IF(A11&gt;=Tabelle1!$C$21,0,IF($A11&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A11)+Tabelle1!$C$29,IF($A11&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A11+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A11&gt;=Tabelle1!$D$21,0,IF($A11&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A11)+Tabelle1!$D$29,IF($A11&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A11+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11781,28 +11607,28 @@
         <v>0.9</v>
       </c>
       <c r="B12">
-        <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A12)+Tabelle1!$C$24,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A12+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A12&gt;=Tabelle1!$D$21,0,IF($A12&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A12)+Tabelle1!$D$24,IF($A12&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A12+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C12">
-        <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A12)+Tabelle1!$C$25,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A12+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A12&gt;=Tabelle1!$D$21,0,IF($A12&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A12)+Tabelle1!$D$25,IF($A12&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A12+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D12">
-        <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A12)+Tabelle1!$C$26,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A12+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A12&gt;=Tabelle1!$D$21,0,IF($A12&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A12)+Tabelle1!$D$26,IF($A12&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A12+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E12">
-        <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A12)+Tabelle1!$C$27,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A12+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A12&gt;=Tabelle1!$D$21,0,IF($A12&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A12)+Tabelle1!$D$27,IF($A12&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A12+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F12">
-        <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A12)+Tabelle1!$C$28,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A12+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A12&gt;=Tabelle1!$D$21,0,IF($A12&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A12)+Tabelle1!$D$28,IF($A12&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A12+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G12">
-        <f>IF(A12&gt;=Tabelle1!$C$21,0,IF($A12&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A12)+Tabelle1!$C$29,IF($A12&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A12+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A12&gt;=Tabelle1!$D$21,0,IF($A12&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A12)+Tabelle1!$D$29,IF($A12&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A12+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11810,28 +11636,28 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A13)+Tabelle1!$C$24,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A13+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A13&gt;=Tabelle1!$D$21,0,IF($A13&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A13)+Tabelle1!$D$24,IF($A13&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A13+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C13">
-        <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A13)+Tabelle1!$C$25,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A13+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A13&gt;=Tabelle1!$D$21,0,IF($A13&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A13)+Tabelle1!$D$25,IF($A13&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A13+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D13">
-        <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A13)+Tabelle1!$C$26,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A13+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A13&gt;=Tabelle1!$D$21,0,IF($A13&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A13)+Tabelle1!$D$26,IF($A13&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A13+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E13">
-        <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A13)+Tabelle1!$C$27,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A13+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A13&gt;=Tabelle1!$D$21,0,IF($A13&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A13)+Tabelle1!$D$27,IF($A13&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A13+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F13">
-        <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A13)+Tabelle1!$C$28,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A13+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A13&gt;=Tabelle1!$D$21,0,IF($A13&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A13)+Tabelle1!$D$28,IF($A13&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A13+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G13">
-        <f>IF(A13&gt;=Tabelle1!$C$21,0,IF($A13&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A13)+Tabelle1!$C$29,IF($A13&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A13+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A13&gt;=Tabelle1!$D$21,0,IF($A13&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A13)+Tabelle1!$D$29,IF($A13&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A13+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -11839,28 +11665,28 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B14">
-        <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A14)+Tabelle1!$C$24,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A14+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A14&gt;=Tabelle1!$D$21,0,IF($A14&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A14)+Tabelle1!$D$24,IF($A14&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A14+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C14">
-        <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A14)+Tabelle1!$C$25,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A14+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A14&gt;=Tabelle1!$D$21,0,IF($A14&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A14)+Tabelle1!$D$25,IF($A14&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A14+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D14">
-        <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A14)+Tabelle1!$C$26,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A14+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A14&gt;=Tabelle1!$D$21,0,IF($A14&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A14)+Tabelle1!$D$26,IF($A14&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A14+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E14">
-        <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A14)+Tabelle1!$C$27,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A14+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A14&gt;=Tabelle1!$D$21,0,IF($A14&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A14)+Tabelle1!$D$27,IF($A14&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A14+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F14">
-        <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A14)+Tabelle1!$C$28,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A14+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A14&gt;=Tabelle1!$D$21,0,IF($A14&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A14)+Tabelle1!$D$28,IF($A14&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A14+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G14">
-        <f>IF(A14&gt;=Tabelle1!$C$21,0,IF($A14&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A14)+Tabelle1!$C$29,IF($A14&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A14+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A14&gt;=Tabelle1!$D$21,0,IF($A14&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A14)+Tabelle1!$D$29,IF($A14&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A14+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -11868,28 +11694,28 @@
         <v>1.2</v>
       </c>
       <c r="B15">
-        <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A15)+Tabelle1!$C$24,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A15+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A15&gt;=Tabelle1!$D$21,0,IF($A15&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A15)+Tabelle1!$D$24,IF($A15&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A15+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C15">
-        <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A15)+Tabelle1!$C$25,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A15+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A15&gt;=Tabelle1!$D$21,0,IF($A15&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A15)+Tabelle1!$D$25,IF($A15&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A15+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D15">
-        <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A15)+Tabelle1!$C$26,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A15+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A15&gt;=Tabelle1!$D$21,0,IF($A15&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A15)+Tabelle1!$D$26,IF($A15&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A15+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E15">
-        <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A15)+Tabelle1!$C$27,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A15+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A15&gt;=Tabelle1!$D$21,0,IF($A15&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A15)+Tabelle1!$D$27,IF($A15&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A15+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F15">
-        <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A15)+Tabelle1!$C$28,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A15+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A15&gt;=Tabelle1!$D$21,0,IF($A15&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A15)+Tabelle1!$D$28,IF($A15&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A15+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G15">
-        <f>IF(A15&gt;=Tabelle1!$C$21,0,IF($A15&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A15)+Tabelle1!$C$29,IF($A15&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A15+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A15&gt;=Tabelle1!$D$21,0,IF($A15&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A15)+Tabelle1!$D$29,IF($A15&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A15+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -11897,28 +11723,28 @@
         <v>1.3</v>
       </c>
       <c r="B16">
-        <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A16)+Tabelle1!$C$24,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A16+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A16&gt;=Tabelle1!$D$21,0,IF($A16&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A16)+Tabelle1!$D$24,IF($A16&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A16+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C16">
-        <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A16)+Tabelle1!$C$25,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A16+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A16&gt;=Tabelle1!$D$21,0,IF($A16&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A16)+Tabelle1!$D$25,IF($A16&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A16+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D16">
-        <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A16)+Tabelle1!$C$26,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A16+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A16&gt;=Tabelle1!$D$21,0,IF($A16&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A16)+Tabelle1!$D$26,IF($A16&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A16+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E16">
-        <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A16)+Tabelle1!$C$27,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A16+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A16&gt;=Tabelle1!$D$21,0,IF($A16&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A16)+Tabelle1!$D$27,IF($A16&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A16+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F16">
-        <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A16)+Tabelle1!$C$28,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A16+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A16&gt;=Tabelle1!$D$21,0,IF($A16&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A16)+Tabelle1!$D$28,IF($A16&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A16+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G16">
-        <f>IF(A16&gt;=Tabelle1!$C$21,0,IF($A16&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A16)+Tabelle1!$C$29,IF($A16&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A16+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A16&gt;=Tabelle1!$D$21,0,IF($A16&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A16)+Tabelle1!$D$29,IF($A16&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A16+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11926,28 +11752,28 @@
         <v>1.4</v>
       </c>
       <c r="B17">
-        <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A17)+Tabelle1!$C$24,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A17+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A17&gt;=Tabelle1!$D$21,0,IF($A17&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A17)+Tabelle1!$D$24,IF($A17&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A17+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C17">
-        <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A17)+Tabelle1!$C$25,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A17+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A17&gt;=Tabelle1!$D$21,0,IF($A17&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A17)+Tabelle1!$D$25,IF($A17&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A17+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D17">
-        <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A17)+Tabelle1!$C$26,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A17+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A17&gt;=Tabelle1!$D$21,0,IF($A17&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A17)+Tabelle1!$D$26,IF($A17&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A17+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E17">
-        <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A17)+Tabelle1!$C$27,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A17+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A17&gt;=Tabelle1!$D$21,0,IF($A17&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A17)+Tabelle1!$D$27,IF($A17&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A17+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F17">
-        <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A17)+Tabelle1!$C$28,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A17+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A17&gt;=Tabelle1!$D$21,0,IF($A17&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A17)+Tabelle1!$D$28,IF($A17&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A17+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G17">
-        <f>IF(A17&gt;=Tabelle1!$C$21,0,IF($A17&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A17)+Tabelle1!$C$29,IF($A17&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A17+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A17&gt;=Tabelle1!$D$21,0,IF($A17&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A17)+Tabelle1!$D$29,IF($A17&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A17+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11955,28 +11781,28 @@
         <v>1.5</v>
       </c>
       <c r="B18">
-        <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A18)+Tabelle1!$C$24,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A18+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A18&gt;=Tabelle1!$D$21,0,IF($A18&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A18)+Tabelle1!$D$24,IF($A18&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A18+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C18">
-        <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A18)+Tabelle1!$C$25,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A18+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A18&gt;=Tabelle1!$D$21,0,IF($A18&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A18)+Tabelle1!$D$25,IF($A18&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A18+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D18">
-        <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A18)+Tabelle1!$C$26,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A18+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A18&gt;=Tabelle1!$D$21,0,IF($A18&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A18)+Tabelle1!$D$26,IF($A18&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A18+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E18">
-        <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A18)+Tabelle1!$C$27,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A18+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A18&gt;=Tabelle1!$D$21,0,IF($A18&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A18)+Tabelle1!$D$27,IF($A18&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A18+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F18">
-        <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A18)+Tabelle1!$C$28,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A18+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A18&gt;=Tabelle1!$D$21,0,IF($A18&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A18)+Tabelle1!$D$28,IF($A18&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A18+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G18">
-        <f>IF(A18&gt;=Tabelle1!$C$21,0,IF($A18&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A18)+Tabelle1!$C$29,IF($A18&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A18+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A18&gt;=Tabelle1!$D$21,0,IF($A18&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A18)+Tabelle1!$D$29,IF($A18&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A18+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11984,28 +11810,28 @@
         <v>1.6</v>
       </c>
       <c r="B19">
-        <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A19)+Tabelle1!$C$24,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A19+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A19&gt;=Tabelle1!$D$21,0,IF($A19&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A19)+Tabelle1!$D$24,IF($A19&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A19+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C19">
-        <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A19)+Tabelle1!$C$25,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A19+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A19&gt;=Tabelle1!$D$21,0,IF($A19&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A19)+Tabelle1!$D$25,IF($A19&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A19+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D19">
-        <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A19)+Tabelle1!$C$26,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A19+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A19&gt;=Tabelle1!$D$21,0,IF($A19&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A19)+Tabelle1!$D$26,IF($A19&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A19+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E19">
-        <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A19)+Tabelle1!$C$27,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A19+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A19&gt;=Tabelle1!$D$21,0,IF($A19&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A19)+Tabelle1!$D$27,IF($A19&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A19+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F19">
-        <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A19)+Tabelle1!$C$28,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A19+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A19&gt;=Tabelle1!$D$21,0,IF($A19&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A19)+Tabelle1!$D$28,IF($A19&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A19+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G19">
-        <f>IF(A19&gt;=Tabelle1!$C$21,0,IF($A19&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A19)+Tabelle1!$C$29,IF($A19&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A19+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A19&gt;=Tabelle1!$D$21,0,IF($A19&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A19)+Tabelle1!$D$29,IF($A19&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A19+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12013,28 +11839,28 @@
         <v>1.7</v>
       </c>
       <c r="B20">
-        <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A20)+Tabelle1!$C$24,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A20+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A20&gt;=Tabelle1!$D$21,0,IF($A20&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A20)+Tabelle1!$D$24,IF($A20&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A20+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C20">
-        <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A20)+Tabelle1!$C$25,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A20+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A20&gt;=Tabelle1!$D$21,0,IF($A20&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A20)+Tabelle1!$D$25,IF($A20&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A20+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D20">
-        <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A20)+Tabelle1!$C$26,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A20+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A20&gt;=Tabelle1!$D$21,0,IF($A20&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A20)+Tabelle1!$D$26,IF($A20&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A20+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E20">
-        <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A20)+Tabelle1!$C$27,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A20+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A20&gt;=Tabelle1!$D$21,0,IF($A20&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A20)+Tabelle1!$D$27,IF($A20&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A20+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F20">
-        <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A20)+Tabelle1!$C$28,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A20+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A20&gt;=Tabelle1!$D$21,0,IF($A20&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A20)+Tabelle1!$D$28,IF($A20&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A20+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G20">
-        <f>IF(A20&gt;=Tabelle1!$C$21,0,IF($A20&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A20)+Tabelle1!$C$29,IF($A20&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A20+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A20&gt;=Tabelle1!$D$21,0,IF($A20&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A20)+Tabelle1!$D$29,IF($A20&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A20+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12042,28 +11868,28 @@
         <v>1.8</v>
       </c>
       <c r="B21">
-        <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A21)+Tabelle1!$C$24,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A21+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A21&gt;=Tabelle1!$D$21,0,IF($A21&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A21)+Tabelle1!$D$24,IF($A21&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A21+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C21">
-        <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A21)+Tabelle1!$C$25,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A21+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A21&gt;=Tabelle1!$D$21,0,IF($A21&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A21)+Tabelle1!$D$25,IF($A21&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A21+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D21">
-        <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A21)+Tabelle1!$C$26,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A21+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A21&gt;=Tabelle1!$D$21,0,IF($A21&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A21)+Tabelle1!$D$26,IF($A21&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A21+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E21">
-        <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A21)+Tabelle1!$C$27,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A21+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A21&gt;=Tabelle1!$D$21,0,IF($A21&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A21)+Tabelle1!$D$27,IF($A21&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A21+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F21">
-        <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A21)+Tabelle1!$C$28,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A21+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A21&gt;=Tabelle1!$D$21,0,IF($A21&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A21)+Tabelle1!$D$28,IF($A21&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A21+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G21">
-        <f>IF(A21&gt;=Tabelle1!$C$21,0,IF($A21&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A21)+Tabelle1!$C$29,IF($A21&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A21+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A21&gt;=Tabelle1!$D$21,0,IF($A21&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A21)+Tabelle1!$D$29,IF($A21&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A21+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12071,28 +11897,28 @@
         <v>1.9</v>
       </c>
       <c r="B22">
-        <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A22)+Tabelle1!$C$24,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A22+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A22&gt;=Tabelle1!$D$21,0,IF($A22&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A22)+Tabelle1!$D$24,IF($A22&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A22+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C22">
-        <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A22)+Tabelle1!$C$25,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A22+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A22&gt;=Tabelle1!$D$21,0,IF($A22&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A22)+Tabelle1!$D$25,IF($A22&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A22+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D22">
-        <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A22)+Tabelle1!$C$26,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A22+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A22&gt;=Tabelle1!$D$21,0,IF($A22&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A22)+Tabelle1!$D$26,IF($A22&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A22+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E22">
-        <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A22)+Tabelle1!$C$27,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A22+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A22&gt;=Tabelle1!$D$21,0,IF($A22&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A22)+Tabelle1!$D$27,IF($A22&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A22+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F22">
-        <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A22)+Tabelle1!$C$28,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A22+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A22&gt;=Tabelle1!$D$21,0,IF($A22&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A22)+Tabelle1!$D$28,IF($A22&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A22+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G22">
-        <f>IF(A22&gt;=Tabelle1!$C$21,0,IF($A22&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A22)+Tabelle1!$C$29,IF($A22&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A22+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A22&gt;=Tabelle1!$D$21,0,IF($A22&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A22)+Tabelle1!$D$29,IF($A22&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A22+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -12100,28 +11926,28 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A23)+Tabelle1!$C$24,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A23+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A23&gt;=Tabelle1!$D$21,0,IF($A23&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A23)+Tabelle1!$D$24,IF($A23&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A23+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C23">
-        <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A23)+Tabelle1!$C$25,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A23+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A23&gt;=Tabelle1!$D$21,0,IF($A23&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A23)+Tabelle1!$D$25,IF($A23&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A23+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D23">
-        <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A23)+Tabelle1!$C$26,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A23+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A23&gt;=Tabelle1!$D$21,0,IF($A23&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A23)+Tabelle1!$D$26,IF($A23&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A23+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E23">
-        <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A23)+Tabelle1!$C$27,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A23+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A23&gt;=Tabelle1!$D$21,0,IF($A23&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A23)+Tabelle1!$D$27,IF($A23&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A23+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F23">
-        <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A23)+Tabelle1!$C$28,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A23+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A23&gt;=Tabelle1!$D$21,0,IF($A23&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A23)+Tabelle1!$D$28,IF($A23&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A23+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G23">
-        <f>IF(A23&gt;=Tabelle1!$C$21,0,IF($A23&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A23)+Tabelle1!$C$29,IF($A23&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A23+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A23&gt;=Tabelle1!$D$21,0,IF($A23&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A23)+Tabelle1!$D$29,IF($A23&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A23+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -12129,28 +11955,28 @@
         <v>2.1</v>
       </c>
       <c r="B24">
-        <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A24)+Tabelle1!$C$24,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A24+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A24&gt;=Tabelle1!$D$21,0,IF($A24&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A24)+Tabelle1!$D$24,IF($A24&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A24+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C24">
-        <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A24)+Tabelle1!$C$25,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A24+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A24&gt;=Tabelle1!$D$21,0,IF($A24&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A24)+Tabelle1!$D$25,IF($A24&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A24+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D24">
-        <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A24)+Tabelle1!$C$26,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A24+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A24&gt;=Tabelle1!$D$21,0,IF($A24&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A24)+Tabelle1!$D$26,IF($A24&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A24+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E24">
-        <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A24)+Tabelle1!$C$27,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A24+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A24&gt;=Tabelle1!$D$21,0,IF($A24&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A24)+Tabelle1!$D$27,IF($A24&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A24+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F24">
-        <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A24)+Tabelle1!$C$28,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A24+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A24&gt;=Tabelle1!$D$21,0,IF($A24&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A24)+Tabelle1!$D$28,IF($A24&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A24+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G24">
-        <f>IF(A24&gt;=Tabelle1!$C$21,0,IF($A24&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A24)+Tabelle1!$C$29,IF($A24&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A24+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A24&gt;=Tabelle1!$D$21,0,IF($A24&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A24)+Tabelle1!$D$29,IF($A24&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A24+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -12158,28 +11984,28 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B25">
-        <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A25)+Tabelle1!$C$24,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A25+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.999999999999993</v>
+        <f>IF(A25&gt;=Tabelle1!$D$21,0,IF($A25&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A25)+Tabelle1!$D$24,IF($A25&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A25+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C25">
-        <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A25)+Tabelle1!$C$25,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A25+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A25&gt;=Tabelle1!$D$21,0,IF($A25&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A25)+Tabelle1!$D$25,IF($A25&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A25+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D25">
-        <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A25)+Tabelle1!$C$26,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A25+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A25&gt;=Tabelle1!$D$21,0,IF($A25&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A25)+Tabelle1!$D$26,IF($A25&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A25+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E25">
-        <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A25)+Tabelle1!$C$27,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A25+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A25&gt;=Tabelle1!$D$21,0,IF($A25&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A25)+Tabelle1!$D$27,IF($A25&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A25+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F25">
-        <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A25)+Tabelle1!$C$28,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A25+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>20.121951219512191</v>
+        <f>IF(A25&gt;=Tabelle1!$D$21,0,IF($A25&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A25)+Tabelle1!$D$28,IF($A25&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A25+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G25">
-        <f>IF(A25&gt;=Tabelle1!$C$21,0,IF($A25&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A25)+Tabelle1!$C$29,IF($A25&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A25+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A25&gt;=Tabelle1!$D$21,0,IF($A25&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A25)+Tabelle1!$D$29,IF($A25&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A25+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -12187,28 +12013,28 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B26">
-        <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A26)+Tabelle1!$C$24,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A26+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>54.590909090909122</v>
+        <f>IF(A26&gt;=Tabelle1!$D$21,0,IF($A26&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A26)+Tabelle1!$D$24,IF($A26&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A26+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C26">
-        <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A26)+Tabelle1!$C$25,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A26+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A26&gt;=Tabelle1!$D$21,0,IF($A26&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A26)+Tabelle1!$D$25,IF($A26&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A26+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D26">
-        <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A26)+Tabelle1!$C$26,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A26+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A26&gt;=Tabelle1!$D$21,0,IF($A26&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A26)+Tabelle1!$D$26,IF($A26&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A26+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E26">
-        <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A26)+Tabelle1!$C$27,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A26+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A26&gt;=Tabelle1!$D$21,0,IF($A26&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A26)+Tabelle1!$D$27,IF($A26&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A26+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F26">
-        <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A26)+Tabelle1!$C$28,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A26+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>19.998226164079831</v>
+        <f>IF(A26&gt;=Tabelle1!$D$21,0,IF($A26&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A26)+Tabelle1!$D$28,IF($A26&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A26+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G26">
-        <f>IF(A26&gt;=Tabelle1!$C$21,0,IF($A26&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A26)+Tabelle1!$C$29,IF($A26&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A26+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A26&gt;=Tabelle1!$D$21,0,IF($A26&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A26)+Tabelle1!$D$29,IF($A26&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A26+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -12216,28 +12042,28 @@
         <v>2.4</v>
       </c>
       <c r="B27">
-        <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A27)+Tabelle1!$C$24,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A27+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>48.090909090909115</v>
+        <f>IF(A27&gt;=Tabelle1!$D$21,0,IF($A27&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A27)+Tabelle1!$D$24,IF($A27&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A27+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C27">
-        <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A27)+Tabelle1!$C$25,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A27+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A27&gt;=Tabelle1!$D$21,0,IF($A27&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A27)+Tabelle1!$D$25,IF($A27&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A27+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D27">
-        <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A27)+Tabelle1!$C$26,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A27+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A27&gt;=Tabelle1!$D$21,0,IF($A27&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A27)+Tabelle1!$D$26,IF($A27&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A27+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E27">
-        <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A27)+Tabelle1!$C$27,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A27+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A27&gt;=Tabelle1!$D$21,0,IF($A27&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A27)+Tabelle1!$D$27,IF($A27&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A27+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F27">
-        <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A27)+Tabelle1!$C$28,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A27+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>18.032372505543243</v>
+        <f>IF(A27&gt;=Tabelle1!$D$21,0,IF($A27&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A27)+Tabelle1!$D$28,IF($A27&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A27+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G27">
-        <f>IF(A27&gt;=Tabelle1!$C$21,0,IF($A27&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A27)+Tabelle1!$C$29,IF($A27&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A27+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A27&gt;=Tabelle1!$D$21,0,IF($A27&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A27)+Tabelle1!$D$29,IF($A27&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A27+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -12245,28 +12071,28 @@
         <v>2.5</v>
       </c>
       <c r="B28">
-        <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A28)+Tabelle1!$C$24,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A28+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>41.590909090909108</v>
+        <f>IF(A28&gt;=Tabelle1!$D$21,0,IF($A28&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A28)+Tabelle1!$D$24,IF($A28&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A28+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C28">
-        <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A28)+Tabelle1!$C$25,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A28+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A28&gt;=Tabelle1!$D$21,0,IF($A28&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A28)+Tabelle1!$D$25,IF($A28&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A28+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D28">
-        <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A28)+Tabelle1!$C$26,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A28+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A28&gt;=Tabelle1!$D$21,0,IF($A28&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A28)+Tabelle1!$D$26,IF($A28&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A28+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E28">
-        <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A28)+Tabelle1!$C$27,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A28+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A28&gt;=Tabelle1!$D$21,0,IF($A28&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A28)+Tabelle1!$D$27,IF($A28&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A28+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F28">
-        <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A28)+Tabelle1!$C$28,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A28+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>16.066518847006655</v>
+        <f>IF(A28&gt;=Tabelle1!$D$21,0,IF($A28&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A28)+Tabelle1!$D$28,IF($A28&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A28+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G28">
-        <f>IF(A28&gt;=Tabelle1!$C$21,0,IF($A28&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A28)+Tabelle1!$C$29,IF($A28&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A28+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A28&gt;=Tabelle1!$D$21,0,IF($A28&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A28)+Tabelle1!$D$29,IF($A28&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A28+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -12274,28 +12100,28 @@
         <v>2.6</v>
       </c>
       <c r="B29">
-        <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A29)+Tabelle1!$C$24,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A29+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>35.090909090909108</v>
+        <f>IF(A29&gt;=Tabelle1!$D$21,0,IF($A29&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A29)+Tabelle1!$D$24,IF($A29&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A29+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>30.450063240505632</v>
       </c>
       <c r="C29">
-        <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A29)+Tabelle1!$C$25,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A29+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A29&gt;=Tabelle1!$D$21,0,IF($A29&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A29)+Tabelle1!$D$25,IF($A29&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A29+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>46.577704298535664</v>
       </c>
       <c r="D29">
-        <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A29)+Tabelle1!$C$26,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A29+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A29&gt;=Tabelle1!$D$21,0,IF($A29&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A29)+Tabelle1!$D$26,IF($A29&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A29+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>54.64152482755069</v>
       </c>
       <c r="E29">
-        <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A29)+Tabelle1!$C$27,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A29+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A29&gt;=Tabelle1!$D$21,0,IF($A29&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A29)+Tabelle1!$D$27,IF($A29&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A29+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>65.009294079141426</v>
       </c>
       <c r="F29">
-        <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A29)+Tabelle1!$C$28,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A29+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>14.100665188470071</v>
+        <f>IF(A29&gt;=Tabelle1!$D$21,0,IF($A29&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A29)+Tabelle1!$D$28,IF($A29&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A29+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>40.433841038333746</v>
       </c>
       <c r="G29">
-        <f>IF(A29&gt;=Tabelle1!$C$21,0,IF($A29&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A29)+Tabelle1!$C$29,IF($A29&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A29+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A29&gt;=Tabelle1!$D$21,0,IF($A29&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A29)+Tabelle1!$D$29,IF($A29&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A29+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>60.785388087752608</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -12303,28 +12129,28 @@
         <v>2.7</v>
       </c>
       <c r="B30">
-        <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A30)+Tabelle1!$C$24,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A30+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>28.590909090909101</v>
+        <f>IF(A30&gt;=Tabelle1!$D$21,0,IF($A30&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A30)+Tabelle1!$D$24,IF($A30&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A30+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>26.427517425431688</v>
       </c>
       <c r="C30">
-        <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A30)+Tabelle1!$C$25,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A30+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A30&gt;=Tabelle1!$D$21,0,IF($A30&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A30)+Tabelle1!$D$25,IF($A30&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A30+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>40.352304978014388</v>
       </c>
       <c r="D30">
-        <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A30)+Tabelle1!$C$26,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A30+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A30&gt;=Tabelle1!$D$21,0,IF($A30&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A30)+Tabelle1!$D$26,IF($A30&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A30+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>47.314698754305745</v>
       </c>
       <c r="E30">
-        <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A30)+Tabelle1!$C$27,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A30+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A30&gt;=Tabelle1!$D$21,0,IF($A30&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A30)+Tabelle1!$D$27,IF($A30&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A30+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>56.266347895251776</v>
       </c>
       <c r="F30">
-        <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A30)+Tabelle1!$C$28,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A30+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>12.134811529933483</v>
+        <f>IF(A30&gt;=Tabelle1!$D$21,0,IF($A30&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A30)+Tabelle1!$D$28,IF($A30&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A30+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>35.047624005601932</v>
       </c>
       <c r="G30">
-        <f>IF(A30&gt;=Tabelle1!$C$21,0,IF($A30&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A30)+Tabelle1!$C$29,IF($A30&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A30+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A30&gt;=Tabelle1!$D$21,0,IF($A30&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A30)+Tabelle1!$D$29,IF($A30&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A30+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>52.619379726718208</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -12332,28 +12158,28 @@
         <v>2.8</v>
       </c>
       <c r="B31">
-        <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A31)+Tabelle1!$C$24,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A31+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>22.090909090909125</v>
+        <f>IF(A31&gt;=Tabelle1!$D$21,0,IF($A31&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A31)+Tabelle1!$D$24,IF($A31&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A31+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>22.22753820292758</v>
       </c>
       <c r="C31">
-        <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A31)+Tabelle1!$C$25,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A31+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A31&gt;=Tabelle1!$D$21,0,IF($A31&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A31)+Tabelle1!$D$25,IF($A31&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A31+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>33.852304978014416</v>
       </c>
       <c r="D31">
-        <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A31)+Tabelle1!$C$26,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A31+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A31&gt;=Tabelle1!$D$21,0,IF($A31&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A31)+Tabelle1!$D$26,IF($A31&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A31+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>39.664688365557836</v>
       </c>
       <c r="E31">
-        <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A31)+Tabelle1!$C$27,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A31+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A31&gt;=Tabelle1!$D$21,0,IF($A31&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A31)+Tabelle1!$D$27,IF($A31&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A31+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>47.137752720970802</v>
       </c>
       <c r="F31">
-        <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A31)+Tabelle1!$C$28,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A31+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>10.168957871396906</v>
+        <f>IF(A31&gt;=Tabelle1!$D$21,0,IF($A31&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A31)+Tabelle1!$D$28,IF($A31&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A31+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>29.423822397028953</v>
       </c>
       <c r="G31">
-        <f>IF(A31&gt;=Tabelle1!$C$21,0,IF($A31&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A31)+Tabelle1!$C$29,IF($A31&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A31+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A31&gt;=Tabelle1!$D$21,0,IF($A31&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A31)+Tabelle1!$D$29,IF($A31&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A31+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>44.093170946543296</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12361,28 +12187,28 @@
         <v>2.9</v>
       </c>
       <c r="B32">
-        <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A32)+Tabelle1!$C$24,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A32+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>15.590909090909122</v>
+        <f>IF(A32&gt;=Tabelle1!$D$21,0,IF($A32&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A32)+Tabelle1!$D$24,IF($A32&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A32+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>18.027558980423454</v>
       </c>
       <c r="C32">
-        <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A32)+Tabelle1!$C$25,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A32+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A32&gt;=Tabelle1!$D$21,0,IF($A32&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A32)+Tabelle1!$D$25,IF($A32&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A32+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>27.352304978014406</v>
       </c>
       <c r="D32">
-        <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A32)+Tabelle1!$C$26,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A32+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A32&gt;=Tabelle1!$D$21,0,IF($A32&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A32)+Tabelle1!$D$26,IF($A32&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A32+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>32.014677976809885</v>
       </c>
       <c r="E32">
-        <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A32)+Tabelle1!$C$27,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A32+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A32&gt;=Tabelle1!$D$21,0,IF($A32&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A32)+Tabelle1!$D$27,IF($A32&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A32+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>38.009157546689792</v>
       </c>
       <c r="F32">
-        <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A32)+Tabelle1!$C$28,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A32+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>8.2031042128603193</v>
+        <f>IF(A32&gt;=Tabelle1!$D$21,0,IF($A32&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A32)+Tabelle1!$D$28,IF($A32&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A32+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>23.800020788455949</v>
       </c>
       <c r="G32">
-        <f>IF(A32&gt;=Tabelle1!$C$21,0,IF($A32&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A32)+Tabelle1!$C$29,IF($A32&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A32+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A32&gt;=Tabelle1!$D$21,0,IF($A32&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A32)+Tabelle1!$D$29,IF($A32&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A32+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>35.566962166368349</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -12390,28 +12216,28 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A33)+Tabelle1!$C$24,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A33+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>9.0909090909091184</v>
+        <f>IF(A33&gt;=Tabelle1!$D$21,0,IF($A33&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A33)+Tabelle1!$D$24,IF($A33&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A33+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>13.827579757919327</v>
       </c>
       <c r="C33">
-        <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A33)+Tabelle1!$C$25,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A33+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A33&gt;=Tabelle1!$D$21,0,IF($A33&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A33)+Tabelle1!$D$25,IF($A33&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A33+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>20.852304978014402</v>
       </c>
       <c r="D33">
-        <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A33)+Tabelle1!$C$26,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A33+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A33&gt;=Tabelle1!$D$21,0,IF($A33&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A33)+Tabelle1!$D$26,IF($A33&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A33+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>24.364667588061941</v>
       </c>
       <c r="E33">
-        <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A33)+Tabelle1!$C$27,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A33+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A33&gt;=Tabelle1!$D$21,0,IF($A33&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A33)+Tabelle1!$D$27,IF($A33&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A33+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>28.880562372408775</v>
       </c>
       <c r="F33">
-        <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A33)+Tabelle1!$C$28,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A33+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>6.2372505543237331</v>
+        <f>IF(A33&gt;=Tabelle1!$D$21,0,IF($A33&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A33)+Tabelle1!$D$28,IF($A33&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A33+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>18.176219179882946</v>
       </c>
       <c r="G33">
-        <f>IF(A33&gt;=Tabelle1!$C$21,0,IF($A33&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A33)+Tabelle1!$C$29,IF($A33&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A33+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A33&gt;=Tabelle1!$D$21,0,IF($A33&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A33)+Tabelle1!$D$29,IF($A33&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A33+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>27.040753386193398</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12419,28 +12245,28 @@
         <v>3.1</v>
       </c>
       <c r="B34">
-        <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A34)+Tabelle1!$C$24,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A34+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>0</v>
+        <f>IF(A34&gt;=Tabelle1!$D$21,0,IF($A34&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A34)+Tabelle1!$D$24,IF($A34&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A34+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>9.627600535415203</v>
       </c>
       <c r="C34">
-        <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A34)+Tabelle1!$C$25,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A34+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A34&gt;=Tabelle1!$D$21,0,IF($A34&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A34)+Tabelle1!$D$25,IF($A34&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A34+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>14.352304978014395</v>
       </c>
       <c r="D34">
-        <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A34)+Tabelle1!$C$26,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A34+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A34&gt;=Tabelle1!$D$21,0,IF($A34&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A34)+Tabelle1!$D$26,IF($A34&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A34+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>16.714657199313994</v>
       </c>
       <c r="E34">
-        <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A34)+Tabelle1!$C$27,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A34+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A34&gt;=Tabelle1!$D$21,0,IF($A34&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A34)+Tabelle1!$D$27,IF($A34&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A34+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>19.751967198127762</v>
       </c>
       <c r="F34">
-        <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A34)+Tabelle1!$C$28,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A34+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>0</v>
+        <f>IF(A34&gt;=Tabelle1!$D$21,0,IF($A34&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A34)+Tabelle1!$D$28,IF($A34&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A34+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>12.552417571309942</v>
       </c>
       <c r="G34">
-        <f>IF(A34&gt;=Tabelle1!$C$21,0,IF($A34&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A34)+Tabelle1!$C$29,IF($A34&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A34+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A34&gt;=Tabelle1!$D$21,0,IF($A34&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A34)+Tabelle1!$D$29,IF($A34&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A34+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>18.51454460601845</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12448,28 +12274,28 @@
         <v>3.2</v>
       </c>
       <c r="B35">
-        <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A35)+Tabelle1!$C$24,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A35+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>0</v>
+        <f>IF(A35&gt;=Tabelle1!$D$21,0,IF($A35&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A35)+Tabelle1!$D$24,IF($A35&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A35+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>5.4276213129110769</v>
       </c>
       <c r="C35">
-        <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A35)+Tabelle1!$C$25,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A35+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A35&gt;=Tabelle1!$D$21,0,IF($A35&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A35)+Tabelle1!$D$25,IF($A35&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A35+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>7.8523049780143896</v>
       </c>
       <c r="D35">
-        <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A35)+Tabelle1!$C$26,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A35+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A35&gt;=Tabelle1!$D$21,0,IF($A35&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A35)+Tabelle1!$D$26,IF($A35&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A35+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>9.064646810566046</v>
       </c>
       <c r="E35">
-        <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A35)+Tabelle1!$C$27,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A35+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A35&gt;=Tabelle1!$D$21,0,IF($A35&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A35)+Tabelle1!$D$27,IF($A35&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A35+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>10.623372023846748</v>
       </c>
       <c r="F35">
-        <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A35)+Tabelle1!$C$28,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A35+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>0</v>
+        <f>IF(A35&gt;=Tabelle1!$D$21,0,IF($A35&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A35)+Tabelle1!$D$28,IF($A35&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A35+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>6.928615962736937</v>
       </c>
       <c r="G35">
-        <f>IF(A35&gt;=Tabelle1!$C$21,0,IF($A35&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A35)+Tabelle1!$C$29,IF($A35&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A35+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A35&gt;=Tabelle1!$D$21,0,IF($A35&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A35)+Tabelle1!$D$29,IF($A35&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A35+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>9.9883358258434995</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12477,28 +12303,28 @@
         <v>3.3</v>
       </c>
       <c r="B36">
-        <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A36)+Tabelle1!$C$24,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A36+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
-        <v>0</v>
+        <f>IF(A36&gt;=Tabelle1!$D$21,0,IF($A36&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A36)+Tabelle1!$D$24,IF($A36&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A36+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
+        <v>1.22764209040697</v>
       </c>
       <c r="C36">
-        <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A36)+Tabelle1!$C$25,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A36+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
-        <v>0</v>
+        <f>IF(A36&gt;=Tabelle1!$D$21,0,IF($A36&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A36)+Tabelle1!$D$25,IF($A36&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A36+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
+        <v>1.3523049780144127</v>
       </c>
       <c r="D36">
-        <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A36)+Tabelle1!$C$26,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A36+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
-        <v>0</v>
+        <f>IF(A36&gt;=Tabelle1!$D$21,0,IF($A36&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A36)+Tabelle1!$D$26,IF($A36&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A36+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
+        <v>1.4146364218181342</v>
       </c>
       <c r="E36">
-        <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A36)+Tabelle1!$C$27,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A36+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
-        <v>0</v>
+        <f>IF(A36&gt;=Tabelle1!$D$21,0,IF($A36&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A36)+Tabelle1!$D$27,IF($A36&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A36+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
+        <v>1.4947768495657761</v>
       </c>
       <c r="F36">
-        <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A36)+Tabelle1!$C$28,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A36+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
-        <v>0</v>
+        <f>IF(A36&gt;=Tabelle1!$D$21,0,IF($A36&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A36)+Tabelle1!$D$28,IF($A36&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A36+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
+        <v>1.3048143541639583</v>
       </c>
       <c r="G36">
-        <f>IF(A36&gt;=Tabelle1!$C$21,0,IF($A36&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A36)+Tabelle1!$C$29,IF($A36&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A36+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
-        <v>0</v>
+        <f>IF(A36&gt;=Tabelle1!$D$21,0,IF($A36&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A36)+Tabelle1!$D$29,IF($A36&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A36+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
+        <v>1.4621270456685886</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12506,27 +12332,27 @@
         <v>3.4</v>
       </c>
       <c r="B37">
-        <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A37)+Tabelle1!$C$24,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A37+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A37&gt;=Tabelle1!$D$21,0,IF($A37&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A37)+Tabelle1!$D$24,IF($A37&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A37+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C37">
-        <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A37)+Tabelle1!$C$25,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A37+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A37&gt;=Tabelle1!$D$21,0,IF($A37&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A37)+Tabelle1!$D$25,IF($A37&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A37+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A37)+Tabelle1!$C$26,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A37+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A37&gt;=Tabelle1!$D$21,0,IF($A37&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A37)+Tabelle1!$D$26,IF($A37&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A37+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A37)+Tabelle1!$C$27,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A37+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A37&gt;=Tabelle1!$D$21,0,IF($A37&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A37)+Tabelle1!$D$27,IF($A37&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A37+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A37)+Tabelle1!$C$28,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A37+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A37&gt;=Tabelle1!$D$21,0,IF($A37&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A37)+Tabelle1!$D$28,IF($A37&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A37+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>IF(A37&gt;=Tabelle1!$C$21,0,IF($A37&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A37)+Tabelle1!$C$29,IF($A37&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A37+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A37&gt;=Tabelle1!$D$21,0,IF($A37&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A37)+Tabelle1!$D$29,IF($A37&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A37+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12535,27 +12361,27 @@
         <v>3.5</v>
       </c>
       <c r="B38">
-        <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A38)+Tabelle1!$C$24,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A38+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A38&gt;=Tabelle1!$D$21,0,IF($A38&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A38)+Tabelle1!$D$24,IF($A38&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A38+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C38">
-        <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A38)+Tabelle1!$C$25,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A38+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A38&gt;=Tabelle1!$D$21,0,IF($A38&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A38)+Tabelle1!$D$25,IF($A38&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A38+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D38">
-        <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A38)+Tabelle1!$C$26,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A38+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A38&gt;=Tabelle1!$D$21,0,IF($A38&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A38)+Tabelle1!$D$26,IF($A38&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A38+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A38)+Tabelle1!$C$27,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A38+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A38&gt;=Tabelle1!$D$21,0,IF($A38&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A38)+Tabelle1!$D$27,IF($A38&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A38+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A38)+Tabelle1!$C$28,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A38+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A38&gt;=Tabelle1!$D$21,0,IF($A38&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A38)+Tabelle1!$D$28,IF($A38&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A38+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>IF(A38&gt;=Tabelle1!$C$21,0,IF($A38&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A38)+Tabelle1!$C$29,IF($A38&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A38+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A38&gt;=Tabelle1!$D$21,0,IF($A38&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A38)+Tabelle1!$D$29,IF($A38&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A38+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12564,27 +12390,27 @@
         <v>3.6</v>
       </c>
       <c r="B39">
-        <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A39)+Tabelle1!$C$24,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A39+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A39&gt;=Tabelle1!$D$21,0,IF($A39&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A39)+Tabelle1!$D$24,IF($A39&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A39+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C39">
-        <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A39)+Tabelle1!$C$25,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A39+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A39&gt;=Tabelle1!$D$21,0,IF($A39&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A39)+Tabelle1!$D$25,IF($A39&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A39+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D39">
-        <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A39)+Tabelle1!$C$26,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A39+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A39&gt;=Tabelle1!$D$21,0,IF($A39&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A39)+Tabelle1!$D$26,IF($A39&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A39+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A39)+Tabelle1!$C$27,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A39+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A39&gt;=Tabelle1!$D$21,0,IF($A39&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A39)+Tabelle1!$D$27,IF($A39&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A39+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A39)+Tabelle1!$C$28,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A39+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A39&gt;=Tabelle1!$D$21,0,IF($A39&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A39)+Tabelle1!$D$28,IF($A39&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A39+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>IF(A39&gt;=Tabelle1!$C$21,0,IF($A39&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A39)+Tabelle1!$C$29,IF($A39&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A39+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A39&gt;=Tabelle1!$D$21,0,IF($A39&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A39)+Tabelle1!$D$29,IF($A39&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A39+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12593,27 +12419,27 @@
         <v>3.7</v>
       </c>
       <c r="B40">
-        <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A40)+Tabelle1!$C$24,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A40+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A40&gt;=Tabelle1!$D$21,0,IF($A40&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A40)+Tabelle1!$D$24,IF($A40&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A40+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C40">
-        <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A40)+Tabelle1!$C$25,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A40+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A40&gt;=Tabelle1!$D$21,0,IF($A40&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A40)+Tabelle1!$D$25,IF($A40&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A40+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D40">
-        <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A40)+Tabelle1!$C$26,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A40+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A40&gt;=Tabelle1!$D$21,0,IF($A40&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A40)+Tabelle1!$D$26,IF($A40&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A40+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A40)+Tabelle1!$C$27,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A40+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A40&gt;=Tabelle1!$D$21,0,IF($A40&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A40)+Tabelle1!$D$27,IF($A40&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A40+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A40)+Tabelle1!$C$28,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A40+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A40&gt;=Tabelle1!$D$21,0,IF($A40&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A40)+Tabelle1!$D$28,IF($A40&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A40+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>IF(A40&gt;=Tabelle1!$C$21,0,IF($A40&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A40)+Tabelle1!$C$29,IF($A40&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A40+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A40&gt;=Tabelle1!$D$21,0,IF($A40&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A40)+Tabelle1!$D$29,IF($A40&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A40+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12622,27 +12448,27 @@
         <v>3.8</v>
       </c>
       <c r="B41">
-        <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A41)+Tabelle1!$C$24,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A41+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A41&gt;=Tabelle1!$D$21,0,IF($A41&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A41)+Tabelle1!$D$24,IF($A41&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A41+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C41">
-        <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A41)+Tabelle1!$C$25,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A41+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A41&gt;=Tabelle1!$D$21,0,IF($A41&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A41)+Tabelle1!$D$25,IF($A41&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A41+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D41">
-        <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A41)+Tabelle1!$C$26,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A41+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A41&gt;=Tabelle1!$D$21,0,IF($A41&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A41)+Tabelle1!$D$26,IF($A41&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A41+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A41)+Tabelle1!$C$27,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A41+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A41&gt;=Tabelle1!$D$21,0,IF($A41&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A41)+Tabelle1!$D$27,IF($A41&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A41+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A41)+Tabelle1!$C$28,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A41+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A41&gt;=Tabelle1!$D$21,0,IF($A41&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A41)+Tabelle1!$D$28,IF($A41&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A41+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>IF(A41&gt;=Tabelle1!$C$21,0,IF($A41&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A41)+Tabelle1!$C$29,IF($A41&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A41+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A41&gt;=Tabelle1!$D$21,0,IF($A41&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A41)+Tabelle1!$D$29,IF($A41&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A41+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12651,27 +12477,27 @@
         <v>3.9</v>
       </c>
       <c r="B42">
-        <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A42)+Tabelle1!$C$24,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A42+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A42&gt;=Tabelle1!$D$21,0,IF($A42&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A42)+Tabelle1!$D$24,IF($A42&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A42+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C42">
-        <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A42)+Tabelle1!$C$25,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A42+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A42&gt;=Tabelle1!$D$21,0,IF($A42&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A42)+Tabelle1!$D$25,IF($A42&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A42+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D42">
-        <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A42)+Tabelle1!$C$26,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A42+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A42&gt;=Tabelle1!$D$21,0,IF($A42&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A42)+Tabelle1!$D$26,IF($A42&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A42+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A42)+Tabelle1!$C$27,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A42+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A42&gt;=Tabelle1!$D$21,0,IF($A42&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A42)+Tabelle1!$D$27,IF($A42&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A42+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A42)+Tabelle1!$C$28,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A42+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A42&gt;=Tabelle1!$D$21,0,IF($A42&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A42)+Tabelle1!$D$28,IF($A42&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A42+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>IF(A42&gt;=Tabelle1!$C$21,0,IF($A42&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A42)+Tabelle1!$C$29,IF($A42&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A42+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A42&gt;=Tabelle1!$D$21,0,IF($A42&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A42)+Tabelle1!$D$29,IF($A42&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A42+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12680,27 +12506,27 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A43)+Tabelle1!$C$24,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A43+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A43&gt;=Tabelle1!$D$21,0,IF($A43&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A43)+Tabelle1!$D$24,IF($A43&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A43+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C43">
-        <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A43)+Tabelle1!$C$25,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A43+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A43&gt;=Tabelle1!$D$21,0,IF($A43&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A43)+Tabelle1!$D$25,IF($A43&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A43+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D43">
-        <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A43)+Tabelle1!$C$26,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A43+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A43&gt;=Tabelle1!$D$21,0,IF($A43&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A43)+Tabelle1!$D$26,IF($A43&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A43+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A43)+Tabelle1!$C$27,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A43+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A43&gt;=Tabelle1!$D$21,0,IF($A43&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A43)+Tabelle1!$D$27,IF($A43&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A43+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A43)+Tabelle1!$C$28,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A43+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A43&gt;=Tabelle1!$D$21,0,IF($A43&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A43)+Tabelle1!$D$28,IF($A43&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A43+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>IF(A43&gt;=Tabelle1!$C$21,0,IF($A43&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A43)+Tabelle1!$C$29,IF($A43&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A43+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A43&gt;=Tabelle1!$D$21,0,IF($A43&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A43)+Tabelle1!$D$29,IF($A43&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A43+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12709,27 +12535,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B44">
-        <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A44)+Tabelle1!$C$24,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A44+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A44&gt;=Tabelle1!$D$21,0,IF($A44&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A44)+Tabelle1!$D$24,IF($A44&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A44+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C44">
-        <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A44)+Tabelle1!$C$25,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A44+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A44&gt;=Tabelle1!$D$21,0,IF($A44&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A44)+Tabelle1!$D$25,IF($A44&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A44+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D44">
-        <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A44)+Tabelle1!$C$26,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A44+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A44&gt;=Tabelle1!$D$21,0,IF($A44&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A44)+Tabelle1!$D$26,IF($A44&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A44+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A44)+Tabelle1!$C$27,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A44+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A44&gt;=Tabelle1!$D$21,0,IF($A44&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A44)+Tabelle1!$D$27,IF($A44&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A44+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A44)+Tabelle1!$C$28,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A44+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A44&gt;=Tabelle1!$D$21,0,IF($A44&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A44)+Tabelle1!$D$28,IF($A44&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A44+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>IF(A44&gt;=Tabelle1!$C$21,0,IF($A44&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A44)+Tabelle1!$C$29,IF($A44&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A44+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A44&gt;=Tabelle1!$D$21,0,IF($A44&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A44)+Tabelle1!$D$29,IF($A44&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A44+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12738,27 +12564,27 @@
         <v>4.2</v>
       </c>
       <c r="B45">
-        <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A45)+Tabelle1!$C$24,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A45+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A45&gt;=Tabelle1!$D$21,0,IF($A45&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A45)+Tabelle1!$D$24,IF($A45&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A45+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C45">
-        <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A45)+Tabelle1!$C$25,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A45+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A45&gt;=Tabelle1!$D$21,0,IF($A45&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A45)+Tabelle1!$D$25,IF($A45&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A45+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A45)+Tabelle1!$C$26,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A45+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A45&gt;=Tabelle1!$D$21,0,IF($A45&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A45)+Tabelle1!$D$26,IF($A45&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A45+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A45)+Tabelle1!$C$27,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A45+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A45&gt;=Tabelle1!$D$21,0,IF($A45&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A45)+Tabelle1!$D$27,IF($A45&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A45+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A45)+Tabelle1!$C$28,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A45+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A45&gt;=Tabelle1!$D$21,0,IF($A45&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A45)+Tabelle1!$D$28,IF($A45&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A45+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>IF(A45&gt;=Tabelle1!$C$21,0,IF($A45&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A45)+Tabelle1!$C$29,IF($A45&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A45+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A45&gt;=Tabelle1!$D$21,0,IF($A45&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A45)+Tabelle1!$D$29,IF($A45&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A45+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12767,27 +12593,27 @@
         <v>4.3</v>
       </c>
       <c r="B46">
-        <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A46)+Tabelle1!$C$24,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A46+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A46&gt;=Tabelle1!$D$21,0,IF($A46&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A46)+Tabelle1!$D$24,IF($A46&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A46+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C46">
-        <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A46)+Tabelle1!$C$25,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A46+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A46&gt;=Tabelle1!$D$21,0,IF($A46&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A46)+Tabelle1!$D$25,IF($A46&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A46+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D46">
-        <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A46)+Tabelle1!$C$26,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A46+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A46&gt;=Tabelle1!$D$21,0,IF($A46&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A46)+Tabelle1!$D$26,IF($A46&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A46+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A46)+Tabelle1!$C$27,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A46+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A46&gt;=Tabelle1!$D$21,0,IF($A46&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A46)+Tabelle1!$D$27,IF($A46&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A46+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A46)+Tabelle1!$C$28,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A46+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A46&gt;=Tabelle1!$D$21,0,IF($A46&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A46)+Tabelle1!$D$28,IF($A46&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A46+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>IF(A46&gt;=Tabelle1!$C$21,0,IF($A46&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A46)+Tabelle1!$C$29,IF($A46&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A46+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A46&gt;=Tabelle1!$D$21,0,IF($A46&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A46)+Tabelle1!$D$29,IF($A46&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A46+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12796,27 +12622,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B47">
-        <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A47)+Tabelle1!$C$24,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A47+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A47&gt;=Tabelle1!$D$21,0,IF($A47&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A47)+Tabelle1!$D$24,IF($A47&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A47+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C47">
-        <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A47)+Tabelle1!$C$25,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A47+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A47&gt;=Tabelle1!$D$21,0,IF($A47&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A47)+Tabelle1!$D$25,IF($A47&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A47+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D47">
-        <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A47)+Tabelle1!$C$26,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A47+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A47&gt;=Tabelle1!$D$21,0,IF($A47&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A47)+Tabelle1!$D$26,IF($A47&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A47+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A47)+Tabelle1!$C$27,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A47+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A47&gt;=Tabelle1!$D$21,0,IF($A47&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A47)+Tabelle1!$D$27,IF($A47&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A47+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A47)+Tabelle1!$C$28,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A47+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A47&gt;=Tabelle1!$D$21,0,IF($A47&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A47)+Tabelle1!$D$28,IF($A47&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A47+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>IF(A47&gt;=Tabelle1!$C$21,0,IF($A47&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A47)+Tabelle1!$C$29,IF($A47&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A47+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A47&gt;=Tabelle1!$D$21,0,IF($A47&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A47)+Tabelle1!$D$29,IF($A47&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A47+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12825,27 +12651,27 @@
         <v>4.5</v>
       </c>
       <c r="B48">
-        <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A48)+Tabelle1!$C$24,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A48+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A48&gt;=Tabelle1!$D$21,0,IF($A48&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A48)+Tabelle1!$D$24,IF($A48&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A48+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C48">
-        <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A48)+Tabelle1!$C$25,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A48+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A48&gt;=Tabelle1!$D$21,0,IF($A48&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A48)+Tabelle1!$D$25,IF($A48&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A48+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D48">
-        <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A48)+Tabelle1!$C$26,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A48+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A48&gt;=Tabelle1!$D$21,0,IF($A48&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A48)+Tabelle1!$D$26,IF($A48&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A48+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A48)+Tabelle1!$C$27,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A48+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A48&gt;=Tabelle1!$D$21,0,IF($A48&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A48)+Tabelle1!$D$27,IF($A48&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A48+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A48)+Tabelle1!$C$28,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A48+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A48&gt;=Tabelle1!$D$21,0,IF($A48&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A48)+Tabelle1!$D$28,IF($A48&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A48+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>IF(A48&gt;=Tabelle1!$C$21,0,IF($A48&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A48)+Tabelle1!$C$29,IF($A48&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A48+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A48&gt;=Tabelle1!$D$21,0,IF($A48&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A48)+Tabelle1!$D$29,IF($A48&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A48+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12854,27 +12680,27 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B49">
-        <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A49)+Tabelle1!$C$24,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A49+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A49&gt;=Tabelle1!$D$21,0,IF($A49&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A49)+Tabelle1!$D$24,IF($A49&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A49+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C49">
-        <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A49)+Tabelle1!$C$25,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A49+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A49&gt;=Tabelle1!$D$21,0,IF($A49&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A49)+Tabelle1!$D$25,IF($A49&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A49+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D49">
-        <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A49)+Tabelle1!$C$26,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A49+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A49&gt;=Tabelle1!$D$21,0,IF($A49&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A49)+Tabelle1!$D$26,IF($A49&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A49+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A49)+Tabelle1!$C$27,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A49+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A49&gt;=Tabelle1!$D$21,0,IF($A49&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A49)+Tabelle1!$D$27,IF($A49&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A49+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A49)+Tabelle1!$C$28,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A49+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A49&gt;=Tabelle1!$D$21,0,IF($A49&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A49)+Tabelle1!$D$28,IF($A49&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A49+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>IF(A49&gt;=Tabelle1!$C$21,0,IF($A49&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A49)+Tabelle1!$C$29,IF($A49&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A49+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A49&gt;=Tabelle1!$D$21,0,IF($A49&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A49)+Tabelle1!$D$29,IF($A49&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A49+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12883,27 +12709,27 @@
         <v>4.7</v>
       </c>
       <c r="B50">
-        <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A50)+Tabelle1!$C$24,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A50+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A50&gt;=Tabelle1!$D$21,0,IF($A50&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A50)+Tabelle1!$D$24,IF($A50&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A50+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C50">
-        <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A50)+Tabelle1!$C$25,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A50+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A50&gt;=Tabelle1!$D$21,0,IF($A50&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A50)+Tabelle1!$D$25,IF($A50&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A50+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D50">
-        <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A50)+Tabelle1!$C$26,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A50+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A50&gt;=Tabelle1!$D$21,0,IF($A50&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A50)+Tabelle1!$D$26,IF($A50&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A50+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A50)+Tabelle1!$C$27,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A50+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A50&gt;=Tabelle1!$D$21,0,IF($A50&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A50)+Tabelle1!$D$27,IF($A50&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A50+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A50)+Tabelle1!$C$28,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A50+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A50&gt;=Tabelle1!$D$21,0,IF($A50&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A50)+Tabelle1!$D$28,IF($A50&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A50+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>IF(A50&gt;=Tabelle1!$C$21,0,IF($A50&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A50)+Tabelle1!$C$29,IF($A50&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A50+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A50&gt;=Tabelle1!$D$21,0,IF($A50&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A50)+Tabelle1!$D$29,IF($A50&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A50+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12912,27 +12738,27 @@
         <v>4.8</v>
       </c>
       <c r="B51">
-        <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A51)+Tabelle1!$C$24,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A51+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A51&gt;=Tabelle1!$D$21,0,IF($A51&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A51)+Tabelle1!$D$24,IF($A51&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A51+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A51)+Tabelle1!$C$25,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A51+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A51&gt;=Tabelle1!$D$21,0,IF($A51&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A51)+Tabelle1!$D$25,IF($A51&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A51+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D51">
-        <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A51)+Tabelle1!$C$26,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A51+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A51&gt;=Tabelle1!$D$21,0,IF($A51&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A51)+Tabelle1!$D$26,IF($A51&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A51+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A51)+Tabelle1!$C$27,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A51+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A51&gt;=Tabelle1!$D$21,0,IF($A51&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A51)+Tabelle1!$D$27,IF($A51&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A51+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F51">
-        <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A51)+Tabelle1!$C$28,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A51+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A51&gt;=Tabelle1!$D$21,0,IF($A51&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A51)+Tabelle1!$D$28,IF($A51&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A51+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G51">
-        <f>IF(A51&gt;=Tabelle1!$C$21,0,IF($A51&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A51)+Tabelle1!$C$29,IF($A51&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A51+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A51&gt;=Tabelle1!$D$21,0,IF($A51&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A51)+Tabelle1!$D$29,IF($A51&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A51+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12941,27 +12767,27 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B52">
-        <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A52)+Tabelle1!$C$24,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A52+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A52&gt;=Tabelle1!$D$21,0,IF($A52&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A52)+Tabelle1!$D$24,IF($A52&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A52+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C52">
-        <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A52)+Tabelle1!$C$25,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A52+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A52&gt;=Tabelle1!$D$21,0,IF($A52&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A52)+Tabelle1!$D$25,IF($A52&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A52+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D52">
-        <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A52)+Tabelle1!$C$26,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A52+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A52&gt;=Tabelle1!$D$21,0,IF($A52&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A52)+Tabelle1!$D$26,IF($A52&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A52+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A52)+Tabelle1!$C$27,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A52+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A52&gt;=Tabelle1!$D$21,0,IF($A52&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A52)+Tabelle1!$D$27,IF($A52&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A52+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F52">
-        <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A52)+Tabelle1!$C$28,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A52+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A52&gt;=Tabelle1!$D$21,0,IF($A52&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A52)+Tabelle1!$D$28,IF($A52&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A52+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>IF(A52&gt;=Tabelle1!$C$21,0,IF($A52&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A52)+Tabelle1!$C$29,IF($A52&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A52+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A52&gt;=Tabelle1!$D$21,0,IF($A52&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A52)+Tabelle1!$D$29,IF($A52&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A52+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12970,27 +12796,27 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A53)+Tabelle1!$C$24,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A53+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A53&gt;=Tabelle1!$D$21,0,IF($A53&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A53)+Tabelle1!$D$24,IF($A53&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A53+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C53">
-        <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A53)+Tabelle1!$C$25,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A53+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A53&gt;=Tabelle1!$D$21,0,IF($A53&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A53)+Tabelle1!$D$25,IF($A53&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A53+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D53">
-        <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A53)+Tabelle1!$C$26,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A53+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A53&gt;=Tabelle1!$D$21,0,IF($A53&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A53)+Tabelle1!$D$26,IF($A53&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A53+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A53)+Tabelle1!$C$27,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A53+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A53&gt;=Tabelle1!$D$21,0,IF($A53&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A53)+Tabelle1!$D$27,IF($A53&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A53+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F53">
-        <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A53)+Tabelle1!$C$28,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A53+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A53&gt;=Tabelle1!$D$21,0,IF($A53&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A53)+Tabelle1!$D$28,IF($A53&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A53+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G53">
-        <f>IF(A53&gt;=Tabelle1!$C$21,0,IF($A53&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A53)+Tabelle1!$C$29,IF($A53&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A53+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A53&gt;=Tabelle1!$D$21,0,IF($A53&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A53)+Tabelle1!$D$29,IF($A53&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A53+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12999,27 +12825,27 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B54">
-        <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A54)+Tabelle1!$C$24,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A54+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A54&gt;=Tabelle1!$D$21,0,IF($A54&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A54)+Tabelle1!$D$24,IF($A54&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A54+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C54">
-        <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A54)+Tabelle1!$C$25,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A54+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A54&gt;=Tabelle1!$D$21,0,IF($A54&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A54)+Tabelle1!$D$25,IF($A54&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A54+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D54">
-        <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A54)+Tabelle1!$C$26,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A54+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A54&gt;=Tabelle1!$D$21,0,IF($A54&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A54)+Tabelle1!$D$26,IF($A54&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A54+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E54">
-        <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A54)+Tabelle1!$C$27,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A54+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A54&gt;=Tabelle1!$D$21,0,IF($A54&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A54)+Tabelle1!$D$27,IF($A54&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A54+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F54">
-        <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A54)+Tabelle1!$C$28,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A54+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A54&gt;=Tabelle1!$D$21,0,IF($A54&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A54)+Tabelle1!$D$28,IF($A54&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A54+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G54">
-        <f>IF(A54&gt;=Tabelle1!$C$21,0,IF($A54&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A54)+Tabelle1!$C$29,IF($A54&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A54+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A54&gt;=Tabelle1!$D$21,0,IF($A54&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A54)+Tabelle1!$D$29,IF($A54&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A54+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13028,27 +12854,27 @@
         <v>5.2</v>
       </c>
       <c r="B55">
-        <f>IF(A55&gt;=Tabelle1!$C$21,0,IF($A55&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A55)+Tabelle1!$C$24,IF($A55&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A55+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A55&gt;=Tabelle1!$D$21,0,IF($A55&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A55)+Tabelle1!$D$24,IF($A55&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A55+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C55">
-        <f>IF(A55&gt;=Tabelle1!$C$21,0,IF($A55&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A55)+Tabelle1!$C$25,IF($A55&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A55+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A55&gt;=Tabelle1!$D$21,0,IF($A55&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A55)+Tabelle1!$D$25,IF($A55&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A55+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D55">
-        <f>IF(A55&gt;=Tabelle1!$C$21,0,IF($A55&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A55)+Tabelle1!$C$26,IF($A55&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A55+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A55&gt;=Tabelle1!$D$21,0,IF($A55&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A55)+Tabelle1!$D$26,IF($A55&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A55+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E55">
-        <f>IF(A55&gt;=Tabelle1!$C$21,0,IF($A55&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A55)+Tabelle1!$C$27,IF($A55&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A55+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A55&gt;=Tabelle1!$D$21,0,IF($A55&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A55)+Tabelle1!$D$27,IF($A55&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A55+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>IF(A55&gt;=Tabelle1!$C$21,0,IF($A55&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A55)+Tabelle1!$C$28,IF($A55&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A55+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A55&gt;=Tabelle1!$D$21,0,IF($A55&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A55)+Tabelle1!$D$28,IF($A55&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A55+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G55">
-        <f>IF(A55&gt;=Tabelle1!$C$21,0,IF($A55&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A55)+Tabelle1!$C$29,IF($A55&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A55+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A55&gt;=Tabelle1!$D$21,0,IF($A55&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A55)+Tabelle1!$D$29,IF($A55&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A55+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13057,27 +12883,27 @@
         <v>5.3</v>
       </c>
       <c r="B56">
-        <f>IF(A56&gt;=Tabelle1!$C$21,0,IF($A56&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A56)+Tabelle1!$C$24,IF($A56&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A56+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A56&gt;=Tabelle1!$D$21,0,IF($A56&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A56)+Tabelle1!$D$24,IF($A56&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A56+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C56">
-        <f>IF(A56&gt;=Tabelle1!$C$21,0,IF($A56&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A56)+Tabelle1!$C$25,IF($A56&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A56+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A56&gt;=Tabelle1!$D$21,0,IF($A56&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A56)+Tabelle1!$D$25,IF($A56&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A56+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D56">
-        <f>IF(A56&gt;=Tabelle1!$C$21,0,IF($A56&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A56)+Tabelle1!$C$26,IF($A56&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A56+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A56&gt;=Tabelle1!$D$21,0,IF($A56&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A56)+Tabelle1!$D$26,IF($A56&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A56+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>IF(A56&gt;=Tabelle1!$C$21,0,IF($A56&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A56)+Tabelle1!$C$27,IF($A56&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A56+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A56&gt;=Tabelle1!$D$21,0,IF($A56&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A56)+Tabelle1!$D$27,IF($A56&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A56+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F56">
-        <f>IF(A56&gt;=Tabelle1!$C$21,0,IF($A56&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A56)+Tabelle1!$C$28,IF($A56&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A56+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A56&gt;=Tabelle1!$D$21,0,IF($A56&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A56)+Tabelle1!$D$28,IF($A56&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A56+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G56">
-        <f>IF(A56&gt;=Tabelle1!$C$21,0,IF($A56&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A56)+Tabelle1!$C$29,IF($A56&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A56+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A56&gt;=Tabelle1!$D$21,0,IF($A56&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A56)+Tabelle1!$D$29,IF($A56&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A56+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13086,27 +12912,27 @@
         <v>5.4</v>
       </c>
       <c r="B57">
-        <f>IF(A57&gt;=Tabelle1!$C$21,0,IF($A57&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A57)+Tabelle1!$C$24,IF($A57&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A57+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A57&gt;=Tabelle1!$D$21,0,IF($A57&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A57)+Tabelle1!$D$24,IF($A57&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A57+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f>IF(A57&gt;=Tabelle1!$C$21,0,IF($A57&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A57)+Tabelle1!$C$25,IF($A57&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A57+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A57&gt;=Tabelle1!$D$21,0,IF($A57&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A57)+Tabelle1!$D$25,IF($A57&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A57+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f>IF(A57&gt;=Tabelle1!$C$21,0,IF($A57&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A57)+Tabelle1!$C$26,IF($A57&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A57+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A57&gt;=Tabelle1!$D$21,0,IF($A57&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A57)+Tabelle1!$D$26,IF($A57&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A57+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>IF(A57&gt;=Tabelle1!$C$21,0,IF($A57&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A57)+Tabelle1!$C$27,IF($A57&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A57+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A57&gt;=Tabelle1!$D$21,0,IF($A57&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A57)+Tabelle1!$D$27,IF($A57&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A57+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F57">
-        <f>IF(A57&gt;=Tabelle1!$C$21,0,IF($A57&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A57)+Tabelle1!$C$28,IF($A57&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A57+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A57&gt;=Tabelle1!$D$21,0,IF($A57&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A57)+Tabelle1!$D$28,IF($A57&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A57+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G57">
-        <f>IF(A57&gt;=Tabelle1!$C$21,0,IF($A57&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A57)+Tabelle1!$C$29,IF($A57&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A57+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A57&gt;=Tabelle1!$D$21,0,IF($A57&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A57)+Tabelle1!$D$29,IF($A57&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A57+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13115,27 +12941,27 @@
         <v>5.5</v>
       </c>
       <c r="B58">
-        <f>IF(A58&gt;=Tabelle1!$C$21,0,IF($A58&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A58)+Tabelle1!$C$24,IF($A58&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A58+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A58&gt;=Tabelle1!$D$21,0,IF($A58&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A58)+Tabelle1!$D$24,IF($A58&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A58+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C58">
-        <f>IF(A58&gt;=Tabelle1!$C$21,0,IF($A58&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A58)+Tabelle1!$C$25,IF($A58&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A58+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A58&gt;=Tabelle1!$D$21,0,IF($A58&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A58)+Tabelle1!$D$25,IF($A58&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A58+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D58">
-        <f>IF(A58&gt;=Tabelle1!$C$21,0,IF($A58&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A58)+Tabelle1!$C$26,IF($A58&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A58+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A58&gt;=Tabelle1!$D$21,0,IF($A58&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A58)+Tabelle1!$D$26,IF($A58&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A58+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>IF(A58&gt;=Tabelle1!$C$21,0,IF($A58&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A58)+Tabelle1!$C$27,IF($A58&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A58+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A58&gt;=Tabelle1!$D$21,0,IF($A58&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A58)+Tabelle1!$D$27,IF($A58&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A58+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F58">
-        <f>IF(A58&gt;=Tabelle1!$C$21,0,IF($A58&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A58)+Tabelle1!$C$28,IF($A58&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A58+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A58&gt;=Tabelle1!$D$21,0,IF($A58&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A58)+Tabelle1!$D$28,IF($A58&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A58+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G58">
-        <f>IF(A58&gt;=Tabelle1!$C$21,0,IF($A58&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A58)+Tabelle1!$C$29,IF($A58&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A58+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A58&gt;=Tabelle1!$D$21,0,IF($A58&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A58)+Tabelle1!$D$29,IF($A58&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A58+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13144,27 +12970,27 @@
         <v>5.6</v>
       </c>
       <c r="B59">
-        <f>IF(A59&gt;=Tabelle1!$C$21,0,IF($A59&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A59)+Tabelle1!$C$24,IF($A59&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A59+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A59&gt;=Tabelle1!$D$21,0,IF($A59&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A59)+Tabelle1!$D$24,IF($A59&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A59+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C59">
-        <f>IF(A59&gt;=Tabelle1!$C$21,0,IF($A59&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A59)+Tabelle1!$C$25,IF($A59&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A59+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A59&gt;=Tabelle1!$D$21,0,IF($A59&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A59)+Tabelle1!$D$25,IF($A59&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A59+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D59">
-        <f>IF(A59&gt;=Tabelle1!$C$21,0,IF($A59&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A59)+Tabelle1!$C$26,IF($A59&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A59+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A59&gt;=Tabelle1!$D$21,0,IF($A59&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A59)+Tabelle1!$D$26,IF($A59&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A59+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>IF(A59&gt;=Tabelle1!$C$21,0,IF($A59&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A59)+Tabelle1!$C$27,IF($A59&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A59+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A59&gt;=Tabelle1!$D$21,0,IF($A59&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A59)+Tabelle1!$D$27,IF($A59&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A59+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f>IF(A59&gt;=Tabelle1!$C$21,0,IF($A59&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A59)+Tabelle1!$C$28,IF($A59&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A59+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A59&gt;=Tabelle1!$D$21,0,IF($A59&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A59)+Tabelle1!$D$28,IF($A59&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A59+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G59">
-        <f>IF(A59&gt;=Tabelle1!$C$21,0,IF($A59&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A59)+Tabelle1!$C$29,IF($A59&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A59+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A59&gt;=Tabelle1!$D$21,0,IF($A59&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A59)+Tabelle1!$D$29,IF($A59&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A59+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13173,27 +12999,27 @@
         <v>5.7</v>
       </c>
       <c r="B60">
-        <f>IF(A60&gt;=Tabelle1!$C$21,0,IF($A60&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A60)+Tabelle1!$C$24,IF($A60&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A60+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A60&gt;=Tabelle1!$D$21,0,IF($A60&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A60)+Tabelle1!$D$24,IF($A60&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A60+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C60">
-        <f>IF(A60&gt;=Tabelle1!$C$21,0,IF($A60&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A60)+Tabelle1!$C$25,IF($A60&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A60+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A60&gt;=Tabelle1!$D$21,0,IF($A60&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A60)+Tabelle1!$D$25,IF($A60&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A60+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D60">
-        <f>IF(A60&gt;=Tabelle1!$C$21,0,IF($A60&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A60)+Tabelle1!$C$26,IF($A60&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A60+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A60&gt;=Tabelle1!$D$21,0,IF($A60&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A60)+Tabelle1!$D$26,IF($A60&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A60+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>IF(A60&gt;=Tabelle1!$C$21,0,IF($A60&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A60)+Tabelle1!$C$27,IF($A60&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A60+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A60&gt;=Tabelle1!$D$21,0,IF($A60&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A60)+Tabelle1!$D$27,IF($A60&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A60+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F60">
-        <f>IF(A60&gt;=Tabelle1!$C$21,0,IF($A60&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A60)+Tabelle1!$C$28,IF($A60&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A60+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A60&gt;=Tabelle1!$D$21,0,IF($A60&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A60)+Tabelle1!$D$28,IF($A60&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A60+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G60">
-        <f>IF(A60&gt;=Tabelle1!$C$21,0,IF($A60&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A60)+Tabelle1!$C$29,IF($A60&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A60+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A60&gt;=Tabelle1!$D$21,0,IF($A60&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A60)+Tabelle1!$D$29,IF($A60&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A60+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13202,27 +13028,27 @@
         <v>5.8</v>
       </c>
       <c r="B61">
-        <f>IF(A61&gt;=Tabelle1!$C$21,0,IF($A61&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A61)+Tabelle1!$C$24,IF($A61&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A61+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A61&gt;=Tabelle1!$D$21,0,IF($A61&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A61)+Tabelle1!$D$24,IF($A61&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A61+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C61">
-        <f>IF(A61&gt;=Tabelle1!$C$21,0,IF($A61&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A61)+Tabelle1!$C$25,IF($A61&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A61+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A61&gt;=Tabelle1!$D$21,0,IF($A61&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A61)+Tabelle1!$D$25,IF($A61&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A61+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D61">
-        <f>IF(A61&gt;=Tabelle1!$C$21,0,IF($A61&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A61)+Tabelle1!$C$26,IF($A61&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A61+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A61&gt;=Tabelle1!$D$21,0,IF($A61&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A61)+Tabelle1!$D$26,IF($A61&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A61+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>IF(A61&gt;=Tabelle1!$C$21,0,IF($A61&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A61)+Tabelle1!$C$27,IF($A61&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A61+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A61&gt;=Tabelle1!$D$21,0,IF($A61&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A61)+Tabelle1!$D$27,IF($A61&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A61+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>IF(A61&gt;=Tabelle1!$C$21,0,IF($A61&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A61)+Tabelle1!$C$28,IF($A61&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A61+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A61&gt;=Tabelle1!$D$21,0,IF($A61&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A61)+Tabelle1!$D$28,IF($A61&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A61+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G61">
-        <f>IF(A61&gt;=Tabelle1!$C$21,0,IF($A61&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A61)+Tabelle1!$C$29,IF($A61&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A61+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A61&gt;=Tabelle1!$D$21,0,IF($A61&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A61)+Tabelle1!$D$29,IF($A61&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A61+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13231,27 +13057,27 @@
         <v>5.9</v>
       </c>
       <c r="B62">
-        <f>IF(A62&gt;=Tabelle1!$C$21,0,IF($A62&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A62)+Tabelle1!$C$24,IF($A62&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A62+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A62&gt;=Tabelle1!$D$21,0,IF($A62&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A62)+Tabelle1!$D$24,IF($A62&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A62+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C62">
-        <f>IF(A62&gt;=Tabelle1!$C$21,0,IF($A62&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A62)+Tabelle1!$C$25,IF($A62&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A62+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A62&gt;=Tabelle1!$D$21,0,IF($A62&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A62)+Tabelle1!$D$25,IF($A62&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A62+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D62">
-        <f>IF(A62&gt;=Tabelle1!$C$21,0,IF($A62&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A62)+Tabelle1!$C$26,IF($A62&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A62+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A62&gt;=Tabelle1!$D$21,0,IF($A62&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A62)+Tabelle1!$D$26,IF($A62&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A62+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>IF(A62&gt;=Tabelle1!$C$21,0,IF($A62&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A62)+Tabelle1!$C$27,IF($A62&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A62+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A62&gt;=Tabelle1!$D$21,0,IF($A62&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A62)+Tabelle1!$D$27,IF($A62&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A62+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>IF(A62&gt;=Tabelle1!$C$21,0,IF($A62&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A62)+Tabelle1!$C$28,IF($A62&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A62+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A62&gt;=Tabelle1!$D$21,0,IF($A62&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A62)+Tabelle1!$D$28,IF($A62&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A62+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G62">
-        <f>IF(A62&gt;=Tabelle1!$C$21,0,IF($A62&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A62)+Tabelle1!$C$29,IF($A62&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A62+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A62&gt;=Tabelle1!$D$21,0,IF($A62&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A62)+Tabelle1!$D$29,IF($A62&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A62+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13260,27 +13086,27 @@
         <v>6</v>
       </c>
       <c r="B63">
-        <f>IF(A63&gt;=Tabelle1!$C$21,0,IF($A63&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A63)+Tabelle1!$C$24,IF($A63&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A63+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A63&gt;=Tabelle1!$D$21,0,IF($A63&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A63)+Tabelle1!$D$24,IF($A63&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A63+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C63">
-        <f>IF(A63&gt;=Tabelle1!$C$21,0,IF($A63&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A63)+Tabelle1!$C$25,IF($A63&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A63+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A63&gt;=Tabelle1!$D$21,0,IF($A63&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A63)+Tabelle1!$D$25,IF($A63&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A63+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D63">
-        <f>IF(A63&gt;=Tabelle1!$C$21,0,IF($A63&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A63)+Tabelle1!$C$26,IF($A63&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A63+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A63&gt;=Tabelle1!$D$21,0,IF($A63&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A63)+Tabelle1!$D$26,IF($A63&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A63+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E63">
-        <f>IF(A63&gt;=Tabelle1!$C$21,0,IF($A63&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A63)+Tabelle1!$C$27,IF($A63&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A63+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A63&gt;=Tabelle1!$D$21,0,IF($A63&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A63)+Tabelle1!$D$27,IF($A63&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A63+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>IF(A63&gt;=Tabelle1!$C$21,0,IF($A63&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A63)+Tabelle1!$C$28,IF($A63&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A63+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A63&gt;=Tabelle1!$D$21,0,IF($A63&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A63)+Tabelle1!$D$28,IF($A63&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A63+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G63">
-        <f>IF(A63&gt;=Tabelle1!$C$21,0,IF($A63&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A63)+Tabelle1!$C$29,IF($A63&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A63+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A63&gt;=Tabelle1!$D$21,0,IF($A63&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A63)+Tabelle1!$D$29,IF($A63&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A63+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13289,27 +13115,27 @@
         <v>6.1</v>
       </c>
       <c r="B64">
-        <f>IF(A64&gt;=Tabelle1!$C$21,0,IF($A64&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A64)+Tabelle1!$C$24,IF($A64&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A64+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A64&gt;=Tabelle1!$D$21,0,IF($A64&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A64)+Tabelle1!$D$24,IF($A64&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A64+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C64">
-        <f>IF(A64&gt;=Tabelle1!$C$21,0,IF($A64&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A64)+Tabelle1!$C$25,IF($A64&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A64+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A64&gt;=Tabelle1!$D$21,0,IF($A64&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A64)+Tabelle1!$D$25,IF($A64&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A64+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D64">
-        <f>IF(A64&gt;=Tabelle1!$C$21,0,IF($A64&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A64)+Tabelle1!$C$26,IF($A64&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A64+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A64&gt;=Tabelle1!$D$21,0,IF($A64&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A64)+Tabelle1!$D$26,IF($A64&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A64+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E64">
-        <f>IF(A64&gt;=Tabelle1!$C$21,0,IF($A64&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A64)+Tabelle1!$C$27,IF($A64&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A64+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A64&gt;=Tabelle1!$D$21,0,IF($A64&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A64)+Tabelle1!$D$27,IF($A64&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A64+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>IF(A64&gt;=Tabelle1!$C$21,0,IF($A64&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A64)+Tabelle1!$C$28,IF($A64&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A64+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A64&gt;=Tabelle1!$D$21,0,IF($A64&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A64)+Tabelle1!$D$28,IF($A64&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A64+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G64">
-        <f>IF(A64&gt;=Tabelle1!$C$21,0,IF($A64&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A64)+Tabelle1!$C$29,IF($A64&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A64+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A64&gt;=Tabelle1!$D$21,0,IF($A64&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A64)+Tabelle1!$D$29,IF($A64&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A64+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13318,27 +13144,27 @@
         <v>6.2</v>
       </c>
       <c r="B65">
-        <f>IF(A65&gt;=Tabelle1!$C$21,0,IF($A65&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A65)+Tabelle1!$C$24,IF($A65&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A65+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A65&gt;=Tabelle1!$D$21,0,IF($A65&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A65)+Tabelle1!$D$24,IF($A65&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A65+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C65">
-        <f>IF(A65&gt;=Tabelle1!$C$21,0,IF($A65&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A65)+Tabelle1!$C$25,IF($A65&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A65+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A65&gt;=Tabelle1!$D$21,0,IF($A65&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A65)+Tabelle1!$D$25,IF($A65&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A65+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D65">
-        <f>IF(A65&gt;=Tabelle1!$C$21,0,IF($A65&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A65)+Tabelle1!$C$26,IF($A65&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A65+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A65&gt;=Tabelle1!$D$21,0,IF($A65&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A65)+Tabelle1!$D$26,IF($A65&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A65+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E65">
-        <f>IF(A65&gt;=Tabelle1!$C$21,0,IF($A65&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A65)+Tabelle1!$C$27,IF($A65&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A65+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A65&gt;=Tabelle1!$D$21,0,IF($A65&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A65)+Tabelle1!$D$27,IF($A65&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A65+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>IF(A65&gt;=Tabelle1!$C$21,0,IF($A65&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A65)+Tabelle1!$C$28,IF($A65&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A65+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A65&gt;=Tabelle1!$D$21,0,IF($A65&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A65)+Tabelle1!$D$28,IF($A65&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A65+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G65">
-        <f>IF(A65&gt;=Tabelle1!$C$21,0,IF($A65&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A65)+Tabelle1!$C$29,IF($A65&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A65+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A65&gt;=Tabelle1!$D$21,0,IF($A65&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A65)+Tabelle1!$D$29,IF($A65&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A65+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13347,27 +13173,27 @@
         <v>6.3</v>
       </c>
       <c r="B66">
-        <f>IF(A66&gt;=Tabelle1!$C$21,0,IF($A66&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A66)+Tabelle1!$C$24,IF($A66&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A66+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A66&gt;=Tabelle1!$D$21,0,IF($A66&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A66)+Tabelle1!$D$24,IF($A66&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A66+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C66">
-        <f>IF(A66&gt;=Tabelle1!$C$21,0,IF($A66&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A66)+Tabelle1!$C$25,IF($A66&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A66+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A66&gt;=Tabelle1!$D$21,0,IF($A66&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A66)+Tabelle1!$D$25,IF($A66&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A66+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D66">
-        <f>IF(A66&gt;=Tabelle1!$C$21,0,IF($A66&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A66)+Tabelle1!$C$26,IF($A66&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A66+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A66&gt;=Tabelle1!$D$21,0,IF($A66&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A66)+Tabelle1!$D$26,IF($A66&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A66+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>IF(A66&gt;=Tabelle1!$C$21,0,IF($A66&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A66)+Tabelle1!$C$27,IF($A66&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A66+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A66&gt;=Tabelle1!$D$21,0,IF($A66&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A66)+Tabelle1!$D$27,IF($A66&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A66+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>IF(A66&gt;=Tabelle1!$C$21,0,IF($A66&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A66)+Tabelle1!$C$28,IF($A66&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A66+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A66&gt;=Tabelle1!$D$21,0,IF($A66&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A66)+Tabelle1!$D$28,IF($A66&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A66+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G66">
-        <f>IF(A66&gt;=Tabelle1!$C$21,0,IF($A66&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A66)+Tabelle1!$C$29,IF($A66&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A66+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A66&gt;=Tabelle1!$D$21,0,IF($A66&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A66)+Tabelle1!$D$29,IF($A66&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A66+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13376,27 +13202,27 @@
         <v>6.4</v>
       </c>
       <c r="B67">
-        <f>IF(A67&gt;=Tabelle1!$C$21,0,IF($A67&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A67)+Tabelle1!$C$24,IF($A67&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A67+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A67&gt;=Tabelle1!$D$21,0,IF($A67&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A67)+Tabelle1!$D$24,IF($A67&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A67+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f>IF(A67&gt;=Tabelle1!$C$21,0,IF($A67&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A67)+Tabelle1!$C$25,IF($A67&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A67+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A67&gt;=Tabelle1!$D$21,0,IF($A67&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A67)+Tabelle1!$D$25,IF($A67&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A67+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D67">
-        <f>IF(A67&gt;=Tabelle1!$C$21,0,IF($A67&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A67)+Tabelle1!$C$26,IF($A67&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A67+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A67&gt;=Tabelle1!$D$21,0,IF($A67&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A67)+Tabelle1!$D$26,IF($A67&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A67+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f>IF(A67&gt;=Tabelle1!$C$21,0,IF($A67&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A67)+Tabelle1!$C$27,IF($A67&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A67+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A67&gt;=Tabelle1!$D$21,0,IF($A67&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A67)+Tabelle1!$D$27,IF($A67&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A67+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>IF(A67&gt;=Tabelle1!$C$21,0,IF($A67&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A67)+Tabelle1!$C$28,IF($A67&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A67+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A67&gt;=Tabelle1!$D$21,0,IF($A67&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A67)+Tabelle1!$D$28,IF($A67&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A67+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G67">
-        <f>IF(A67&gt;=Tabelle1!$C$21,0,IF($A67&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A67)+Tabelle1!$C$29,IF($A67&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A67+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A67&gt;=Tabelle1!$D$21,0,IF($A67&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A67)+Tabelle1!$D$29,IF($A67&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A67+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13405,27 +13231,27 @@
         <v>6.5</v>
       </c>
       <c r="B68">
-        <f>IF(A68&gt;=Tabelle1!$C$21,0,IF($A68&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A68)+Tabelle1!$C$24,IF($A68&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A68+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A68&gt;=Tabelle1!$D$21,0,IF($A68&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A68)+Tabelle1!$D$24,IF($A68&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A68+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f>IF(A68&gt;=Tabelle1!$C$21,0,IF($A68&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A68)+Tabelle1!$C$25,IF($A68&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A68+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A68&gt;=Tabelle1!$D$21,0,IF($A68&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A68)+Tabelle1!$D$25,IF($A68&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A68+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D68">
-        <f>IF(A68&gt;=Tabelle1!$C$21,0,IF($A68&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A68)+Tabelle1!$C$26,IF($A68&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A68+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A68&gt;=Tabelle1!$D$21,0,IF($A68&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A68)+Tabelle1!$D$26,IF($A68&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A68+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E68">
-        <f>IF(A68&gt;=Tabelle1!$C$21,0,IF($A68&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A68)+Tabelle1!$C$27,IF($A68&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A68+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A68&gt;=Tabelle1!$D$21,0,IF($A68&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A68)+Tabelle1!$D$27,IF($A68&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A68+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>IF(A68&gt;=Tabelle1!$C$21,0,IF($A68&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A68)+Tabelle1!$C$28,IF($A68&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A68+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A68&gt;=Tabelle1!$D$21,0,IF($A68&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A68)+Tabelle1!$D$28,IF($A68&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A68+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G68">
-        <f>IF(A68&gt;=Tabelle1!$C$21,0,IF($A68&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A68)+Tabelle1!$C$29,IF($A68&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A68+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A68&gt;=Tabelle1!$D$21,0,IF($A68&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A68)+Tabelle1!$D$29,IF($A68&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A68+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13434,27 +13260,27 @@
         <v>6.6</v>
       </c>
       <c r="B69">
-        <f>IF(A69&gt;=Tabelle1!$C$21,0,IF($A69&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A69)+Tabelle1!$C$24,IF($A69&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A69+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A69&gt;=Tabelle1!$D$21,0,IF($A69&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A69)+Tabelle1!$D$24,IF($A69&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A69+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C69">
-        <f>IF(A69&gt;=Tabelle1!$C$21,0,IF($A69&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A69)+Tabelle1!$C$25,IF($A69&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A69+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A69&gt;=Tabelle1!$D$21,0,IF($A69&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A69)+Tabelle1!$D$25,IF($A69&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A69+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D69">
-        <f>IF(A69&gt;=Tabelle1!$C$21,0,IF($A69&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A69)+Tabelle1!$C$26,IF($A69&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A69+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A69&gt;=Tabelle1!$D$21,0,IF($A69&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A69)+Tabelle1!$D$26,IF($A69&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A69+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E69">
-        <f>IF(A69&gt;=Tabelle1!$C$21,0,IF($A69&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A69)+Tabelle1!$C$27,IF($A69&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A69+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A69&gt;=Tabelle1!$D$21,0,IF($A69&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A69)+Tabelle1!$D$27,IF($A69&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A69+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>IF(A69&gt;=Tabelle1!$C$21,0,IF($A69&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A69)+Tabelle1!$C$28,IF($A69&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A69+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A69&gt;=Tabelle1!$D$21,0,IF($A69&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A69)+Tabelle1!$D$28,IF($A69&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A69+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G69">
-        <f>IF(A69&gt;=Tabelle1!$C$21,0,IF($A69&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A69)+Tabelle1!$C$29,IF($A69&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A69+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A69&gt;=Tabelle1!$D$21,0,IF($A69&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A69)+Tabelle1!$D$29,IF($A69&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A69+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13463,27 +13289,27 @@
         <v>6.7</v>
       </c>
       <c r="B70">
-        <f>IF(A70&gt;=Tabelle1!$C$21,0,IF($A70&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A70)+Tabelle1!$C$24,IF($A70&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A70+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A70&gt;=Tabelle1!$D$21,0,IF($A70&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A70)+Tabelle1!$D$24,IF($A70&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A70+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f>IF(A70&gt;=Tabelle1!$C$21,0,IF($A70&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A70)+Tabelle1!$C$25,IF($A70&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A70+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A70&gt;=Tabelle1!$D$21,0,IF($A70&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A70)+Tabelle1!$D$25,IF($A70&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A70+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D70">
-        <f>IF(A70&gt;=Tabelle1!$C$21,0,IF($A70&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A70)+Tabelle1!$C$26,IF($A70&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A70+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A70&gt;=Tabelle1!$D$21,0,IF($A70&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A70)+Tabelle1!$D$26,IF($A70&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A70+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E70">
-        <f>IF(A70&gt;=Tabelle1!$C$21,0,IF($A70&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A70)+Tabelle1!$C$27,IF($A70&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A70+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A70&gt;=Tabelle1!$D$21,0,IF($A70&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A70)+Tabelle1!$D$27,IF($A70&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A70+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>IF(A70&gt;=Tabelle1!$C$21,0,IF($A70&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A70)+Tabelle1!$C$28,IF($A70&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A70+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A70&gt;=Tabelle1!$D$21,0,IF($A70&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A70)+Tabelle1!$D$28,IF($A70&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A70+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G70">
-        <f>IF(A70&gt;=Tabelle1!$C$21,0,IF($A70&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A70)+Tabelle1!$C$29,IF($A70&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A70+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A70&gt;=Tabelle1!$D$21,0,IF($A70&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A70)+Tabelle1!$D$29,IF($A70&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A70+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13492,27 +13318,27 @@
         <v>6.8</v>
       </c>
       <c r="B71">
-        <f>IF(A71&gt;=Tabelle1!$C$21,0,IF($A71&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A71)+Tabelle1!$C$24,IF($A71&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A71+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A71&gt;=Tabelle1!$D$21,0,IF($A71&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A71)+Tabelle1!$D$24,IF($A71&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A71+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f>IF(A71&gt;=Tabelle1!$C$21,0,IF($A71&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A71)+Tabelle1!$C$25,IF($A71&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A71+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A71&gt;=Tabelle1!$D$21,0,IF($A71&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A71)+Tabelle1!$D$25,IF($A71&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A71+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D71">
-        <f>IF(A71&gt;=Tabelle1!$C$21,0,IF($A71&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A71)+Tabelle1!$C$26,IF($A71&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A71+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A71&gt;=Tabelle1!$D$21,0,IF($A71&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A71)+Tabelle1!$D$26,IF($A71&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A71+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E71">
-        <f>IF(A71&gt;=Tabelle1!$C$21,0,IF($A71&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A71)+Tabelle1!$C$27,IF($A71&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A71+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A71&gt;=Tabelle1!$D$21,0,IF($A71&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A71)+Tabelle1!$D$27,IF($A71&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A71+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F71">
-        <f>IF(A71&gt;=Tabelle1!$C$21,0,IF($A71&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A71)+Tabelle1!$C$28,IF($A71&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A71+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A71&gt;=Tabelle1!$D$21,0,IF($A71&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A71)+Tabelle1!$D$28,IF($A71&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A71+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G71">
-        <f>IF(A71&gt;=Tabelle1!$C$21,0,IF($A71&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A71)+Tabelle1!$C$29,IF($A71&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A71+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A71&gt;=Tabelle1!$D$21,0,IF($A71&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A71)+Tabelle1!$D$29,IF($A71&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A71+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13521,27 +13347,27 @@
         <v>6.9</v>
       </c>
       <c r="B72">
-        <f>IF(A72&gt;=Tabelle1!$C$21,0,IF($A72&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A72)+Tabelle1!$C$24,IF($A72&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A72+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A72&gt;=Tabelle1!$D$21,0,IF($A72&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A72)+Tabelle1!$D$24,IF($A72&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A72+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C72">
-        <f>IF(A72&gt;=Tabelle1!$C$21,0,IF($A72&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A72)+Tabelle1!$C$25,IF($A72&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A72+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A72&gt;=Tabelle1!$D$21,0,IF($A72&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A72)+Tabelle1!$D$25,IF($A72&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A72+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D72">
-        <f>IF(A72&gt;=Tabelle1!$C$21,0,IF($A72&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A72)+Tabelle1!$C$26,IF($A72&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A72+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A72&gt;=Tabelle1!$D$21,0,IF($A72&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A72)+Tabelle1!$D$26,IF($A72&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A72+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E72">
-        <f>IF(A72&gt;=Tabelle1!$C$21,0,IF($A72&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A72)+Tabelle1!$C$27,IF($A72&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A72+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A72&gt;=Tabelle1!$D$21,0,IF($A72&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A72)+Tabelle1!$D$27,IF($A72&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A72+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F72">
-        <f>IF(A72&gt;=Tabelle1!$C$21,0,IF($A72&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A72)+Tabelle1!$C$28,IF($A72&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A72+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A72&gt;=Tabelle1!$D$21,0,IF($A72&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A72)+Tabelle1!$D$28,IF($A72&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A72+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G72">
-        <f>IF(A72&gt;=Tabelle1!$C$21,0,IF($A72&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A72)+Tabelle1!$C$29,IF($A72&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A72+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A72&gt;=Tabelle1!$D$21,0,IF($A72&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A72)+Tabelle1!$D$29,IF($A72&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A72+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13550,27 +13376,27 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <f>IF(A73&gt;=Tabelle1!$C$21,0,IF($A73&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A73)+Tabelle1!$C$24,IF($A73&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A73+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A73&gt;=Tabelle1!$D$21,0,IF($A73&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A73)+Tabelle1!$D$24,IF($A73&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A73+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f>IF(A73&gt;=Tabelle1!$C$21,0,IF($A73&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A73)+Tabelle1!$C$25,IF($A73&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A73+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A73&gt;=Tabelle1!$D$21,0,IF($A73&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A73)+Tabelle1!$D$25,IF($A73&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A73+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D73">
-        <f>IF(A73&gt;=Tabelle1!$C$21,0,IF($A73&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A73)+Tabelle1!$C$26,IF($A73&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A73+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A73&gt;=Tabelle1!$D$21,0,IF($A73&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A73)+Tabelle1!$D$26,IF($A73&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A73+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E73">
-        <f>IF(A73&gt;=Tabelle1!$C$21,0,IF($A73&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A73)+Tabelle1!$C$27,IF($A73&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A73+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A73&gt;=Tabelle1!$D$21,0,IF($A73&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A73)+Tabelle1!$D$27,IF($A73&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A73+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F73">
-        <f>IF(A73&gt;=Tabelle1!$C$21,0,IF($A73&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A73)+Tabelle1!$C$28,IF($A73&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A73+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A73&gt;=Tabelle1!$D$21,0,IF($A73&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A73)+Tabelle1!$D$28,IF($A73&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A73+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G73">
-        <f>IF(A73&gt;=Tabelle1!$C$21,0,IF($A73&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A73)+Tabelle1!$C$29,IF($A73&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A73+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A73&gt;=Tabelle1!$D$21,0,IF($A73&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A73)+Tabelle1!$D$29,IF($A73&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A73+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13579,27 +13405,27 @@
         <v>7.1</v>
       </c>
       <c r="B74">
-        <f>IF(A74&gt;=Tabelle1!$C$21,0,IF($A74&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A74)+Tabelle1!$C$24,IF($A74&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A74+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A74&gt;=Tabelle1!$D$21,0,IF($A74&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A74)+Tabelle1!$D$24,IF($A74&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A74+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f>IF(A74&gt;=Tabelle1!$C$21,0,IF($A74&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A74)+Tabelle1!$C$25,IF($A74&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A74+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A74&gt;=Tabelle1!$D$21,0,IF($A74&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A74)+Tabelle1!$D$25,IF($A74&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A74+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D74">
-        <f>IF(A74&gt;=Tabelle1!$C$21,0,IF($A74&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A74)+Tabelle1!$C$26,IF($A74&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A74+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A74&gt;=Tabelle1!$D$21,0,IF($A74&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A74)+Tabelle1!$D$26,IF($A74&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A74+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E74">
-        <f>IF(A74&gt;=Tabelle1!$C$21,0,IF($A74&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A74)+Tabelle1!$C$27,IF($A74&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A74+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A74&gt;=Tabelle1!$D$21,0,IF($A74&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A74)+Tabelle1!$D$27,IF($A74&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A74+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F74">
-        <f>IF(A74&gt;=Tabelle1!$C$21,0,IF($A74&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A74)+Tabelle1!$C$28,IF($A74&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A74+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A74&gt;=Tabelle1!$D$21,0,IF($A74&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A74)+Tabelle1!$D$28,IF($A74&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A74+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G74">
-        <f>IF(A74&gt;=Tabelle1!$C$21,0,IF($A74&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A74)+Tabelle1!$C$29,IF($A74&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A74+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A74&gt;=Tabelle1!$D$21,0,IF($A74&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A74)+Tabelle1!$D$29,IF($A74&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A74+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13608,27 +13434,27 @@
         <v>7.2</v>
       </c>
       <c r="B75">
-        <f>IF(A75&gt;=Tabelle1!$C$21,0,IF($A75&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A75)+Tabelle1!$C$24,IF($A75&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A75+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A75&gt;=Tabelle1!$D$21,0,IF($A75&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A75)+Tabelle1!$D$24,IF($A75&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A75+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C75">
-        <f>IF(A75&gt;=Tabelle1!$C$21,0,IF($A75&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A75)+Tabelle1!$C$25,IF($A75&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A75+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A75&gt;=Tabelle1!$D$21,0,IF($A75&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A75)+Tabelle1!$D$25,IF($A75&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A75+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D75">
-        <f>IF(A75&gt;=Tabelle1!$C$21,0,IF($A75&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A75)+Tabelle1!$C$26,IF($A75&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A75+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A75&gt;=Tabelle1!$D$21,0,IF($A75&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A75)+Tabelle1!$D$26,IF($A75&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A75+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>IF(A75&gt;=Tabelle1!$C$21,0,IF($A75&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A75)+Tabelle1!$C$27,IF($A75&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A75+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A75&gt;=Tabelle1!$D$21,0,IF($A75&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A75)+Tabelle1!$D$27,IF($A75&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A75+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F75">
-        <f>IF(A75&gt;=Tabelle1!$C$21,0,IF($A75&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A75)+Tabelle1!$C$28,IF($A75&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A75+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A75&gt;=Tabelle1!$D$21,0,IF($A75&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A75)+Tabelle1!$D$28,IF($A75&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A75+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G75">
-        <f>IF(A75&gt;=Tabelle1!$C$21,0,IF($A75&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A75)+Tabelle1!$C$29,IF($A75&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A75+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A75&gt;=Tabelle1!$D$21,0,IF($A75&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A75)+Tabelle1!$D$29,IF($A75&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A75+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13637,27 +13463,27 @@
         <v>7.3</v>
       </c>
       <c r="B76">
-        <f>IF(A76&gt;=Tabelle1!$C$21,0,IF($A76&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A76)+Tabelle1!$C$24,IF($A76&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A76+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A76&gt;=Tabelle1!$D$21,0,IF($A76&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A76)+Tabelle1!$D$24,IF($A76&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A76+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f>IF(A76&gt;=Tabelle1!$C$21,0,IF($A76&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A76)+Tabelle1!$C$25,IF($A76&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A76+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A76&gt;=Tabelle1!$D$21,0,IF($A76&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A76)+Tabelle1!$D$25,IF($A76&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A76+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f>IF(A76&gt;=Tabelle1!$C$21,0,IF($A76&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A76)+Tabelle1!$C$26,IF($A76&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A76+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A76&gt;=Tabelle1!$D$21,0,IF($A76&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A76)+Tabelle1!$D$26,IF($A76&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A76+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f>IF(A76&gt;=Tabelle1!$C$21,0,IF($A76&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A76)+Tabelle1!$C$27,IF($A76&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A76+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A76&gt;=Tabelle1!$D$21,0,IF($A76&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A76)+Tabelle1!$D$27,IF($A76&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A76+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f>IF(A76&gt;=Tabelle1!$C$21,0,IF($A76&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A76)+Tabelle1!$C$28,IF($A76&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A76+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A76&gt;=Tabelle1!$D$21,0,IF($A76&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A76)+Tabelle1!$D$28,IF($A76&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A76+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f>IF(A76&gt;=Tabelle1!$C$21,0,IF($A76&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A76)+Tabelle1!$C$29,IF($A76&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A76+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A76&gt;=Tabelle1!$D$21,0,IF($A76&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A76)+Tabelle1!$D$29,IF($A76&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A76+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13666,27 +13492,27 @@
         <v>7.4</v>
       </c>
       <c r="B77">
-        <f>IF(A77&gt;=Tabelle1!$C$21,0,IF($A77&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A77)+Tabelle1!$C$24,IF($A77&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A77+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A77&gt;=Tabelle1!$D$21,0,IF($A77&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A77)+Tabelle1!$D$24,IF($A77&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A77+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C77">
-        <f>IF(A77&gt;=Tabelle1!$C$21,0,IF($A77&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A77)+Tabelle1!$C$25,IF($A77&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A77+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A77&gt;=Tabelle1!$D$21,0,IF($A77&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A77)+Tabelle1!$D$25,IF($A77&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A77+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D77">
-        <f>IF(A77&gt;=Tabelle1!$C$21,0,IF($A77&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A77)+Tabelle1!$C$26,IF($A77&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A77+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A77&gt;=Tabelle1!$D$21,0,IF($A77&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A77)+Tabelle1!$D$26,IF($A77&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A77+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E77">
-        <f>IF(A77&gt;=Tabelle1!$C$21,0,IF($A77&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A77)+Tabelle1!$C$27,IF($A77&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A77+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A77&gt;=Tabelle1!$D$21,0,IF($A77&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A77)+Tabelle1!$D$27,IF($A77&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A77+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F77">
-        <f>IF(A77&gt;=Tabelle1!$C$21,0,IF($A77&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A77)+Tabelle1!$C$28,IF($A77&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A77+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A77&gt;=Tabelle1!$D$21,0,IF($A77&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A77)+Tabelle1!$D$28,IF($A77&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A77+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G77">
-        <f>IF(A77&gt;=Tabelle1!$C$21,0,IF($A77&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A77)+Tabelle1!$C$29,IF($A77&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A77+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A77&gt;=Tabelle1!$D$21,0,IF($A77&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A77)+Tabelle1!$D$29,IF($A77&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A77+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13695,27 +13521,27 @@
         <v>7.5</v>
       </c>
       <c r="B78">
-        <f>IF(A78&gt;=Tabelle1!$C$21,0,IF($A78&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A78)+Tabelle1!$C$24,IF($A78&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A78+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A78&gt;=Tabelle1!$D$21,0,IF($A78&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A78)+Tabelle1!$D$24,IF($A78&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A78+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C78">
-        <f>IF(A78&gt;=Tabelle1!$C$21,0,IF($A78&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A78)+Tabelle1!$C$25,IF($A78&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A78+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A78&gt;=Tabelle1!$D$21,0,IF($A78&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A78)+Tabelle1!$D$25,IF($A78&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A78+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D78">
-        <f>IF(A78&gt;=Tabelle1!$C$21,0,IF($A78&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A78)+Tabelle1!$C$26,IF($A78&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A78+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A78&gt;=Tabelle1!$D$21,0,IF($A78&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A78)+Tabelle1!$D$26,IF($A78&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A78+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E78">
-        <f>IF(A78&gt;=Tabelle1!$C$21,0,IF($A78&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A78)+Tabelle1!$C$27,IF($A78&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A78+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A78&gt;=Tabelle1!$D$21,0,IF($A78&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A78)+Tabelle1!$D$27,IF($A78&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A78+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F78">
-        <f>IF(A78&gt;=Tabelle1!$C$21,0,IF($A78&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A78)+Tabelle1!$C$28,IF($A78&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A78+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A78&gt;=Tabelle1!$D$21,0,IF($A78&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A78)+Tabelle1!$D$28,IF($A78&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A78+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G78">
-        <f>IF(A78&gt;=Tabelle1!$C$21,0,IF($A78&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A78)+Tabelle1!$C$29,IF($A78&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A78+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A78&gt;=Tabelle1!$D$21,0,IF($A78&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A78)+Tabelle1!$D$29,IF($A78&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A78+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13724,27 +13550,27 @@
         <v>7.6</v>
       </c>
       <c r="B79">
-        <f>IF(A79&gt;=Tabelle1!$C$21,0,IF($A79&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A79)+Tabelle1!$C$24,IF($A79&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A79+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A79&gt;=Tabelle1!$D$21,0,IF($A79&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A79)+Tabelle1!$D$24,IF($A79&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A79+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C79">
-        <f>IF(A79&gt;=Tabelle1!$C$21,0,IF($A79&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A79)+Tabelle1!$C$25,IF($A79&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A79+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A79&gt;=Tabelle1!$D$21,0,IF($A79&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A79)+Tabelle1!$D$25,IF($A79&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A79+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f>IF(A79&gt;=Tabelle1!$C$21,0,IF($A79&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A79)+Tabelle1!$C$26,IF($A79&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A79+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A79&gt;=Tabelle1!$D$21,0,IF($A79&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A79)+Tabelle1!$D$26,IF($A79&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A79+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E79">
-        <f>IF(A79&gt;=Tabelle1!$C$21,0,IF($A79&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A79)+Tabelle1!$C$27,IF($A79&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A79+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A79&gt;=Tabelle1!$D$21,0,IF($A79&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A79)+Tabelle1!$D$27,IF($A79&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A79+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F79">
-        <f>IF(A79&gt;=Tabelle1!$C$21,0,IF($A79&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A79)+Tabelle1!$C$28,IF($A79&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A79+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A79&gt;=Tabelle1!$D$21,0,IF($A79&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A79)+Tabelle1!$D$28,IF($A79&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A79+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f>IF(A79&gt;=Tabelle1!$C$21,0,IF($A79&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A79)+Tabelle1!$C$29,IF($A79&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A79+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A79&gt;=Tabelle1!$D$21,0,IF($A79&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A79)+Tabelle1!$D$29,IF($A79&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A79+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13753,27 +13579,27 @@
         <v>7.7</v>
       </c>
       <c r="B80">
-        <f>IF(A80&gt;=Tabelle1!$C$21,0,IF($A80&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A80)+Tabelle1!$C$24,IF($A80&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A80+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A80&gt;=Tabelle1!$D$21,0,IF($A80&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A80)+Tabelle1!$D$24,IF($A80&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A80+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C80">
-        <f>IF(A80&gt;=Tabelle1!$C$21,0,IF($A80&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A80)+Tabelle1!$C$25,IF($A80&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A80+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A80&gt;=Tabelle1!$D$21,0,IF($A80&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A80)+Tabelle1!$D$25,IF($A80&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A80+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D80">
-        <f>IF(A80&gt;=Tabelle1!$C$21,0,IF($A80&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A80)+Tabelle1!$C$26,IF($A80&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A80+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A80&gt;=Tabelle1!$D$21,0,IF($A80&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A80)+Tabelle1!$D$26,IF($A80&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A80+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E80">
-        <f>IF(A80&gt;=Tabelle1!$C$21,0,IF($A80&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A80)+Tabelle1!$C$27,IF($A80&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A80+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A80&gt;=Tabelle1!$D$21,0,IF($A80&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A80)+Tabelle1!$D$27,IF($A80&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A80+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F80">
-        <f>IF(A80&gt;=Tabelle1!$C$21,0,IF($A80&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A80)+Tabelle1!$C$28,IF($A80&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A80+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A80&gt;=Tabelle1!$D$21,0,IF($A80&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A80)+Tabelle1!$D$28,IF($A80&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A80+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G80">
-        <f>IF(A80&gt;=Tabelle1!$C$21,0,IF($A80&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A80)+Tabelle1!$C$29,IF($A80&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A80+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A80&gt;=Tabelle1!$D$21,0,IF($A80&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A80)+Tabelle1!$D$29,IF($A80&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A80+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13782,27 +13608,27 @@
         <v>7.8</v>
       </c>
       <c r="B81">
-        <f>IF(A81&gt;=Tabelle1!$C$21,0,IF($A81&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A81)+Tabelle1!$C$24,IF($A81&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A81+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A81&gt;=Tabelle1!$D$21,0,IF($A81&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A81)+Tabelle1!$D$24,IF($A81&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A81+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C81">
-        <f>IF(A81&gt;=Tabelle1!$C$21,0,IF($A81&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A81)+Tabelle1!$C$25,IF($A81&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A81+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A81&gt;=Tabelle1!$D$21,0,IF($A81&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A81)+Tabelle1!$D$25,IF($A81&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A81+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D81">
-        <f>IF(A81&gt;=Tabelle1!$C$21,0,IF($A81&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A81)+Tabelle1!$C$26,IF($A81&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A81+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A81&gt;=Tabelle1!$D$21,0,IF($A81&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A81)+Tabelle1!$D$26,IF($A81&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A81+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E81">
-        <f>IF(A81&gt;=Tabelle1!$C$21,0,IF($A81&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A81)+Tabelle1!$C$27,IF($A81&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A81+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A81&gt;=Tabelle1!$D$21,0,IF($A81&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A81)+Tabelle1!$D$27,IF($A81&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A81+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F81">
-        <f>IF(A81&gt;=Tabelle1!$C$21,0,IF($A81&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A81)+Tabelle1!$C$28,IF($A81&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A81+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A81&gt;=Tabelle1!$D$21,0,IF($A81&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A81)+Tabelle1!$D$28,IF($A81&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A81+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G81">
-        <f>IF(A81&gt;=Tabelle1!$C$21,0,IF($A81&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A81)+Tabelle1!$C$29,IF($A81&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A81+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A81&gt;=Tabelle1!$D$21,0,IF($A81&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A81)+Tabelle1!$D$29,IF($A81&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A81+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13811,27 +13637,27 @@
         <v>7.9</v>
       </c>
       <c r="B82">
-        <f>IF(A82&gt;=Tabelle1!$C$21,0,IF($A82&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A82)+Tabelle1!$C$24,IF($A82&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A82+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A82&gt;=Tabelle1!$D$21,0,IF($A82&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A82)+Tabelle1!$D$24,IF($A82&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A82+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f>IF(A82&gt;=Tabelle1!$C$21,0,IF($A82&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A82)+Tabelle1!$C$25,IF($A82&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A82+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A82&gt;=Tabelle1!$D$21,0,IF($A82&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A82)+Tabelle1!$D$25,IF($A82&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A82+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D82">
-        <f>IF(A82&gt;=Tabelle1!$C$21,0,IF($A82&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A82)+Tabelle1!$C$26,IF($A82&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A82+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A82&gt;=Tabelle1!$D$21,0,IF($A82&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A82)+Tabelle1!$D$26,IF($A82&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A82+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E82">
-        <f>IF(A82&gt;=Tabelle1!$C$21,0,IF($A82&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A82)+Tabelle1!$C$27,IF($A82&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A82+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A82&gt;=Tabelle1!$D$21,0,IF($A82&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A82)+Tabelle1!$D$27,IF($A82&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A82+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f>IF(A82&gt;=Tabelle1!$C$21,0,IF($A82&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A82)+Tabelle1!$C$28,IF($A82&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A82+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A82&gt;=Tabelle1!$D$21,0,IF($A82&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A82)+Tabelle1!$D$28,IF($A82&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A82+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f>IF(A82&gt;=Tabelle1!$C$21,0,IF($A82&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A82)+Tabelle1!$C$29,IF($A82&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A82+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A82&gt;=Tabelle1!$D$21,0,IF($A82&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A82)+Tabelle1!$D$29,IF($A82&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A82+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13840,27 +13666,27 @@
         <v>8</v>
       </c>
       <c r="B83">
-        <f>IF(A83&gt;=Tabelle1!$C$21,0,IF($A83&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A83)+Tabelle1!$C$24,IF($A83&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A83+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A83&gt;=Tabelle1!$D$21,0,IF($A83&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A83)+Tabelle1!$D$24,IF($A83&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A83+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f>IF(A83&gt;=Tabelle1!$C$21,0,IF($A83&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A83)+Tabelle1!$C$25,IF($A83&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A83+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A83&gt;=Tabelle1!$D$21,0,IF($A83&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A83)+Tabelle1!$D$25,IF($A83&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A83+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D83">
-        <f>IF(A83&gt;=Tabelle1!$C$21,0,IF($A83&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A83)+Tabelle1!$C$26,IF($A83&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A83+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A83&gt;=Tabelle1!$D$21,0,IF($A83&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A83)+Tabelle1!$D$26,IF($A83&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A83+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E83">
-        <f>IF(A83&gt;=Tabelle1!$C$21,0,IF($A83&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A83)+Tabelle1!$C$27,IF($A83&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A83+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A83&gt;=Tabelle1!$D$21,0,IF($A83&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A83)+Tabelle1!$D$27,IF($A83&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A83+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F83">
-        <f>IF(A83&gt;=Tabelle1!$C$21,0,IF($A83&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A83)+Tabelle1!$C$28,IF($A83&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A83+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A83&gt;=Tabelle1!$D$21,0,IF($A83&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A83)+Tabelle1!$D$28,IF($A83&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A83+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G83">
-        <f>IF(A83&gt;=Tabelle1!$C$21,0,IF($A83&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A83)+Tabelle1!$C$29,IF($A83&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A83+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A83&gt;=Tabelle1!$D$21,0,IF($A83&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A83)+Tabelle1!$D$29,IF($A83&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A83+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13869,27 +13695,27 @@
         <v>8.1</v>
       </c>
       <c r="B84">
-        <f>IF(A84&gt;=Tabelle1!$C$21,0,IF($A84&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A84)+Tabelle1!$C$24,IF($A84&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A84+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A84&gt;=Tabelle1!$D$21,0,IF($A84&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A84)+Tabelle1!$D$24,IF($A84&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A84+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C84">
-        <f>IF(A84&gt;=Tabelle1!$C$21,0,IF($A84&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A84)+Tabelle1!$C$25,IF($A84&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A84+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A84&gt;=Tabelle1!$D$21,0,IF($A84&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A84)+Tabelle1!$D$25,IF($A84&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A84+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D84">
-        <f>IF(A84&gt;=Tabelle1!$C$21,0,IF($A84&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A84)+Tabelle1!$C$26,IF($A84&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A84+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A84&gt;=Tabelle1!$D$21,0,IF($A84&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A84)+Tabelle1!$D$26,IF($A84&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A84+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E84">
-        <f>IF(A84&gt;=Tabelle1!$C$21,0,IF($A84&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A84)+Tabelle1!$C$27,IF($A84&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A84+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A84&gt;=Tabelle1!$D$21,0,IF($A84&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A84)+Tabelle1!$D$27,IF($A84&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A84+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F84">
-        <f>IF(A84&gt;=Tabelle1!$C$21,0,IF($A84&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A84)+Tabelle1!$C$28,IF($A84&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A84+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A84&gt;=Tabelle1!$D$21,0,IF($A84&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A84)+Tabelle1!$D$28,IF($A84&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A84+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G84">
-        <f>IF(A84&gt;=Tabelle1!$C$21,0,IF($A84&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A84)+Tabelle1!$C$29,IF($A84&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A84+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A84&gt;=Tabelle1!$D$21,0,IF($A84&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A84)+Tabelle1!$D$29,IF($A84&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A84+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13898,27 +13724,27 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B85">
-        <f>IF(A85&gt;=Tabelle1!$C$21,0,IF($A85&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A85)+Tabelle1!$C$24,IF($A85&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A85+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A85&gt;=Tabelle1!$D$21,0,IF($A85&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A85)+Tabelle1!$D$24,IF($A85&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A85+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C85">
-        <f>IF(A85&gt;=Tabelle1!$C$21,0,IF($A85&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A85)+Tabelle1!$C$25,IF($A85&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A85+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A85&gt;=Tabelle1!$D$21,0,IF($A85&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A85)+Tabelle1!$D$25,IF($A85&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A85+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D85">
-        <f>IF(A85&gt;=Tabelle1!$C$21,0,IF($A85&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A85)+Tabelle1!$C$26,IF($A85&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A85+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A85&gt;=Tabelle1!$D$21,0,IF($A85&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A85)+Tabelle1!$D$26,IF($A85&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A85+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E85">
-        <f>IF(A85&gt;=Tabelle1!$C$21,0,IF($A85&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A85)+Tabelle1!$C$27,IF($A85&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A85+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A85&gt;=Tabelle1!$D$21,0,IF($A85&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A85)+Tabelle1!$D$27,IF($A85&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A85+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F85">
-        <f>IF(A85&gt;=Tabelle1!$C$21,0,IF($A85&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A85)+Tabelle1!$C$28,IF($A85&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A85+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A85&gt;=Tabelle1!$D$21,0,IF($A85&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A85)+Tabelle1!$D$28,IF($A85&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A85+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f>IF(A85&gt;=Tabelle1!$C$21,0,IF($A85&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A85)+Tabelle1!$C$29,IF($A85&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A85+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A85&gt;=Tabelle1!$D$21,0,IF($A85&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A85)+Tabelle1!$D$29,IF($A85&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A85+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13927,27 +13753,27 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="B86">
-        <f>IF(A86&gt;=Tabelle1!$C$21,0,IF($A86&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A86)+Tabelle1!$C$24,IF($A86&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A86+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A86&gt;=Tabelle1!$D$21,0,IF($A86&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A86)+Tabelle1!$D$24,IF($A86&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A86+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f>IF(A86&gt;=Tabelle1!$C$21,0,IF($A86&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A86)+Tabelle1!$C$25,IF($A86&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A86+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A86&gt;=Tabelle1!$D$21,0,IF($A86&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A86)+Tabelle1!$D$25,IF($A86&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A86+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D86">
-        <f>IF(A86&gt;=Tabelle1!$C$21,0,IF($A86&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A86)+Tabelle1!$C$26,IF($A86&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A86+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A86&gt;=Tabelle1!$D$21,0,IF($A86&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A86)+Tabelle1!$D$26,IF($A86&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A86+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E86">
-        <f>IF(A86&gt;=Tabelle1!$C$21,0,IF($A86&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A86)+Tabelle1!$C$27,IF($A86&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A86+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A86&gt;=Tabelle1!$D$21,0,IF($A86&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A86)+Tabelle1!$D$27,IF($A86&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A86+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F86">
-        <f>IF(A86&gt;=Tabelle1!$C$21,0,IF($A86&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A86)+Tabelle1!$C$28,IF($A86&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A86+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A86&gt;=Tabelle1!$D$21,0,IF($A86&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A86)+Tabelle1!$D$28,IF($A86&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A86+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G86">
-        <f>IF(A86&gt;=Tabelle1!$C$21,0,IF($A86&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A86)+Tabelle1!$C$29,IF($A86&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A86+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A86&gt;=Tabelle1!$D$21,0,IF($A86&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A86)+Tabelle1!$D$29,IF($A86&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A86+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13956,27 +13782,27 @@
         <v>8.4</v>
       </c>
       <c r="B87">
-        <f>IF(A87&gt;=Tabelle1!$C$21,0,IF($A87&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A87)+Tabelle1!$C$24,IF($A87&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A87+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A87&gt;=Tabelle1!$D$21,0,IF($A87&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A87)+Tabelle1!$D$24,IF($A87&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A87+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C87">
-        <f>IF(A87&gt;=Tabelle1!$C$21,0,IF($A87&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A87)+Tabelle1!$C$25,IF($A87&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A87+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A87&gt;=Tabelle1!$D$21,0,IF($A87&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A87)+Tabelle1!$D$25,IF($A87&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A87+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D87">
-        <f>IF(A87&gt;=Tabelle1!$C$21,0,IF($A87&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A87)+Tabelle1!$C$26,IF($A87&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A87+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A87&gt;=Tabelle1!$D$21,0,IF($A87&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A87)+Tabelle1!$D$26,IF($A87&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A87+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E87">
-        <f>IF(A87&gt;=Tabelle1!$C$21,0,IF($A87&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A87)+Tabelle1!$C$27,IF($A87&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A87+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A87&gt;=Tabelle1!$D$21,0,IF($A87&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A87)+Tabelle1!$D$27,IF($A87&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A87+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F87">
-        <f>IF(A87&gt;=Tabelle1!$C$21,0,IF($A87&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A87)+Tabelle1!$C$28,IF($A87&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A87+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A87&gt;=Tabelle1!$D$21,0,IF($A87&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A87)+Tabelle1!$D$28,IF($A87&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A87+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G87">
-        <f>IF(A87&gt;=Tabelle1!$C$21,0,IF($A87&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A87)+Tabelle1!$C$29,IF($A87&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A87+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A87&gt;=Tabelle1!$D$21,0,IF($A87&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A87)+Tabelle1!$D$29,IF($A87&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A87+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13985,27 +13811,27 @@
         <v>8.5</v>
       </c>
       <c r="B88">
-        <f>IF(A88&gt;=Tabelle1!$C$21,0,IF($A88&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A88)+Tabelle1!$C$24,IF($A88&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A88+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A88&gt;=Tabelle1!$D$21,0,IF($A88&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A88)+Tabelle1!$D$24,IF($A88&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A88+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C88">
-        <f>IF(A88&gt;=Tabelle1!$C$21,0,IF($A88&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A88)+Tabelle1!$C$25,IF($A88&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A88+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A88&gt;=Tabelle1!$D$21,0,IF($A88&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A88)+Tabelle1!$D$25,IF($A88&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A88+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D88">
-        <f>IF(A88&gt;=Tabelle1!$C$21,0,IF($A88&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A88)+Tabelle1!$C$26,IF($A88&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A88+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A88&gt;=Tabelle1!$D$21,0,IF($A88&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A88)+Tabelle1!$D$26,IF($A88&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A88+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E88">
-        <f>IF(A88&gt;=Tabelle1!$C$21,0,IF($A88&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A88)+Tabelle1!$C$27,IF($A88&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A88+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A88&gt;=Tabelle1!$D$21,0,IF($A88&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A88)+Tabelle1!$D$27,IF($A88&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A88+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F88">
-        <f>IF(A88&gt;=Tabelle1!$C$21,0,IF($A88&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A88)+Tabelle1!$C$28,IF($A88&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A88+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A88&gt;=Tabelle1!$D$21,0,IF($A88&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A88)+Tabelle1!$D$28,IF($A88&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A88+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G88">
-        <f>IF(A88&gt;=Tabelle1!$C$21,0,IF($A88&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A88)+Tabelle1!$C$29,IF($A88&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A88+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A88&gt;=Tabelle1!$D$21,0,IF($A88&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A88)+Tabelle1!$D$29,IF($A88&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A88+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14014,27 +13840,27 @@
         <v>8.6</v>
       </c>
       <c r="B89">
-        <f>IF(A89&gt;=Tabelle1!$C$21,0,IF($A89&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A89)+Tabelle1!$C$24,IF($A89&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A89+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A89&gt;=Tabelle1!$D$21,0,IF($A89&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A89)+Tabelle1!$D$24,IF($A89&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A89+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C89">
-        <f>IF(A89&gt;=Tabelle1!$C$21,0,IF($A89&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A89)+Tabelle1!$C$25,IF($A89&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A89+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A89&gt;=Tabelle1!$D$21,0,IF($A89&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A89)+Tabelle1!$D$25,IF($A89&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A89+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D89">
-        <f>IF(A89&gt;=Tabelle1!$C$21,0,IF($A89&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A89)+Tabelle1!$C$26,IF($A89&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A89+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A89&gt;=Tabelle1!$D$21,0,IF($A89&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A89)+Tabelle1!$D$26,IF($A89&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A89+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E89">
-        <f>IF(A89&gt;=Tabelle1!$C$21,0,IF($A89&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A89)+Tabelle1!$C$27,IF($A89&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A89+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A89&gt;=Tabelle1!$D$21,0,IF($A89&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A89)+Tabelle1!$D$27,IF($A89&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A89+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F89">
-        <f>IF(A89&gt;=Tabelle1!$C$21,0,IF($A89&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A89)+Tabelle1!$C$28,IF($A89&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A89+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A89&gt;=Tabelle1!$D$21,0,IF($A89&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A89)+Tabelle1!$D$28,IF($A89&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A89+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G89">
-        <f>IF(A89&gt;=Tabelle1!$C$21,0,IF($A89&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A89)+Tabelle1!$C$29,IF($A89&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A89+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A89&gt;=Tabelle1!$D$21,0,IF($A89&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A89)+Tabelle1!$D$29,IF($A89&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A89+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14043,27 +13869,27 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B90">
-        <f>IF(A90&gt;=Tabelle1!$C$21,0,IF($A90&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A90)+Tabelle1!$C$24,IF($A90&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A90+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A90&gt;=Tabelle1!$D$21,0,IF($A90&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A90)+Tabelle1!$D$24,IF($A90&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A90+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C90">
-        <f>IF(A90&gt;=Tabelle1!$C$21,0,IF($A90&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A90)+Tabelle1!$C$25,IF($A90&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A90+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A90&gt;=Tabelle1!$D$21,0,IF($A90&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A90)+Tabelle1!$D$25,IF($A90&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A90+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D90">
-        <f>IF(A90&gt;=Tabelle1!$C$21,0,IF($A90&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A90)+Tabelle1!$C$26,IF($A90&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A90+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A90&gt;=Tabelle1!$D$21,0,IF($A90&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A90)+Tabelle1!$D$26,IF($A90&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A90+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E90">
-        <f>IF(A90&gt;=Tabelle1!$C$21,0,IF($A90&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A90)+Tabelle1!$C$27,IF($A90&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A90+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A90&gt;=Tabelle1!$D$21,0,IF($A90&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A90)+Tabelle1!$D$27,IF($A90&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A90+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F90">
-        <f>IF(A90&gt;=Tabelle1!$C$21,0,IF($A90&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A90)+Tabelle1!$C$28,IF($A90&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A90+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A90&gt;=Tabelle1!$D$21,0,IF($A90&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A90)+Tabelle1!$D$28,IF($A90&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A90+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G90">
-        <f>IF(A90&gt;=Tabelle1!$C$21,0,IF($A90&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A90)+Tabelle1!$C$29,IF($A90&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A90+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A90&gt;=Tabelle1!$D$21,0,IF($A90&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A90)+Tabelle1!$D$29,IF($A90&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A90+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14072,27 +13898,27 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="B91">
-        <f>IF(A91&gt;=Tabelle1!$C$21,0,IF($A91&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A91)+Tabelle1!$C$24,IF($A91&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A91+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A91&gt;=Tabelle1!$D$21,0,IF($A91&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A91)+Tabelle1!$D$24,IF($A91&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A91+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>IF(A91&gt;=Tabelle1!$C$21,0,IF($A91&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A91)+Tabelle1!$C$25,IF($A91&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A91+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A91&gt;=Tabelle1!$D$21,0,IF($A91&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A91)+Tabelle1!$D$25,IF($A91&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A91+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D91">
-        <f>IF(A91&gt;=Tabelle1!$C$21,0,IF($A91&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A91)+Tabelle1!$C$26,IF($A91&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A91+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A91&gt;=Tabelle1!$D$21,0,IF($A91&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A91)+Tabelle1!$D$26,IF($A91&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A91+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E91">
-        <f>IF(A91&gt;=Tabelle1!$C$21,0,IF($A91&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A91)+Tabelle1!$C$27,IF($A91&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A91+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A91&gt;=Tabelle1!$D$21,0,IF($A91&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A91)+Tabelle1!$D$27,IF($A91&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A91+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F91">
-        <f>IF(A91&gt;=Tabelle1!$C$21,0,IF($A91&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A91)+Tabelle1!$C$28,IF($A91&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A91+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A91&gt;=Tabelle1!$D$21,0,IF($A91&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A91)+Tabelle1!$D$28,IF($A91&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A91+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G91">
-        <f>IF(A91&gt;=Tabelle1!$C$21,0,IF($A91&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A91)+Tabelle1!$C$29,IF($A91&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A91+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A91&gt;=Tabelle1!$D$21,0,IF($A91&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A91)+Tabelle1!$D$29,IF($A91&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A91+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14101,27 +13927,27 @@
         <v>8.9</v>
       </c>
       <c r="B92">
-        <f>IF(A92&gt;=Tabelle1!$C$21,0,IF($A92&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A92)+Tabelle1!$C$24,IF($A92&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A92+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A92&gt;=Tabelle1!$D$21,0,IF($A92&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A92)+Tabelle1!$D$24,IF($A92&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A92+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C92">
-        <f>IF(A92&gt;=Tabelle1!$C$21,0,IF($A92&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A92)+Tabelle1!$C$25,IF($A92&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A92+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A92&gt;=Tabelle1!$D$21,0,IF($A92&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A92)+Tabelle1!$D$25,IF($A92&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A92+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D92">
-        <f>IF(A92&gt;=Tabelle1!$C$21,0,IF($A92&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A92)+Tabelle1!$C$26,IF($A92&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A92+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A92&gt;=Tabelle1!$D$21,0,IF($A92&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A92)+Tabelle1!$D$26,IF($A92&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A92+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E92">
-        <f>IF(A92&gt;=Tabelle1!$C$21,0,IF($A92&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A92)+Tabelle1!$C$27,IF($A92&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A92+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A92&gt;=Tabelle1!$D$21,0,IF($A92&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A92)+Tabelle1!$D$27,IF($A92&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A92+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F92">
-        <f>IF(A92&gt;=Tabelle1!$C$21,0,IF($A92&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A92)+Tabelle1!$C$28,IF($A92&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A92+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A92&gt;=Tabelle1!$D$21,0,IF($A92&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A92)+Tabelle1!$D$28,IF($A92&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A92+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G92">
-        <f>IF(A92&gt;=Tabelle1!$C$21,0,IF($A92&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A92)+Tabelle1!$C$29,IF($A92&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A92+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A92&gt;=Tabelle1!$D$21,0,IF($A92&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A92)+Tabelle1!$D$29,IF($A92&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A92+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14130,27 +13956,27 @@
         <v>9</v>
       </c>
       <c r="B93">
-        <f>IF(A93&gt;=Tabelle1!$C$21,0,IF($A93&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A93)+Tabelle1!$C$24,IF($A93&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A93+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A93&gt;=Tabelle1!$D$21,0,IF($A93&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A93)+Tabelle1!$D$24,IF($A93&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A93+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C93">
-        <f>IF(A93&gt;=Tabelle1!$C$21,0,IF($A93&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A93)+Tabelle1!$C$25,IF($A93&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A93+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A93&gt;=Tabelle1!$D$21,0,IF($A93&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A93)+Tabelle1!$D$25,IF($A93&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A93+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D93">
-        <f>IF(A93&gt;=Tabelle1!$C$21,0,IF($A93&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A93)+Tabelle1!$C$26,IF($A93&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A93+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A93&gt;=Tabelle1!$D$21,0,IF($A93&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A93)+Tabelle1!$D$26,IF($A93&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A93+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E93">
-        <f>IF(A93&gt;=Tabelle1!$C$21,0,IF($A93&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A93)+Tabelle1!$C$27,IF($A93&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A93+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A93&gt;=Tabelle1!$D$21,0,IF($A93&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A93)+Tabelle1!$D$27,IF($A93&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A93+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F93">
-        <f>IF(A93&gt;=Tabelle1!$C$21,0,IF($A93&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A93)+Tabelle1!$C$28,IF($A93&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A93+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A93&gt;=Tabelle1!$D$21,0,IF($A93&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A93)+Tabelle1!$D$28,IF($A93&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A93+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G93">
-        <f>IF(A93&gt;=Tabelle1!$C$21,0,IF($A93&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A93)+Tabelle1!$C$29,IF($A93&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A93+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A93&gt;=Tabelle1!$D$21,0,IF($A93&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A93)+Tabelle1!$D$29,IF($A93&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A93+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14159,27 +13985,27 @@
         <v>9.1</v>
       </c>
       <c r="B94">
-        <f>IF(A94&gt;=Tabelle1!$C$21,0,IF($A94&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A94)+Tabelle1!$C$24,IF($A94&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A94+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A94&gt;=Tabelle1!$D$21,0,IF($A94&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A94)+Tabelle1!$D$24,IF($A94&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A94+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C94">
-        <f>IF(A94&gt;=Tabelle1!$C$21,0,IF($A94&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A94)+Tabelle1!$C$25,IF($A94&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A94+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A94&gt;=Tabelle1!$D$21,0,IF($A94&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A94)+Tabelle1!$D$25,IF($A94&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A94+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f>IF(A94&gt;=Tabelle1!$C$21,0,IF($A94&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A94)+Tabelle1!$C$26,IF($A94&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A94+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A94&gt;=Tabelle1!$D$21,0,IF($A94&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A94)+Tabelle1!$D$26,IF($A94&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A94+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E94">
-        <f>IF(A94&gt;=Tabelle1!$C$21,0,IF($A94&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A94)+Tabelle1!$C$27,IF($A94&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A94+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A94&gt;=Tabelle1!$D$21,0,IF($A94&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A94)+Tabelle1!$D$27,IF($A94&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A94+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F94">
-        <f>IF(A94&gt;=Tabelle1!$C$21,0,IF($A94&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A94)+Tabelle1!$C$28,IF($A94&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A94+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A94&gt;=Tabelle1!$D$21,0,IF($A94&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A94)+Tabelle1!$D$28,IF($A94&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A94+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G94">
-        <f>IF(A94&gt;=Tabelle1!$C$21,0,IF($A94&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A94)+Tabelle1!$C$29,IF($A94&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A94+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A94&gt;=Tabelle1!$D$21,0,IF($A94&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A94)+Tabelle1!$D$29,IF($A94&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A94+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14188,27 +14014,27 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B95">
-        <f>IF(A95&gt;=Tabelle1!$C$21,0,IF($A95&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A95)+Tabelle1!$C$24,IF($A95&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A95+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A95&gt;=Tabelle1!$D$21,0,IF($A95&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A95)+Tabelle1!$D$24,IF($A95&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A95+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C95">
-        <f>IF(A95&gt;=Tabelle1!$C$21,0,IF($A95&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A95)+Tabelle1!$C$25,IF($A95&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A95+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A95&gt;=Tabelle1!$D$21,0,IF($A95&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A95)+Tabelle1!$D$25,IF($A95&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A95+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D95">
-        <f>IF(A95&gt;=Tabelle1!$C$21,0,IF($A95&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A95)+Tabelle1!$C$26,IF($A95&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A95+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A95&gt;=Tabelle1!$D$21,0,IF($A95&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A95)+Tabelle1!$D$26,IF($A95&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A95+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E95">
-        <f>IF(A95&gt;=Tabelle1!$C$21,0,IF($A95&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A95)+Tabelle1!$C$27,IF($A95&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A95+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A95&gt;=Tabelle1!$D$21,0,IF($A95&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A95)+Tabelle1!$D$27,IF($A95&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A95+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F95">
-        <f>IF(A95&gt;=Tabelle1!$C$21,0,IF($A95&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A95)+Tabelle1!$C$28,IF($A95&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A95+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A95&gt;=Tabelle1!$D$21,0,IF($A95&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A95)+Tabelle1!$D$28,IF($A95&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A95+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G95">
-        <f>IF(A95&gt;=Tabelle1!$C$21,0,IF($A95&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A95)+Tabelle1!$C$29,IF($A95&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A95+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A95&gt;=Tabelle1!$D$21,0,IF($A95&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A95)+Tabelle1!$D$29,IF($A95&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A95+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14217,27 +14043,27 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B96">
-        <f>IF(A96&gt;=Tabelle1!$C$21,0,IF($A96&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A96)+Tabelle1!$C$24,IF($A96&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A96+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A96&gt;=Tabelle1!$D$21,0,IF($A96&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A96)+Tabelle1!$D$24,IF($A96&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A96+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>IF(A96&gt;=Tabelle1!$C$21,0,IF($A96&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A96)+Tabelle1!$C$25,IF($A96&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A96+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A96&gt;=Tabelle1!$D$21,0,IF($A96&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A96)+Tabelle1!$D$25,IF($A96&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A96+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D96">
-        <f>IF(A96&gt;=Tabelle1!$C$21,0,IF($A96&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A96)+Tabelle1!$C$26,IF($A96&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A96+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A96&gt;=Tabelle1!$D$21,0,IF($A96&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A96)+Tabelle1!$D$26,IF($A96&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A96+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E96">
-        <f>IF(A96&gt;=Tabelle1!$C$21,0,IF($A96&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A96)+Tabelle1!$C$27,IF($A96&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A96+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A96&gt;=Tabelle1!$D$21,0,IF($A96&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A96)+Tabelle1!$D$27,IF($A96&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A96+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F96">
-        <f>IF(A96&gt;=Tabelle1!$C$21,0,IF($A96&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A96)+Tabelle1!$C$28,IF($A96&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A96+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A96&gt;=Tabelle1!$D$21,0,IF($A96&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A96)+Tabelle1!$D$28,IF($A96&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A96+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G96">
-        <f>IF(A96&gt;=Tabelle1!$C$21,0,IF($A96&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A96)+Tabelle1!$C$29,IF($A96&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A96+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A96&gt;=Tabelle1!$D$21,0,IF($A96&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A96)+Tabelle1!$D$29,IF($A96&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A96+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14246,27 +14072,27 @@
         <v>9.4</v>
       </c>
       <c r="B97">
-        <f>IF(A97&gt;=Tabelle1!$C$21,0,IF($A97&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A97)+Tabelle1!$C$24,IF($A97&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A97+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A97&gt;=Tabelle1!$D$21,0,IF($A97&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A97)+Tabelle1!$D$24,IF($A97&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A97+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C97">
-        <f>IF(A97&gt;=Tabelle1!$C$21,0,IF($A97&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A97)+Tabelle1!$C$25,IF($A97&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A97+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A97&gt;=Tabelle1!$D$21,0,IF($A97&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A97)+Tabelle1!$D$25,IF($A97&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A97+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D97">
-        <f>IF(A97&gt;=Tabelle1!$C$21,0,IF($A97&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A97)+Tabelle1!$C$26,IF($A97&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A97+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A97&gt;=Tabelle1!$D$21,0,IF($A97&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A97)+Tabelle1!$D$26,IF($A97&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A97+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E97">
-        <f>IF(A97&gt;=Tabelle1!$C$21,0,IF($A97&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A97)+Tabelle1!$C$27,IF($A97&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A97+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A97&gt;=Tabelle1!$D$21,0,IF($A97&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A97)+Tabelle1!$D$27,IF($A97&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A97+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F97">
-        <f>IF(A97&gt;=Tabelle1!$C$21,0,IF($A97&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A97)+Tabelle1!$C$28,IF($A97&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A97+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A97&gt;=Tabelle1!$D$21,0,IF($A97&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A97)+Tabelle1!$D$28,IF($A97&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A97+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G97">
-        <f>IF(A97&gt;=Tabelle1!$C$21,0,IF($A97&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A97)+Tabelle1!$C$29,IF($A97&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A97+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A97&gt;=Tabelle1!$D$21,0,IF($A97&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A97)+Tabelle1!$D$29,IF($A97&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A97+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14275,27 +14101,27 @@
         <v>9.5</v>
       </c>
       <c r="B98">
-        <f>IF(A98&gt;=Tabelle1!$C$21,0,IF($A98&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A98)+Tabelle1!$C$24,IF($A98&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A98+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A98&gt;=Tabelle1!$D$21,0,IF($A98&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A98)+Tabelle1!$D$24,IF($A98&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A98+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>IF(A98&gt;=Tabelle1!$C$21,0,IF($A98&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A98)+Tabelle1!$C$25,IF($A98&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A98+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A98&gt;=Tabelle1!$D$21,0,IF($A98&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A98)+Tabelle1!$D$25,IF($A98&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A98+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D98">
-        <f>IF(A98&gt;=Tabelle1!$C$21,0,IF($A98&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A98)+Tabelle1!$C$26,IF($A98&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A98+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A98&gt;=Tabelle1!$D$21,0,IF($A98&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A98)+Tabelle1!$D$26,IF($A98&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A98+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E98">
-        <f>IF(A98&gt;=Tabelle1!$C$21,0,IF($A98&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A98)+Tabelle1!$C$27,IF($A98&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A98+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A98&gt;=Tabelle1!$D$21,0,IF($A98&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A98)+Tabelle1!$D$27,IF($A98&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A98+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F98">
-        <f>IF(A98&gt;=Tabelle1!$C$21,0,IF($A98&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A98)+Tabelle1!$C$28,IF($A98&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A98+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A98&gt;=Tabelle1!$D$21,0,IF($A98&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A98)+Tabelle1!$D$28,IF($A98&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A98+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G98">
-        <f>IF(A98&gt;=Tabelle1!$C$21,0,IF($A98&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A98)+Tabelle1!$C$29,IF($A98&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A98+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A98&gt;=Tabelle1!$D$21,0,IF($A98&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A98)+Tabelle1!$D$29,IF($A98&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A98+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14304,27 +14130,27 @@
         <v>9.6</v>
       </c>
       <c r="B99">
-        <f>IF(A99&gt;=Tabelle1!$C$21,0,IF($A99&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A99)+Tabelle1!$C$24,IF($A99&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A99+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A99&gt;=Tabelle1!$D$21,0,IF($A99&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A99)+Tabelle1!$D$24,IF($A99&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A99+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C99">
-        <f>IF(A99&gt;=Tabelle1!$C$21,0,IF($A99&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A99)+Tabelle1!$C$25,IF($A99&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A99+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A99&gt;=Tabelle1!$D$21,0,IF($A99&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A99)+Tabelle1!$D$25,IF($A99&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A99+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D99">
-        <f>IF(A99&gt;=Tabelle1!$C$21,0,IF($A99&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A99)+Tabelle1!$C$26,IF($A99&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A99+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A99&gt;=Tabelle1!$D$21,0,IF($A99&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A99)+Tabelle1!$D$26,IF($A99&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A99+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E99">
-        <f>IF(A99&gt;=Tabelle1!$C$21,0,IF($A99&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A99)+Tabelle1!$C$27,IF($A99&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A99+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A99&gt;=Tabelle1!$D$21,0,IF($A99&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A99)+Tabelle1!$D$27,IF($A99&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A99+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F99">
-        <f>IF(A99&gt;=Tabelle1!$C$21,0,IF($A99&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A99)+Tabelle1!$C$28,IF($A99&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A99+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A99&gt;=Tabelle1!$D$21,0,IF($A99&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A99)+Tabelle1!$D$28,IF($A99&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A99+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G99">
-        <f>IF(A99&gt;=Tabelle1!$C$21,0,IF($A99&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A99)+Tabelle1!$C$29,IF($A99&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A99+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A99&gt;=Tabelle1!$D$21,0,IF($A99&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A99)+Tabelle1!$D$29,IF($A99&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A99+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14333,27 +14159,27 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="B100">
-        <f>IF(A100&gt;=Tabelle1!$C$21,0,IF($A100&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A100)+Tabelle1!$C$24,IF($A100&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A100+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A100&gt;=Tabelle1!$D$21,0,IF($A100&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A100)+Tabelle1!$D$24,IF($A100&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A100+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C100">
-        <f>IF(A100&gt;=Tabelle1!$C$21,0,IF($A100&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A100)+Tabelle1!$C$25,IF($A100&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A100+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A100&gt;=Tabelle1!$D$21,0,IF($A100&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A100)+Tabelle1!$D$25,IF($A100&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A100+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D100">
-        <f>IF(A100&gt;=Tabelle1!$C$21,0,IF($A100&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A100)+Tabelle1!$C$26,IF($A100&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A100+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A100&gt;=Tabelle1!$D$21,0,IF($A100&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A100)+Tabelle1!$D$26,IF($A100&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A100+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E100">
-        <f>IF(A100&gt;=Tabelle1!$C$21,0,IF($A100&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A100)+Tabelle1!$C$27,IF($A100&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A100+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A100&gt;=Tabelle1!$D$21,0,IF($A100&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A100)+Tabelle1!$D$27,IF($A100&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A100+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F100">
-        <f>IF(A100&gt;=Tabelle1!$C$21,0,IF($A100&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A100)+Tabelle1!$C$28,IF($A100&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A100+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A100&gt;=Tabelle1!$D$21,0,IF($A100&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A100)+Tabelle1!$D$28,IF($A100&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A100+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G100">
-        <f>IF(A100&gt;=Tabelle1!$C$21,0,IF($A100&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A100)+Tabelle1!$C$29,IF($A100&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A100+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A100&gt;=Tabelle1!$D$21,0,IF($A100&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A100)+Tabelle1!$D$29,IF($A100&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A100+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14362,27 +14188,27 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="B101">
-        <f>IF(A101&gt;=Tabelle1!$C$21,0,IF($A101&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A101)+Tabelle1!$C$24,IF($A101&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A101+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A101&gt;=Tabelle1!$D$21,0,IF($A101&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A101)+Tabelle1!$D$24,IF($A101&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A101+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C101">
-        <f>IF(A101&gt;=Tabelle1!$C$21,0,IF($A101&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A101)+Tabelle1!$C$25,IF($A101&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A101+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A101&gt;=Tabelle1!$D$21,0,IF($A101&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A101)+Tabelle1!$D$25,IF($A101&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A101+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D101">
-        <f>IF(A101&gt;=Tabelle1!$C$21,0,IF($A101&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A101)+Tabelle1!$C$26,IF($A101&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A101+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A101&gt;=Tabelle1!$D$21,0,IF($A101&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A101)+Tabelle1!$D$26,IF($A101&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A101+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E101">
-        <f>IF(A101&gt;=Tabelle1!$C$21,0,IF($A101&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A101)+Tabelle1!$C$27,IF($A101&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A101+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A101&gt;=Tabelle1!$D$21,0,IF($A101&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A101)+Tabelle1!$D$27,IF($A101&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A101+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F101">
-        <f>IF(A101&gt;=Tabelle1!$C$21,0,IF($A101&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A101)+Tabelle1!$C$28,IF($A101&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A101+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A101&gt;=Tabelle1!$D$21,0,IF($A101&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A101)+Tabelle1!$D$28,IF($A101&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A101+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G101">
-        <f>IF(A101&gt;=Tabelle1!$C$21,0,IF($A101&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A101)+Tabelle1!$C$29,IF($A101&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A101+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A101&gt;=Tabelle1!$D$21,0,IF($A101&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A101)+Tabelle1!$D$29,IF($A101&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A101+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14391,27 +14217,27 @@
         <v>9.9</v>
       </c>
       <c r="B102">
-        <f>IF(A102&gt;=Tabelle1!$C$21,0,IF($A102&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A102)+Tabelle1!$C$24,IF($A102&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A102+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A102&gt;=Tabelle1!$D$21,0,IF($A102&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A102)+Tabelle1!$D$24,IF($A102&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A102+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C102">
-        <f>IF(A102&gt;=Tabelle1!$C$21,0,IF($A102&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A102)+Tabelle1!$C$25,IF($A102&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A102+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A102&gt;=Tabelle1!$D$21,0,IF($A102&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A102)+Tabelle1!$D$25,IF($A102&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A102+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D102">
-        <f>IF(A102&gt;=Tabelle1!$C$21,0,IF($A102&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A102)+Tabelle1!$C$26,IF($A102&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A102+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A102&gt;=Tabelle1!$D$21,0,IF($A102&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A102)+Tabelle1!$D$26,IF($A102&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A102+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E102">
-        <f>IF(A102&gt;=Tabelle1!$C$21,0,IF($A102&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A102)+Tabelle1!$C$27,IF($A102&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A102+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A102&gt;=Tabelle1!$D$21,0,IF($A102&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A102)+Tabelle1!$D$27,IF($A102&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A102+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F102">
-        <f>IF(A102&gt;=Tabelle1!$C$21,0,IF($A102&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A102)+Tabelle1!$C$28,IF($A102&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A102+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A102&gt;=Tabelle1!$D$21,0,IF($A102&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A102)+Tabelle1!$D$28,IF($A102&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A102+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G102">
-        <f>IF(A102&gt;=Tabelle1!$C$21,0,IF($A102&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A102)+Tabelle1!$C$29,IF($A102&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A102+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A102&gt;=Tabelle1!$D$21,0,IF($A102&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A102)+Tabelle1!$D$29,IF($A102&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A102+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14420,27 +14246,27 @@
         <v>10</v>
       </c>
       <c r="B103">
-        <f>IF(A103&gt;=Tabelle1!$C$21,0,IF($A103&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A103)+Tabelle1!$C$24,IF($A103&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A103+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A103&gt;=Tabelle1!$D$21,0,IF($A103&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A103)+Tabelle1!$D$24,IF($A103&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A103+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C103">
-        <f>IF(A103&gt;=Tabelle1!$C$21,0,IF($A103&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A103)+Tabelle1!$C$25,IF($A103&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A103+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A103&gt;=Tabelle1!$D$21,0,IF($A103&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A103)+Tabelle1!$D$25,IF($A103&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A103+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D103">
-        <f>IF(A103&gt;=Tabelle1!$C$21,0,IF($A103&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A103)+Tabelle1!$C$26,IF($A103&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A103+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A103&gt;=Tabelle1!$D$21,0,IF($A103&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A103)+Tabelle1!$D$26,IF($A103&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A103+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E103">
-        <f>IF(A103&gt;=Tabelle1!$C$21,0,IF($A103&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A103)+Tabelle1!$C$27,IF($A103&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A103+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A103&gt;=Tabelle1!$D$21,0,IF($A103&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A103)+Tabelle1!$D$27,IF($A103&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A103+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F103">
-        <f>IF(A103&gt;=Tabelle1!$C$21,0,IF($A103&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A103)+Tabelle1!$C$28,IF($A103&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A103+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A103&gt;=Tabelle1!$D$21,0,IF($A103&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A103)+Tabelle1!$D$28,IF($A103&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A103+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G103">
-        <f>IF(A103&gt;=Tabelle1!$C$21,0,IF($A103&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A103)+Tabelle1!$C$29,IF($A103&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A103+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A103&gt;=Tabelle1!$D$21,0,IF($A103&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A103)+Tabelle1!$D$29,IF($A103&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A103+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14449,27 +14275,27 @@
         <v>10.1</v>
       </c>
       <c r="B104">
-        <f>IF(A104&gt;=Tabelle1!$C$21,0,IF($A104&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A104)+Tabelle1!$C$24,IF($A104&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A104+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A104&gt;=Tabelle1!$D$21,0,IF($A104&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A104)+Tabelle1!$D$24,IF($A104&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A104+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C104">
-        <f>IF(A104&gt;=Tabelle1!$C$21,0,IF($A104&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A104)+Tabelle1!$C$25,IF($A104&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A104+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A104&gt;=Tabelle1!$D$21,0,IF($A104&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A104)+Tabelle1!$D$25,IF($A104&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A104+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D104">
-        <f>IF(A104&gt;=Tabelle1!$C$21,0,IF($A104&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A104)+Tabelle1!$C$26,IF($A104&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A104+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A104&gt;=Tabelle1!$D$21,0,IF($A104&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A104)+Tabelle1!$D$26,IF($A104&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A104+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E104">
-        <f>IF(A104&gt;=Tabelle1!$C$21,0,IF($A104&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A104)+Tabelle1!$C$27,IF($A104&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A104+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A104&gt;=Tabelle1!$D$21,0,IF($A104&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A104)+Tabelle1!$D$27,IF($A104&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A104+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F104">
-        <f>IF(A104&gt;=Tabelle1!$C$21,0,IF($A104&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A104)+Tabelle1!$C$28,IF($A104&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A104+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A104&gt;=Tabelle1!$D$21,0,IF($A104&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A104)+Tabelle1!$D$28,IF($A104&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A104+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G104">
-        <f>IF(A104&gt;=Tabelle1!$C$21,0,IF($A104&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A104)+Tabelle1!$C$29,IF($A104&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A104+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A104&gt;=Tabelle1!$D$21,0,IF($A104&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A104)+Tabelle1!$D$29,IF($A104&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A104+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14478,27 +14304,27 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B105">
-        <f>IF(A105&gt;=Tabelle1!$C$21,0,IF($A105&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A105)+Tabelle1!$C$24,IF($A105&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A105+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A105&gt;=Tabelle1!$D$21,0,IF($A105&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A105)+Tabelle1!$D$24,IF($A105&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A105+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C105">
-        <f>IF(A105&gt;=Tabelle1!$C$21,0,IF($A105&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A105)+Tabelle1!$C$25,IF($A105&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A105+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A105&gt;=Tabelle1!$D$21,0,IF($A105&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A105)+Tabelle1!$D$25,IF($A105&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A105+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D105">
-        <f>IF(A105&gt;=Tabelle1!$C$21,0,IF($A105&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A105)+Tabelle1!$C$26,IF($A105&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A105+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A105&gt;=Tabelle1!$D$21,0,IF($A105&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A105)+Tabelle1!$D$26,IF($A105&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A105+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E105">
-        <f>IF(A105&gt;=Tabelle1!$C$21,0,IF($A105&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A105)+Tabelle1!$C$27,IF($A105&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A105+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A105&gt;=Tabelle1!$D$21,0,IF($A105&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A105)+Tabelle1!$D$27,IF($A105&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A105+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F105">
-        <f>IF(A105&gt;=Tabelle1!$C$21,0,IF($A105&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A105)+Tabelle1!$C$28,IF($A105&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A105+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A105&gt;=Tabelle1!$D$21,0,IF($A105&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A105)+Tabelle1!$D$28,IF($A105&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A105+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G105">
-        <f>IF(A105&gt;=Tabelle1!$C$21,0,IF($A105&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A105)+Tabelle1!$C$29,IF($A105&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A105+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A105&gt;=Tabelle1!$D$21,0,IF($A105&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A105)+Tabelle1!$D$29,IF($A105&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A105+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14507,27 +14333,27 @@
         <v>10.3</v>
       </c>
       <c r="B106">
-        <f>IF(A106&gt;=Tabelle1!$C$21,0,IF($A106&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A106)+Tabelle1!$C$24,IF($A106&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A106+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A106&gt;=Tabelle1!$D$21,0,IF($A106&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A106)+Tabelle1!$D$24,IF($A106&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A106+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C106">
-        <f>IF(A106&gt;=Tabelle1!$C$21,0,IF($A106&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A106)+Tabelle1!$C$25,IF($A106&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A106+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A106&gt;=Tabelle1!$D$21,0,IF($A106&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A106)+Tabelle1!$D$25,IF($A106&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A106+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D106">
-        <f>IF(A106&gt;=Tabelle1!$C$21,0,IF($A106&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A106)+Tabelle1!$C$26,IF($A106&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A106+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A106&gt;=Tabelle1!$D$21,0,IF($A106&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A106)+Tabelle1!$D$26,IF($A106&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A106+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E106">
-        <f>IF(A106&gt;=Tabelle1!$C$21,0,IF($A106&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A106)+Tabelle1!$C$27,IF($A106&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A106+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A106&gt;=Tabelle1!$D$21,0,IF($A106&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A106)+Tabelle1!$D$27,IF($A106&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A106+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F106">
-        <f>IF(A106&gt;=Tabelle1!$C$21,0,IF($A106&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A106)+Tabelle1!$C$28,IF($A106&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A106+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A106&gt;=Tabelle1!$D$21,0,IF($A106&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A106)+Tabelle1!$D$28,IF($A106&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A106+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G106">
-        <f>IF(A106&gt;=Tabelle1!$C$21,0,IF($A106&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A106)+Tabelle1!$C$29,IF($A106&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A106+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A106&gt;=Tabelle1!$D$21,0,IF($A106&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A106)+Tabelle1!$D$29,IF($A106&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A106+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14536,27 +14362,27 @@
         <v>10.4</v>
       </c>
       <c r="B107">
-        <f>IF(A107&gt;=Tabelle1!$C$21,0,IF($A107&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A107)+Tabelle1!$C$24,IF($A107&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A107+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A107&gt;=Tabelle1!$D$21,0,IF($A107&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A107)+Tabelle1!$D$24,IF($A107&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A107+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C107">
-        <f>IF(A107&gt;=Tabelle1!$C$21,0,IF($A107&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A107)+Tabelle1!$C$25,IF($A107&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A107+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A107&gt;=Tabelle1!$D$21,0,IF($A107&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A107)+Tabelle1!$D$25,IF($A107&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A107+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D107">
-        <f>IF(A107&gt;=Tabelle1!$C$21,0,IF($A107&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A107)+Tabelle1!$C$26,IF($A107&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A107+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A107&gt;=Tabelle1!$D$21,0,IF($A107&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A107)+Tabelle1!$D$26,IF($A107&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A107+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E107">
-        <f>IF(A107&gt;=Tabelle1!$C$21,0,IF($A107&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A107)+Tabelle1!$C$27,IF($A107&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A107+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A107&gt;=Tabelle1!$D$21,0,IF($A107&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A107)+Tabelle1!$D$27,IF($A107&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A107+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F107">
-        <f>IF(A107&gt;=Tabelle1!$C$21,0,IF($A107&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A107)+Tabelle1!$C$28,IF($A107&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A107+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A107&gt;=Tabelle1!$D$21,0,IF($A107&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A107)+Tabelle1!$D$28,IF($A107&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A107+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G107">
-        <f>IF(A107&gt;=Tabelle1!$C$21,0,IF($A107&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A107)+Tabelle1!$C$29,IF($A107&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A107+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A107&gt;=Tabelle1!$D$21,0,IF($A107&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A107)+Tabelle1!$D$29,IF($A107&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A107+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14565,27 +14391,27 @@
         <v>10.5</v>
       </c>
       <c r="B108">
-        <f>IF(A108&gt;=Tabelle1!$C$21,0,IF($A108&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A108)+Tabelle1!$C$24,IF($A108&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A108+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A108&gt;=Tabelle1!$D$21,0,IF($A108&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A108)+Tabelle1!$D$24,IF($A108&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A108+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C108">
-        <f>IF(A108&gt;=Tabelle1!$C$21,0,IF($A108&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A108)+Tabelle1!$C$25,IF($A108&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A108+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A108&gt;=Tabelle1!$D$21,0,IF($A108&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A108)+Tabelle1!$D$25,IF($A108&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A108+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D108">
-        <f>IF(A108&gt;=Tabelle1!$C$21,0,IF($A108&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A108)+Tabelle1!$C$26,IF($A108&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A108+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A108&gt;=Tabelle1!$D$21,0,IF($A108&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A108)+Tabelle1!$D$26,IF($A108&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A108+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E108">
-        <f>IF(A108&gt;=Tabelle1!$C$21,0,IF($A108&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A108)+Tabelle1!$C$27,IF($A108&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A108+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A108&gt;=Tabelle1!$D$21,0,IF($A108&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A108)+Tabelle1!$D$27,IF($A108&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A108+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F108">
-        <f>IF(A108&gt;=Tabelle1!$C$21,0,IF($A108&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A108)+Tabelle1!$C$28,IF($A108&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A108+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A108&gt;=Tabelle1!$D$21,0,IF($A108&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A108)+Tabelle1!$D$28,IF($A108&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A108+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G108">
-        <f>IF(A108&gt;=Tabelle1!$C$21,0,IF($A108&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A108)+Tabelle1!$C$29,IF($A108&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A108+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A108&gt;=Tabelle1!$D$21,0,IF($A108&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A108)+Tabelle1!$D$29,IF($A108&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A108+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14594,27 +14420,27 @@
         <v>10.6</v>
       </c>
       <c r="B109">
-        <f>IF(A109&gt;=Tabelle1!$C$21,0,IF($A109&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A109)+Tabelle1!$C$24,IF($A109&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A109+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A109&gt;=Tabelle1!$D$21,0,IF($A109&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A109)+Tabelle1!$D$24,IF($A109&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A109+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C109">
-        <f>IF(A109&gt;=Tabelle1!$C$21,0,IF($A109&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A109)+Tabelle1!$C$25,IF($A109&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A109+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A109&gt;=Tabelle1!$D$21,0,IF($A109&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A109)+Tabelle1!$D$25,IF($A109&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A109+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D109">
-        <f>IF(A109&gt;=Tabelle1!$C$21,0,IF($A109&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A109)+Tabelle1!$C$26,IF($A109&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A109+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A109&gt;=Tabelle1!$D$21,0,IF($A109&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A109)+Tabelle1!$D$26,IF($A109&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A109+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E109">
-        <f>IF(A109&gt;=Tabelle1!$C$21,0,IF($A109&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A109)+Tabelle1!$C$27,IF($A109&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A109+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A109&gt;=Tabelle1!$D$21,0,IF($A109&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A109)+Tabelle1!$D$27,IF($A109&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A109+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F109">
-        <f>IF(A109&gt;=Tabelle1!$C$21,0,IF($A109&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A109)+Tabelle1!$C$28,IF($A109&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A109+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A109&gt;=Tabelle1!$D$21,0,IF($A109&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A109)+Tabelle1!$D$28,IF($A109&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A109+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G109">
-        <f>IF(A109&gt;=Tabelle1!$C$21,0,IF($A109&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A109)+Tabelle1!$C$29,IF($A109&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A109+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A109&gt;=Tabelle1!$D$21,0,IF($A109&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A109)+Tabelle1!$D$29,IF($A109&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A109+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14623,27 +14449,27 @@
         <v>10.7</v>
       </c>
       <c r="B110">
-        <f>IF(A110&gt;=Tabelle1!$C$21,0,IF($A110&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A110)+Tabelle1!$C$24,IF($A110&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A110+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A110&gt;=Tabelle1!$D$21,0,IF($A110&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A110)+Tabelle1!$D$24,IF($A110&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A110+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C110">
-        <f>IF(A110&gt;=Tabelle1!$C$21,0,IF($A110&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A110)+Tabelle1!$C$25,IF($A110&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A110+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A110&gt;=Tabelle1!$D$21,0,IF($A110&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A110)+Tabelle1!$D$25,IF($A110&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A110+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D110">
-        <f>IF(A110&gt;=Tabelle1!$C$21,0,IF($A110&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A110)+Tabelle1!$C$26,IF($A110&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A110+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A110&gt;=Tabelle1!$D$21,0,IF($A110&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A110)+Tabelle1!$D$26,IF($A110&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A110+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E110">
-        <f>IF(A110&gt;=Tabelle1!$C$21,0,IF($A110&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A110)+Tabelle1!$C$27,IF($A110&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A110+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A110&gt;=Tabelle1!$D$21,0,IF($A110&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A110)+Tabelle1!$D$27,IF($A110&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A110+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F110">
-        <f>IF(A110&gt;=Tabelle1!$C$21,0,IF($A110&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A110)+Tabelle1!$C$28,IF($A110&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A110+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A110&gt;=Tabelle1!$D$21,0,IF($A110&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A110)+Tabelle1!$D$28,IF($A110&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A110+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G110">
-        <f>IF(A110&gt;=Tabelle1!$C$21,0,IF($A110&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A110)+Tabelle1!$C$29,IF($A110&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A110+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A110&gt;=Tabelle1!$D$21,0,IF($A110&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A110)+Tabelle1!$D$29,IF($A110&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A110+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14652,27 +14478,27 @@
         <v>10.8</v>
       </c>
       <c r="B111">
-        <f>IF(A111&gt;=Tabelle1!$C$21,0,IF($A111&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A111)+Tabelle1!$C$24,IF($A111&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A111+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A111&gt;=Tabelle1!$D$21,0,IF($A111&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A111)+Tabelle1!$D$24,IF($A111&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A111+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C111">
-        <f>IF(A111&gt;=Tabelle1!$C$21,0,IF($A111&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A111)+Tabelle1!$C$25,IF($A111&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A111+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A111&gt;=Tabelle1!$D$21,0,IF($A111&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A111)+Tabelle1!$D$25,IF($A111&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A111+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D111">
-        <f>IF(A111&gt;=Tabelle1!$C$21,0,IF($A111&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A111)+Tabelle1!$C$26,IF($A111&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A111+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A111&gt;=Tabelle1!$D$21,0,IF($A111&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A111)+Tabelle1!$D$26,IF($A111&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A111+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E111">
-        <f>IF(A111&gt;=Tabelle1!$C$21,0,IF($A111&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A111)+Tabelle1!$C$27,IF($A111&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A111+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A111&gt;=Tabelle1!$D$21,0,IF($A111&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A111)+Tabelle1!$D$27,IF($A111&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A111+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F111">
-        <f>IF(A111&gt;=Tabelle1!$C$21,0,IF($A111&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A111)+Tabelle1!$C$28,IF($A111&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A111+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A111&gt;=Tabelle1!$D$21,0,IF($A111&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A111)+Tabelle1!$D$28,IF($A111&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A111+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G111">
-        <f>IF(A111&gt;=Tabelle1!$C$21,0,IF($A111&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A111)+Tabelle1!$C$29,IF($A111&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A111+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A111&gt;=Tabelle1!$D$21,0,IF($A111&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A111)+Tabelle1!$D$29,IF($A111&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A111+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14681,27 +14507,27 @@
         <v>10.9</v>
       </c>
       <c r="B112">
-        <f>IF(A112&gt;=Tabelle1!$C$21,0,IF($A112&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A112)+Tabelle1!$C$24,IF($A112&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A112+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A112&gt;=Tabelle1!$D$21,0,IF($A112&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A112)+Tabelle1!$D$24,IF($A112&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A112+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C112">
-        <f>IF(A112&gt;=Tabelle1!$C$21,0,IF($A112&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A112)+Tabelle1!$C$25,IF($A112&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A112+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A112&gt;=Tabelle1!$D$21,0,IF($A112&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A112)+Tabelle1!$D$25,IF($A112&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A112+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D112">
-        <f>IF(A112&gt;=Tabelle1!$C$21,0,IF($A112&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A112)+Tabelle1!$C$26,IF($A112&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A112+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A112&gt;=Tabelle1!$D$21,0,IF($A112&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A112)+Tabelle1!$D$26,IF($A112&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A112+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E112">
-        <f>IF(A112&gt;=Tabelle1!$C$21,0,IF($A112&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A112)+Tabelle1!$C$27,IF($A112&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A112+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A112&gt;=Tabelle1!$D$21,0,IF($A112&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A112)+Tabelle1!$D$27,IF($A112&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A112+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F112">
-        <f>IF(A112&gt;=Tabelle1!$C$21,0,IF($A112&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A112)+Tabelle1!$C$28,IF($A112&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A112+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A112&gt;=Tabelle1!$D$21,0,IF($A112&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A112)+Tabelle1!$D$28,IF($A112&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A112+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G112">
-        <f>IF(A112&gt;=Tabelle1!$C$21,0,IF($A112&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A112)+Tabelle1!$C$29,IF($A112&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A112+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A112&gt;=Tabelle1!$D$21,0,IF($A112&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A112)+Tabelle1!$D$29,IF($A112&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A112+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14710,27 +14536,27 @@
         <v>11</v>
       </c>
       <c r="B113">
-        <f>IF(A113&gt;=Tabelle1!$C$21,0,IF($A113&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A113)+Tabelle1!$C$24,IF($A113&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A113+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A113&gt;=Tabelle1!$D$21,0,IF($A113&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A113)+Tabelle1!$D$24,IF($A113&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A113+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C113">
-        <f>IF(A113&gt;=Tabelle1!$C$21,0,IF($A113&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A113)+Tabelle1!$C$25,IF($A113&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A113+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A113&gt;=Tabelle1!$D$21,0,IF($A113&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A113)+Tabelle1!$D$25,IF($A113&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A113+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D113">
-        <f>IF(A113&gt;=Tabelle1!$C$21,0,IF($A113&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A113)+Tabelle1!$C$26,IF($A113&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A113+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A113&gt;=Tabelle1!$D$21,0,IF($A113&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A113)+Tabelle1!$D$26,IF($A113&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A113+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E113">
-        <f>IF(A113&gt;=Tabelle1!$C$21,0,IF($A113&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A113)+Tabelle1!$C$27,IF($A113&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A113+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A113&gt;=Tabelle1!$D$21,0,IF($A113&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A113)+Tabelle1!$D$27,IF($A113&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A113+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F113">
-        <f>IF(A113&gt;=Tabelle1!$C$21,0,IF($A113&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A113)+Tabelle1!$C$28,IF($A113&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A113+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A113&gt;=Tabelle1!$D$21,0,IF($A113&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A113)+Tabelle1!$D$28,IF($A113&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A113+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G113">
-        <f>IF(A113&gt;=Tabelle1!$C$21,0,IF($A113&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A113)+Tabelle1!$C$29,IF($A113&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A113+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A113&gt;=Tabelle1!$D$21,0,IF($A113&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A113)+Tabelle1!$D$29,IF($A113&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A113+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14739,27 +14565,27 @@
         <v>11.1</v>
       </c>
       <c r="B114">
-        <f>IF(A114&gt;=Tabelle1!$C$21,0,IF($A114&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A114)+Tabelle1!$C$24,IF($A114&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A114+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A114&gt;=Tabelle1!$D$21,0,IF($A114&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A114)+Tabelle1!$D$24,IF($A114&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A114+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C114">
-        <f>IF(A114&gt;=Tabelle1!$C$21,0,IF($A114&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A114)+Tabelle1!$C$25,IF($A114&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A114+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A114&gt;=Tabelle1!$D$21,0,IF($A114&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A114)+Tabelle1!$D$25,IF($A114&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A114+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D114">
-        <f>IF(A114&gt;=Tabelle1!$C$21,0,IF($A114&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A114)+Tabelle1!$C$26,IF($A114&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A114+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A114&gt;=Tabelle1!$D$21,0,IF($A114&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A114)+Tabelle1!$D$26,IF($A114&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A114+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E114">
-        <f>IF(A114&gt;=Tabelle1!$C$21,0,IF($A114&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A114)+Tabelle1!$C$27,IF($A114&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A114+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A114&gt;=Tabelle1!$D$21,0,IF($A114&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A114)+Tabelle1!$D$27,IF($A114&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A114+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F114">
-        <f>IF(A114&gt;=Tabelle1!$C$21,0,IF($A114&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A114)+Tabelle1!$C$28,IF($A114&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A114+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A114&gt;=Tabelle1!$D$21,0,IF($A114&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A114)+Tabelle1!$D$28,IF($A114&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A114+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G114">
-        <f>IF(A114&gt;=Tabelle1!$C$21,0,IF($A114&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A114)+Tabelle1!$C$29,IF($A114&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A114+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A114&gt;=Tabelle1!$D$21,0,IF($A114&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A114)+Tabelle1!$D$29,IF($A114&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A114+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14768,27 +14594,27 @@
         <v>11.2</v>
       </c>
       <c r="B115">
-        <f>IF(A115&gt;=Tabelle1!$C$21,0,IF($A115&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A115)+Tabelle1!$C$24,IF($A115&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A115+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A115&gt;=Tabelle1!$D$21,0,IF($A115&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A115)+Tabelle1!$D$24,IF($A115&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A115+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C115">
-        <f>IF(A115&gt;=Tabelle1!$C$21,0,IF($A115&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A115)+Tabelle1!$C$25,IF($A115&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A115+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A115&gt;=Tabelle1!$D$21,0,IF($A115&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A115)+Tabelle1!$D$25,IF($A115&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A115+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D115">
-        <f>IF(A115&gt;=Tabelle1!$C$21,0,IF($A115&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A115)+Tabelle1!$C$26,IF($A115&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A115+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A115&gt;=Tabelle1!$D$21,0,IF($A115&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A115)+Tabelle1!$D$26,IF($A115&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A115+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E115">
-        <f>IF(A115&gt;=Tabelle1!$C$21,0,IF($A115&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A115)+Tabelle1!$C$27,IF($A115&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A115+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A115&gt;=Tabelle1!$D$21,0,IF($A115&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A115)+Tabelle1!$D$27,IF($A115&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A115+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F115">
-        <f>IF(A115&gt;=Tabelle1!$C$21,0,IF($A115&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A115)+Tabelle1!$C$28,IF($A115&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A115+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A115&gt;=Tabelle1!$D$21,0,IF($A115&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A115)+Tabelle1!$D$28,IF($A115&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A115+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G115">
-        <f>IF(A115&gt;=Tabelle1!$C$21,0,IF($A115&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A115)+Tabelle1!$C$29,IF($A115&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A115+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A115&gt;=Tabelle1!$D$21,0,IF($A115&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A115)+Tabelle1!$D$29,IF($A115&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A115+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14797,27 +14623,27 @@
         <v>11.3</v>
       </c>
       <c r="B116">
-        <f>IF(A116&gt;=Tabelle1!$C$21,0,IF($A116&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A116)+Tabelle1!$C$24,IF($A116&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A116+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A116&gt;=Tabelle1!$D$21,0,IF($A116&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A116)+Tabelle1!$D$24,IF($A116&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A116+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C116">
-        <f>IF(A116&gt;=Tabelle1!$C$21,0,IF($A116&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A116)+Tabelle1!$C$25,IF($A116&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A116+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A116&gt;=Tabelle1!$D$21,0,IF($A116&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A116)+Tabelle1!$D$25,IF($A116&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A116+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D116">
-        <f>IF(A116&gt;=Tabelle1!$C$21,0,IF($A116&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A116)+Tabelle1!$C$26,IF($A116&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A116+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A116&gt;=Tabelle1!$D$21,0,IF($A116&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A116)+Tabelle1!$D$26,IF($A116&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A116+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E116">
-        <f>IF(A116&gt;=Tabelle1!$C$21,0,IF($A116&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A116)+Tabelle1!$C$27,IF($A116&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A116+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A116&gt;=Tabelle1!$D$21,0,IF($A116&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A116)+Tabelle1!$D$27,IF($A116&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A116+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F116">
-        <f>IF(A116&gt;=Tabelle1!$C$21,0,IF($A116&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A116)+Tabelle1!$C$28,IF($A116&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A116+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A116&gt;=Tabelle1!$D$21,0,IF($A116&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A116)+Tabelle1!$D$28,IF($A116&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A116+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G116">
-        <f>IF(A116&gt;=Tabelle1!$C$21,0,IF($A116&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A116)+Tabelle1!$C$29,IF($A116&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A116+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A116&gt;=Tabelle1!$D$21,0,IF($A116&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A116)+Tabelle1!$D$29,IF($A116&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A116+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14826,27 +14652,27 @@
         <v>11.4</v>
       </c>
       <c r="B117">
-        <f>IF(A117&gt;=Tabelle1!$C$21,0,IF($A117&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A117)+Tabelle1!$C$24,IF($A117&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A117+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A117&gt;=Tabelle1!$D$21,0,IF($A117&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A117)+Tabelle1!$D$24,IF($A117&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A117+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C117">
-        <f>IF(A117&gt;=Tabelle1!$C$21,0,IF($A117&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A117)+Tabelle1!$C$25,IF($A117&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A117+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A117&gt;=Tabelle1!$D$21,0,IF($A117&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A117)+Tabelle1!$D$25,IF($A117&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A117+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D117">
-        <f>IF(A117&gt;=Tabelle1!$C$21,0,IF($A117&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A117)+Tabelle1!$C$26,IF($A117&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A117+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A117&gt;=Tabelle1!$D$21,0,IF($A117&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A117)+Tabelle1!$D$26,IF($A117&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A117+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E117">
-        <f>IF(A117&gt;=Tabelle1!$C$21,0,IF($A117&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A117)+Tabelle1!$C$27,IF($A117&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A117+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A117&gt;=Tabelle1!$D$21,0,IF($A117&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A117)+Tabelle1!$D$27,IF($A117&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A117+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F117">
-        <f>IF(A117&gt;=Tabelle1!$C$21,0,IF($A117&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A117)+Tabelle1!$C$28,IF($A117&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A117+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A117&gt;=Tabelle1!$D$21,0,IF($A117&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A117)+Tabelle1!$D$28,IF($A117&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A117+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G117">
-        <f>IF(A117&gt;=Tabelle1!$C$21,0,IF($A117&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A117)+Tabelle1!$C$29,IF($A117&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A117+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A117&gt;=Tabelle1!$D$21,0,IF($A117&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A117)+Tabelle1!$D$29,IF($A117&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A117+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14855,27 +14681,27 @@
         <v>11.5</v>
       </c>
       <c r="B118">
-        <f>IF(A118&gt;=Tabelle1!$C$21,0,IF($A118&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A118)+Tabelle1!$C$24,IF($A118&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A118+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A118&gt;=Tabelle1!$D$21,0,IF($A118&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A118)+Tabelle1!$D$24,IF($A118&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A118+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C118">
-        <f>IF(A118&gt;=Tabelle1!$C$21,0,IF($A118&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A118)+Tabelle1!$C$25,IF($A118&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A118+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A118&gt;=Tabelle1!$D$21,0,IF($A118&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A118)+Tabelle1!$D$25,IF($A118&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A118+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D118">
-        <f>IF(A118&gt;=Tabelle1!$C$21,0,IF($A118&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A118)+Tabelle1!$C$26,IF($A118&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A118+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A118&gt;=Tabelle1!$D$21,0,IF($A118&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A118)+Tabelle1!$D$26,IF($A118&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A118+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E118">
-        <f>IF(A118&gt;=Tabelle1!$C$21,0,IF($A118&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A118)+Tabelle1!$C$27,IF($A118&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A118+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A118&gt;=Tabelle1!$D$21,0,IF($A118&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A118)+Tabelle1!$D$27,IF($A118&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A118+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F118">
-        <f>IF(A118&gt;=Tabelle1!$C$21,0,IF($A118&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A118)+Tabelle1!$C$28,IF($A118&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A118+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A118&gt;=Tabelle1!$D$21,0,IF($A118&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A118)+Tabelle1!$D$28,IF($A118&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A118+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G118">
-        <f>IF(A118&gt;=Tabelle1!$C$21,0,IF($A118&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A118)+Tabelle1!$C$29,IF($A118&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A118+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A118&gt;=Tabelle1!$D$21,0,IF($A118&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A118)+Tabelle1!$D$29,IF($A118&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A118+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14884,27 +14710,27 @@
         <v>11.6</v>
       </c>
       <c r="B119">
-        <f>IF(A119&gt;=Tabelle1!$C$21,0,IF($A119&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A119)+Tabelle1!$C$24,IF($A119&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A119+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A119&gt;=Tabelle1!$D$21,0,IF($A119&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A119)+Tabelle1!$D$24,IF($A119&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A119+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C119">
-        <f>IF(A119&gt;=Tabelle1!$C$21,0,IF($A119&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A119)+Tabelle1!$C$25,IF($A119&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A119+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A119&gt;=Tabelle1!$D$21,0,IF($A119&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A119)+Tabelle1!$D$25,IF($A119&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A119+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D119">
-        <f>IF(A119&gt;=Tabelle1!$C$21,0,IF($A119&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A119)+Tabelle1!$C$26,IF($A119&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A119+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A119&gt;=Tabelle1!$D$21,0,IF($A119&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A119)+Tabelle1!$D$26,IF($A119&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A119+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E119">
-        <f>IF(A119&gt;=Tabelle1!$C$21,0,IF($A119&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A119)+Tabelle1!$C$27,IF($A119&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A119+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A119&gt;=Tabelle1!$D$21,0,IF($A119&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A119)+Tabelle1!$D$27,IF($A119&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A119+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F119">
-        <f>IF(A119&gt;=Tabelle1!$C$21,0,IF($A119&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A119)+Tabelle1!$C$28,IF($A119&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A119+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A119&gt;=Tabelle1!$D$21,0,IF($A119&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A119)+Tabelle1!$D$28,IF($A119&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A119+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G119">
-        <f>IF(A119&gt;=Tabelle1!$C$21,0,IF($A119&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A119)+Tabelle1!$C$29,IF($A119&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A119+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A119&gt;=Tabelle1!$D$21,0,IF($A119&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A119)+Tabelle1!$D$29,IF($A119&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A119+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14913,27 +14739,27 @@
         <v>11.7</v>
       </c>
       <c r="B120">
-        <f>IF(A120&gt;=Tabelle1!$C$21,0,IF($A120&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A120)+Tabelle1!$C$24,IF($A120&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A120+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A120&gt;=Tabelle1!$D$21,0,IF($A120&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A120)+Tabelle1!$D$24,IF($A120&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A120+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C120">
-        <f>IF(A120&gt;=Tabelle1!$C$21,0,IF($A120&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A120)+Tabelle1!$C$25,IF($A120&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A120+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A120&gt;=Tabelle1!$D$21,0,IF($A120&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A120)+Tabelle1!$D$25,IF($A120&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A120+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D120">
-        <f>IF(A120&gt;=Tabelle1!$C$21,0,IF($A120&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A120)+Tabelle1!$C$26,IF($A120&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A120+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A120&gt;=Tabelle1!$D$21,0,IF($A120&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A120)+Tabelle1!$D$26,IF($A120&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A120+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E120">
-        <f>IF(A120&gt;=Tabelle1!$C$21,0,IF($A120&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A120)+Tabelle1!$C$27,IF($A120&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A120+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A120&gt;=Tabelle1!$D$21,0,IF($A120&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A120)+Tabelle1!$D$27,IF($A120&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A120+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F120">
-        <f>IF(A120&gt;=Tabelle1!$C$21,0,IF($A120&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A120)+Tabelle1!$C$28,IF($A120&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A120+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A120&gt;=Tabelle1!$D$21,0,IF($A120&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A120)+Tabelle1!$D$28,IF($A120&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A120+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G120">
-        <f>IF(A120&gt;=Tabelle1!$C$21,0,IF($A120&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A120)+Tabelle1!$C$29,IF($A120&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A120+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A120&gt;=Tabelle1!$D$21,0,IF($A120&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A120)+Tabelle1!$D$29,IF($A120&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A120+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14942,27 +14768,27 @@
         <v>11.8</v>
       </c>
       <c r="B121">
-        <f>IF(A121&gt;=Tabelle1!$C$21,0,IF($A121&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A121)+Tabelle1!$C$24,IF($A121&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A121+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A121&gt;=Tabelle1!$D$21,0,IF($A121&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A121)+Tabelle1!$D$24,IF($A121&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A121+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C121">
-        <f>IF(A121&gt;=Tabelle1!$C$21,0,IF($A121&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A121)+Tabelle1!$C$25,IF($A121&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A121+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A121&gt;=Tabelle1!$D$21,0,IF($A121&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A121)+Tabelle1!$D$25,IF($A121&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A121+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D121">
-        <f>IF(A121&gt;=Tabelle1!$C$21,0,IF($A121&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A121)+Tabelle1!$C$26,IF($A121&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A121+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A121&gt;=Tabelle1!$D$21,0,IF($A121&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A121)+Tabelle1!$D$26,IF($A121&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A121+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E121">
-        <f>IF(A121&gt;=Tabelle1!$C$21,0,IF($A121&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A121)+Tabelle1!$C$27,IF($A121&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A121+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A121&gt;=Tabelle1!$D$21,0,IF($A121&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A121)+Tabelle1!$D$27,IF($A121&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A121+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F121">
-        <f>IF(A121&gt;=Tabelle1!$C$21,0,IF($A121&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A121)+Tabelle1!$C$28,IF($A121&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A121+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A121&gt;=Tabelle1!$D$21,0,IF($A121&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A121)+Tabelle1!$D$28,IF($A121&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A121+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G121">
-        <f>IF(A121&gt;=Tabelle1!$C$21,0,IF($A121&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A121)+Tabelle1!$C$29,IF($A121&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A121+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A121&gt;=Tabelle1!$D$21,0,IF($A121&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A121)+Tabelle1!$D$29,IF($A121&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A121+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -14971,27 +14797,27 @@
         <v>11.9</v>
       </c>
       <c r="B122">
-        <f>IF(A122&gt;=Tabelle1!$C$21,0,IF($A122&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A122)+Tabelle1!$C$24,IF($A122&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A122+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A122&gt;=Tabelle1!$D$21,0,IF($A122&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A122)+Tabelle1!$D$24,IF($A122&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A122+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C122">
-        <f>IF(A122&gt;=Tabelle1!$C$21,0,IF($A122&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A122)+Tabelle1!$C$25,IF($A122&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A122+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A122&gt;=Tabelle1!$D$21,0,IF($A122&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A122)+Tabelle1!$D$25,IF($A122&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A122+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D122">
-        <f>IF(A122&gt;=Tabelle1!$C$21,0,IF($A122&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A122)+Tabelle1!$C$26,IF($A122&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A122+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A122&gt;=Tabelle1!$D$21,0,IF($A122&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A122)+Tabelle1!$D$26,IF($A122&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A122+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E122">
-        <f>IF(A122&gt;=Tabelle1!$C$21,0,IF($A122&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A122)+Tabelle1!$C$27,IF($A122&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A122+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A122&gt;=Tabelle1!$D$21,0,IF($A122&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A122)+Tabelle1!$D$27,IF($A122&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A122+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F122">
-        <f>IF(A122&gt;=Tabelle1!$C$21,0,IF($A122&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A122)+Tabelle1!$C$28,IF($A122&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A122+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A122&gt;=Tabelle1!$D$21,0,IF($A122&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A122)+Tabelle1!$D$28,IF($A122&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A122+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G122">
-        <f>IF(A122&gt;=Tabelle1!$C$21,0,IF($A122&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A122)+Tabelle1!$C$29,IF($A122&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A122+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A122&gt;=Tabelle1!$D$21,0,IF($A122&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A122)+Tabelle1!$D$29,IF($A122&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A122+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15000,27 +14826,27 @@
         <v>12</v>
       </c>
       <c r="B123">
-        <f>IF(A123&gt;=Tabelle1!$C$21,0,IF($A123&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A123)+Tabelle1!$C$24,IF($A123&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A123+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A123&gt;=Tabelle1!$D$21,0,IF($A123&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A123)+Tabelle1!$D$24,IF($A123&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A123+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C123">
-        <f>IF(A123&gt;=Tabelle1!$C$21,0,IF($A123&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A123)+Tabelle1!$C$25,IF($A123&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A123+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A123&gt;=Tabelle1!$D$21,0,IF($A123&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A123)+Tabelle1!$D$25,IF($A123&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A123+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D123">
-        <f>IF(A123&gt;=Tabelle1!$C$21,0,IF($A123&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A123)+Tabelle1!$C$26,IF($A123&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A123+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A123&gt;=Tabelle1!$D$21,0,IF($A123&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A123)+Tabelle1!$D$26,IF($A123&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A123+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E123">
-        <f>IF(A123&gt;=Tabelle1!$C$21,0,IF($A123&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A123)+Tabelle1!$C$27,IF($A123&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A123+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A123&gt;=Tabelle1!$D$21,0,IF($A123&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A123)+Tabelle1!$D$27,IF($A123&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A123+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F123">
-        <f>IF(A123&gt;=Tabelle1!$C$21,0,IF($A123&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A123)+Tabelle1!$C$28,IF($A123&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A123+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A123&gt;=Tabelle1!$D$21,0,IF($A123&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A123)+Tabelle1!$D$28,IF($A123&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A123+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G123">
-        <f>IF(A123&gt;=Tabelle1!$C$21,0,IF($A123&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A123)+Tabelle1!$C$29,IF($A123&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A123+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A123&gt;=Tabelle1!$D$21,0,IF($A123&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A123)+Tabelle1!$D$29,IF($A123&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A123+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15029,27 +14855,27 @@
         <v>12.1</v>
       </c>
       <c r="B124">
-        <f>IF(A124&gt;=Tabelle1!$C$21,0,IF($A124&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A124)+Tabelle1!$C$24,IF($A124&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A124+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A124&gt;=Tabelle1!$D$21,0,IF($A124&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A124)+Tabelle1!$D$24,IF($A124&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A124+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C124">
-        <f>IF(A124&gt;=Tabelle1!$C$21,0,IF($A124&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A124)+Tabelle1!$C$25,IF($A124&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A124+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A124&gt;=Tabelle1!$D$21,0,IF($A124&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A124)+Tabelle1!$D$25,IF($A124&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A124+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D124">
-        <f>IF(A124&gt;=Tabelle1!$C$21,0,IF($A124&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A124)+Tabelle1!$C$26,IF($A124&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A124+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A124&gt;=Tabelle1!$D$21,0,IF($A124&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A124)+Tabelle1!$D$26,IF($A124&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A124+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E124">
-        <f>IF(A124&gt;=Tabelle1!$C$21,0,IF($A124&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A124)+Tabelle1!$C$27,IF($A124&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A124+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A124&gt;=Tabelle1!$D$21,0,IF($A124&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A124)+Tabelle1!$D$27,IF($A124&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A124+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F124">
-        <f>IF(A124&gt;=Tabelle1!$C$21,0,IF($A124&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A124)+Tabelle1!$C$28,IF($A124&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A124+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A124&gt;=Tabelle1!$D$21,0,IF($A124&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A124)+Tabelle1!$D$28,IF($A124&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A124+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G124">
-        <f>IF(A124&gt;=Tabelle1!$C$21,0,IF($A124&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A124)+Tabelle1!$C$29,IF($A124&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A124+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A124&gt;=Tabelle1!$D$21,0,IF($A124&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A124)+Tabelle1!$D$29,IF($A124&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A124+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15058,27 +14884,27 @@
         <v>12.2</v>
       </c>
       <c r="B125">
-        <f>IF(A125&gt;=Tabelle1!$C$21,0,IF($A125&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A125)+Tabelle1!$C$24,IF($A125&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A125+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A125&gt;=Tabelle1!$D$21,0,IF($A125&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A125)+Tabelle1!$D$24,IF($A125&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A125+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C125">
-        <f>IF(A125&gt;=Tabelle1!$C$21,0,IF($A125&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A125)+Tabelle1!$C$25,IF($A125&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A125+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A125&gt;=Tabelle1!$D$21,0,IF($A125&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A125)+Tabelle1!$D$25,IF($A125&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A125+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D125">
-        <f>IF(A125&gt;=Tabelle1!$C$21,0,IF($A125&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A125)+Tabelle1!$C$26,IF($A125&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A125+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A125&gt;=Tabelle1!$D$21,0,IF($A125&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A125)+Tabelle1!$D$26,IF($A125&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A125+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E125">
-        <f>IF(A125&gt;=Tabelle1!$C$21,0,IF($A125&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A125)+Tabelle1!$C$27,IF($A125&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A125+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A125&gt;=Tabelle1!$D$21,0,IF($A125&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A125)+Tabelle1!$D$27,IF($A125&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A125+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F125">
-        <f>IF(A125&gt;=Tabelle1!$C$21,0,IF($A125&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A125)+Tabelle1!$C$28,IF($A125&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A125+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A125&gt;=Tabelle1!$D$21,0,IF($A125&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A125)+Tabelle1!$D$28,IF($A125&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A125+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G125">
-        <f>IF(A125&gt;=Tabelle1!$C$21,0,IF($A125&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A125)+Tabelle1!$C$29,IF($A125&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A125+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A125&gt;=Tabelle1!$D$21,0,IF($A125&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A125)+Tabelle1!$D$29,IF($A125&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A125+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15087,27 +14913,27 @@
         <v>12.3</v>
       </c>
       <c r="B126">
-        <f>IF(A126&gt;=Tabelle1!$C$21,0,IF($A126&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A126)+Tabelle1!$C$24,IF($A126&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A126+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A126&gt;=Tabelle1!$D$21,0,IF($A126&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A126)+Tabelle1!$D$24,IF($A126&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A126+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C126">
-        <f>IF(A126&gt;=Tabelle1!$C$21,0,IF($A126&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A126)+Tabelle1!$C$25,IF($A126&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A126+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A126&gt;=Tabelle1!$D$21,0,IF($A126&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A126)+Tabelle1!$D$25,IF($A126&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A126+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D126">
-        <f>IF(A126&gt;=Tabelle1!$C$21,0,IF($A126&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A126)+Tabelle1!$C$26,IF($A126&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A126+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A126&gt;=Tabelle1!$D$21,0,IF($A126&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A126)+Tabelle1!$D$26,IF($A126&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A126+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E126">
-        <f>IF(A126&gt;=Tabelle1!$C$21,0,IF($A126&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A126)+Tabelle1!$C$27,IF($A126&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A126+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A126&gt;=Tabelle1!$D$21,0,IF($A126&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A126)+Tabelle1!$D$27,IF($A126&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A126+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F126">
-        <f>IF(A126&gt;=Tabelle1!$C$21,0,IF($A126&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A126)+Tabelle1!$C$28,IF($A126&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A126+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A126&gt;=Tabelle1!$D$21,0,IF($A126&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A126)+Tabelle1!$D$28,IF($A126&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A126+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G126">
-        <f>IF(A126&gt;=Tabelle1!$C$21,0,IF($A126&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A126)+Tabelle1!$C$29,IF($A126&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A126+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A126&gt;=Tabelle1!$D$21,0,IF($A126&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A126)+Tabelle1!$D$29,IF($A126&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A126+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15116,27 +14942,27 @@
         <v>12.4</v>
       </c>
       <c r="B127">
-        <f>IF(A127&gt;=Tabelle1!$C$21,0,IF($A127&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A127)+Tabelle1!$C$24,IF($A127&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A127+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A127&gt;=Tabelle1!$D$21,0,IF($A127&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A127)+Tabelle1!$D$24,IF($A127&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A127+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C127">
-        <f>IF(A127&gt;=Tabelle1!$C$21,0,IF($A127&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A127)+Tabelle1!$C$25,IF($A127&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A127+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A127&gt;=Tabelle1!$D$21,0,IF($A127&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A127)+Tabelle1!$D$25,IF($A127&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A127+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D127">
-        <f>IF(A127&gt;=Tabelle1!$C$21,0,IF($A127&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A127)+Tabelle1!$C$26,IF($A127&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A127+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A127&gt;=Tabelle1!$D$21,0,IF($A127&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A127)+Tabelle1!$D$26,IF($A127&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A127+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E127">
-        <f>IF(A127&gt;=Tabelle1!$C$21,0,IF($A127&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A127)+Tabelle1!$C$27,IF($A127&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A127+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A127&gt;=Tabelle1!$D$21,0,IF($A127&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A127)+Tabelle1!$D$27,IF($A127&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A127+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F127">
-        <f>IF(A127&gt;=Tabelle1!$C$21,0,IF($A127&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A127)+Tabelle1!$C$28,IF($A127&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A127+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A127&gt;=Tabelle1!$D$21,0,IF($A127&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A127)+Tabelle1!$D$28,IF($A127&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A127+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G127">
-        <f>IF(A127&gt;=Tabelle1!$C$21,0,IF($A127&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A127)+Tabelle1!$C$29,IF($A127&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A127+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A127&gt;=Tabelle1!$D$21,0,IF($A127&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A127)+Tabelle1!$D$29,IF($A127&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A127+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15145,27 +14971,27 @@
         <v>12.5</v>
       </c>
       <c r="B128">
-        <f>IF(A128&gt;=Tabelle1!$C$21,0,IF($A128&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A128)+Tabelle1!$C$24,IF($A128&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A128+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A128&gt;=Tabelle1!$D$21,0,IF($A128&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A128)+Tabelle1!$D$24,IF($A128&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A128+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C128">
-        <f>IF(A128&gt;=Tabelle1!$C$21,0,IF($A128&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A128)+Tabelle1!$C$25,IF($A128&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A128+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A128&gt;=Tabelle1!$D$21,0,IF($A128&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A128)+Tabelle1!$D$25,IF($A128&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A128+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D128">
-        <f>IF(A128&gt;=Tabelle1!$C$21,0,IF($A128&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A128)+Tabelle1!$C$26,IF($A128&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A128+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A128&gt;=Tabelle1!$D$21,0,IF($A128&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A128)+Tabelle1!$D$26,IF($A128&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A128+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E128">
-        <f>IF(A128&gt;=Tabelle1!$C$21,0,IF($A128&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A128)+Tabelle1!$C$27,IF($A128&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A128+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A128&gt;=Tabelle1!$D$21,0,IF($A128&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A128)+Tabelle1!$D$27,IF($A128&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A128+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F128">
-        <f>IF(A128&gt;=Tabelle1!$C$21,0,IF($A128&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A128)+Tabelle1!$C$28,IF($A128&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A128+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A128&gt;=Tabelle1!$D$21,0,IF($A128&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A128)+Tabelle1!$D$28,IF($A128&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A128+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G128">
-        <f>IF(A128&gt;=Tabelle1!$C$21,0,IF($A128&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A128)+Tabelle1!$C$29,IF($A128&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A128+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A128&gt;=Tabelle1!$D$21,0,IF($A128&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A128)+Tabelle1!$D$29,IF($A128&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A128+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15174,27 +15000,27 @@
         <v>12.6</v>
       </c>
       <c r="B129">
-        <f>IF(A129&gt;=Tabelle1!$C$21,0,IF($A129&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A129)+Tabelle1!$C$24,IF($A129&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A129+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A129&gt;=Tabelle1!$D$21,0,IF($A129&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A129)+Tabelle1!$D$24,IF($A129&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A129+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C129">
-        <f>IF(A129&gt;=Tabelle1!$C$21,0,IF($A129&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A129)+Tabelle1!$C$25,IF($A129&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A129+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A129&gt;=Tabelle1!$D$21,0,IF($A129&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A129)+Tabelle1!$D$25,IF($A129&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A129+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D129">
-        <f>IF(A129&gt;=Tabelle1!$C$21,0,IF($A129&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A129)+Tabelle1!$C$26,IF($A129&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A129+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A129&gt;=Tabelle1!$D$21,0,IF($A129&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A129)+Tabelle1!$D$26,IF($A129&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A129+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E129">
-        <f>IF(A129&gt;=Tabelle1!$C$21,0,IF($A129&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A129)+Tabelle1!$C$27,IF($A129&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A129+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A129&gt;=Tabelle1!$D$21,0,IF($A129&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A129)+Tabelle1!$D$27,IF($A129&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A129+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F129">
-        <f>IF(A129&gt;=Tabelle1!$C$21,0,IF($A129&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A129)+Tabelle1!$C$28,IF($A129&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A129+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A129&gt;=Tabelle1!$D$21,0,IF($A129&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A129)+Tabelle1!$D$28,IF($A129&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A129+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G129">
-        <f>IF(A129&gt;=Tabelle1!$C$21,0,IF($A129&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A129)+Tabelle1!$C$29,IF($A129&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A129+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A129&gt;=Tabelle1!$D$21,0,IF($A129&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A129)+Tabelle1!$D$29,IF($A129&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A129+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15203,27 +15029,27 @@
         <v>12.7</v>
       </c>
       <c r="B130">
-        <f>IF(A130&gt;=Tabelle1!$C$21,0,IF($A130&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A130)+Tabelle1!$C$24,IF($A130&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A130+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A130&gt;=Tabelle1!$D$21,0,IF($A130&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A130)+Tabelle1!$D$24,IF($A130&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A130+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C130">
-        <f>IF(A130&gt;=Tabelle1!$C$21,0,IF($A130&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A130)+Tabelle1!$C$25,IF($A130&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A130+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A130&gt;=Tabelle1!$D$21,0,IF($A130&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A130)+Tabelle1!$D$25,IF($A130&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A130+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D130">
-        <f>IF(A130&gt;=Tabelle1!$C$21,0,IF($A130&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A130)+Tabelle1!$C$26,IF($A130&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A130+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A130&gt;=Tabelle1!$D$21,0,IF($A130&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A130)+Tabelle1!$D$26,IF($A130&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A130+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E130">
-        <f>IF(A130&gt;=Tabelle1!$C$21,0,IF($A130&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A130)+Tabelle1!$C$27,IF($A130&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A130+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A130&gt;=Tabelle1!$D$21,0,IF($A130&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A130)+Tabelle1!$D$27,IF($A130&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A130+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F130">
-        <f>IF(A130&gt;=Tabelle1!$C$21,0,IF($A130&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A130)+Tabelle1!$C$28,IF($A130&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A130+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A130&gt;=Tabelle1!$D$21,0,IF($A130&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A130)+Tabelle1!$D$28,IF($A130&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A130+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G130">
-        <f>IF(A130&gt;=Tabelle1!$C$21,0,IF($A130&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A130)+Tabelle1!$C$29,IF($A130&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A130+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A130&gt;=Tabelle1!$D$21,0,IF($A130&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A130)+Tabelle1!$D$29,IF($A130&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A130+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15232,27 +15058,27 @@
         <v>12.8</v>
       </c>
       <c r="B131">
-        <f>IF(A131&gt;=Tabelle1!$C$21,0,IF($A131&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A131)+Tabelle1!$C$24,IF($A131&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A131+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A131&gt;=Tabelle1!$D$21,0,IF($A131&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A131)+Tabelle1!$D$24,IF($A131&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A131+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C131">
-        <f>IF(A131&gt;=Tabelle1!$C$21,0,IF($A131&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A131)+Tabelle1!$C$25,IF($A131&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A131+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A131&gt;=Tabelle1!$D$21,0,IF($A131&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A131)+Tabelle1!$D$25,IF($A131&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A131+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D131">
-        <f>IF(A131&gt;=Tabelle1!$C$21,0,IF($A131&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A131)+Tabelle1!$C$26,IF($A131&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A131+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A131&gt;=Tabelle1!$D$21,0,IF($A131&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A131)+Tabelle1!$D$26,IF($A131&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A131+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f>IF(A131&gt;=Tabelle1!$C$21,0,IF($A131&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A131)+Tabelle1!$C$27,IF($A131&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A131+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A131&gt;=Tabelle1!$D$21,0,IF($A131&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A131)+Tabelle1!$D$27,IF($A131&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A131+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F131">
-        <f>IF(A131&gt;=Tabelle1!$C$21,0,IF($A131&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A131)+Tabelle1!$C$28,IF($A131&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A131+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A131&gt;=Tabelle1!$D$21,0,IF($A131&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A131)+Tabelle1!$D$28,IF($A131&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A131+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G131">
-        <f>IF(A131&gt;=Tabelle1!$C$21,0,IF($A131&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A131)+Tabelle1!$C$29,IF($A131&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A131+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A131&gt;=Tabelle1!$D$21,0,IF($A131&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A131)+Tabelle1!$D$29,IF($A131&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A131+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15261,27 +15087,27 @@
         <v>12.9</v>
       </c>
       <c r="B132">
-        <f>IF(A132&gt;=Tabelle1!$C$21,0,IF($A132&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A132)+Tabelle1!$C$24,IF($A132&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A132+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A132&gt;=Tabelle1!$D$21,0,IF($A132&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A132)+Tabelle1!$D$24,IF($A132&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A132+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C132">
-        <f>IF(A132&gt;=Tabelle1!$C$21,0,IF($A132&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A132)+Tabelle1!$C$25,IF($A132&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A132+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A132&gt;=Tabelle1!$D$21,0,IF($A132&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A132)+Tabelle1!$D$25,IF($A132&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A132+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D132">
-        <f>IF(A132&gt;=Tabelle1!$C$21,0,IF($A132&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A132)+Tabelle1!$C$26,IF($A132&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A132+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A132&gt;=Tabelle1!$D$21,0,IF($A132&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A132)+Tabelle1!$D$26,IF($A132&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A132+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E132">
-        <f>IF(A132&gt;=Tabelle1!$C$21,0,IF($A132&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A132)+Tabelle1!$C$27,IF($A132&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A132+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A132&gt;=Tabelle1!$D$21,0,IF($A132&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A132)+Tabelle1!$D$27,IF($A132&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A132+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F132">
-        <f>IF(A132&gt;=Tabelle1!$C$21,0,IF($A132&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A132)+Tabelle1!$C$28,IF($A132&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A132+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A132&gt;=Tabelle1!$D$21,0,IF($A132&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A132)+Tabelle1!$D$28,IF($A132&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A132+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G132">
-        <f>IF(A132&gt;=Tabelle1!$C$21,0,IF($A132&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A132)+Tabelle1!$C$29,IF($A132&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A132+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A132&gt;=Tabelle1!$D$21,0,IF($A132&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A132)+Tabelle1!$D$29,IF($A132&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A132+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15290,27 +15116,27 @@
         <v>13</v>
       </c>
       <c r="B133">
-        <f>IF(A133&gt;=Tabelle1!$C$21,0,IF($A133&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A133)+Tabelle1!$C$24,IF($A133&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A133+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A133&gt;=Tabelle1!$D$21,0,IF($A133&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A133)+Tabelle1!$D$24,IF($A133&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A133+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C133">
-        <f>IF(A133&gt;=Tabelle1!$C$21,0,IF($A133&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A133)+Tabelle1!$C$25,IF($A133&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A133+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A133&gt;=Tabelle1!$D$21,0,IF($A133&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A133)+Tabelle1!$D$25,IF($A133&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A133+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D133">
-        <f>IF(A133&gt;=Tabelle1!$C$21,0,IF($A133&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A133)+Tabelle1!$C$26,IF($A133&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A133+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A133&gt;=Tabelle1!$D$21,0,IF($A133&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A133)+Tabelle1!$D$26,IF($A133&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A133+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E133">
-        <f>IF(A133&gt;=Tabelle1!$C$21,0,IF($A133&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A133)+Tabelle1!$C$27,IF($A133&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A133+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A133&gt;=Tabelle1!$D$21,0,IF($A133&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A133)+Tabelle1!$D$27,IF($A133&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A133+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F133">
-        <f>IF(A133&gt;=Tabelle1!$C$21,0,IF($A133&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A133)+Tabelle1!$C$28,IF($A133&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A133+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A133&gt;=Tabelle1!$D$21,0,IF($A133&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A133)+Tabelle1!$D$28,IF($A133&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A133+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G133">
-        <f>IF(A133&gt;=Tabelle1!$C$21,0,IF($A133&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A133)+Tabelle1!$C$29,IF($A133&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A133+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A133&gt;=Tabelle1!$D$21,0,IF($A133&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A133)+Tabelle1!$D$29,IF($A133&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A133+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15319,27 +15145,27 @@
         <v>13.1</v>
       </c>
       <c r="B134">
-        <f>IF(A134&gt;=Tabelle1!$C$21,0,IF($A134&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A134)+Tabelle1!$C$24,IF($A134&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A134+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A134&gt;=Tabelle1!$D$21,0,IF($A134&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A134)+Tabelle1!$D$24,IF($A134&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A134+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C134">
-        <f>IF(A134&gt;=Tabelle1!$C$21,0,IF($A134&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A134)+Tabelle1!$C$25,IF($A134&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A134+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A134&gt;=Tabelle1!$D$21,0,IF($A134&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A134)+Tabelle1!$D$25,IF($A134&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A134+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D134">
-        <f>IF(A134&gt;=Tabelle1!$C$21,0,IF($A134&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A134)+Tabelle1!$C$26,IF($A134&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A134+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A134&gt;=Tabelle1!$D$21,0,IF($A134&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A134)+Tabelle1!$D$26,IF($A134&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A134+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E134">
-        <f>IF(A134&gt;=Tabelle1!$C$21,0,IF($A134&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A134)+Tabelle1!$C$27,IF($A134&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A134+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A134&gt;=Tabelle1!$D$21,0,IF($A134&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A134)+Tabelle1!$D$27,IF($A134&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A134+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F134">
-        <f>IF(A134&gt;=Tabelle1!$C$21,0,IF($A134&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A134)+Tabelle1!$C$28,IF($A134&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A134+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A134&gt;=Tabelle1!$D$21,0,IF($A134&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A134)+Tabelle1!$D$28,IF($A134&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A134+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G134">
-        <f>IF(A134&gt;=Tabelle1!$C$21,0,IF($A134&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A134)+Tabelle1!$C$29,IF($A134&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A134+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A134&gt;=Tabelle1!$D$21,0,IF($A134&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A134)+Tabelle1!$D$29,IF($A134&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A134+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15348,27 +15174,27 @@
         <v>13.2</v>
       </c>
       <c r="B135">
-        <f>IF(A135&gt;=Tabelle1!$C$21,0,IF($A135&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A135)+Tabelle1!$C$24,IF($A135&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A135+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A135&gt;=Tabelle1!$D$21,0,IF($A135&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A135)+Tabelle1!$D$24,IF($A135&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A135+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C135">
-        <f>IF(A135&gt;=Tabelle1!$C$21,0,IF($A135&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A135)+Tabelle1!$C$25,IF($A135&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A135+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A135&gt;=Tabelle1!$D$21,0,IF($A135&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A135)+Tabelle1!$D$25,IF($A135&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A135+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D135">
-        <f>IF(A135&gt;=Tabelle1!$C$21,0,IF($A135&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A135)+Tabelle1!$C$26,IF($A135&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A135+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A135&gt;=Tabelle1!$D$21,0,IF($A135&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A135)+Tabelle1!$D$26,IF($A135&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A135+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E135">
-        <f>IF(A135&gt;=Tabelle1!$C$21,0,IF($A135&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A135)+Tabelle1!$C$27,IF($A135&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A135+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A135&gt;=Tabelle1!$D$21,0,IF($A135&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A135)+Tabelle1!$D$27,IF($A135&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A135+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F135">
-        <f>IF(A135&gt;=Tabelle1!$C$21,0,IF($A135&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A135)+Tabelle1!$C$28,IF($A135&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A135+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A135&gt;=Tabelle1!$D$21,0,IF($A135&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A135)+Tabelle1!$D$28,IF($A135&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A135+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G135">
-        <f>IF(A135&gt;=Tabelle1!$C$21,0,IF($A135&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A135)+Tabelle1!$C$29,IF($A135&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A135+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A135&gt;=Tabelle1!$D$21,0,IF($A135&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A135)+Tabelle1!$D$29,IF($A135&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A135+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15377,27 +15203,27 @@
         <v>13.3</v>
       </c>
       <c r="B136">
-        <f>IF(A136&gt;=Tabelle1!$C$21,0,IF($A136&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A136)+Tabelle1!$C$24,IF($A136&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A136+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A136&gt;=Tabelle1!$D$21,0,IF($A136&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A136)+Tabelle1!$D$24,IF($A136&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A136+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C136">
-        <f>IF(A136&gt;=Tabelle1!$C$21,0,IF($A136&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A136)+Tabelle1!$C$25,IF($A136&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A136+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A136&gt;=Tabelle1!$D$21,0,IF($A136&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A136)+Tabelle1!$D$25,IF($A136&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A136+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D136">
-        <f>IF(A136&gt;=Tabelle1!$C$21,0,IF($A136&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A136)+Tabelle1!$C$26,IF($A136&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A136+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A136&gt;=Tabelle1!$D$21,0,IF($A136&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A136)+Tabelle1!$D$26,IF($A136&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A136+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E136">
-        <f>IF(A136&gt;=Tabelle1!$C$21,0,IF($A136&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A136)+Tabelle1!$C$27,IF($A136&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A136+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A136&gt;=Tabelle1!$D$21,0,IF($A136&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A136)+Tabelle1!$D$27,IF($A136&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A136+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F136">
-        <f>IF(A136&gt;=Tabelle1!$C$21,0,IF($A136&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A136)+Tabelle1!$C$28,IF($A136&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A136+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A136&gt;=Tabelle1!$D$21,0,IF($A136&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A136)+Tabelle1!$D$28,IF($A136&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A136+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G136">
-        <f>IF(A136&gt;=Tabelle1!$C$21,0,IF($A136&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A136)+Tabelle1!$C$29,IF($A136&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A136+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A136&gt;=Tabelle1!$D$21,0,IF($A136&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A136)+Tabelle1!$D$29,IF($A136&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A136+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15406,27 +15232,27 @@
         <v>13.4</v>
       </c>
       <c r="B137">
-        <f>IF(A137&gt;=Tabelle1!$C$21,0,IF($A137&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A137)+Tabelle1!$C$24,IF($A137&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A137+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A137&gt;=Tabelle1!$D$21,0,IF($A137&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A137)+Tabelle1!$D$24,IF($A137&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A137+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C137">
-        <f>IF(A137&gt;=Tabelle1!$C$21,0,IF($A137&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A137)+Tabelle1!$C$25,IF($A137&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A137+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A137&gt;=Tabelle1!$D$21,0,IF($A137&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A137)+Tabelle1!$D$25,IF($A137&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A137+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D137">
-        <f>IF(A137&gt;=Tabelle1!$C$21,0,IF($A137&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A137)+Tabelle1!$C$26,IF($A137&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A137+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A137&gt;=Tabelle1!$D$21,0,IF($A137&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A137)+Tabelle1!$D$26,IF($A137&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A137+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E137">
-        <f>IF(A137&gt;=Tabelle1!$C$21,0,IF($A137&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A137)+Tabelle1!$C$27,IF($A137&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A137+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A137&gt;=Tabelle1!$D$21,0,IF($A137&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A137)+Tabelle1!$D$27,IF($A137&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A137+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F137">
-        <f>IF(A137&gt;=Tabelle1!$C$21,0,IF($A137&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A137)+Tabelle1!$C$28,IF($A137&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A137+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A137&gt;=Tabelle1!$D$21,0,IF($A137&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A137)+Tabelle1!$D$28,IF($A137&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A137+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G137">
-        <f>IF(A137&gt;=Tabelle1!$C$21,0,IF($A137&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A137)+Tabelle1!$C$29,IF($A137&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A137+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A137&gt;=Tabelle1!$D$21,0,IF($A137&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A137)+Tabelle1!$D$29,IF($A137&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A137+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15435,27 +15261,27 @@
         <v>13.5</v>
       </c>
       <c r="B138">
-        <f>IF(A138&gt;=Tabelle1!$C$21,0,IF($A138&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A138)+Tabelle1!$C$24,IF($A138&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A138+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A138&gt;=Tabelle1!$D$21,0,IF($A138&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A138)+Tabelle1!$D$24,IF($A138&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A138+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C138">
-        <f>IF(A138&gt;=Tabelle1!$C$21,0,IF($A138&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A138)+Tabelle1!$C$25,IF($A138&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A138+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A138&gt;=Tabelle1!$D$21,0,IF($A138&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A138)+Tabelle1!$D$25,IF($A138&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A138+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D138">
-        <f>IF(A138&gt;=Tabelle1!$C$21,0,IF($A138&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A138)+Tabelle1!$C$26,IF($A138&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A138+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A138&gt;=Tabelle1!$D$21,0,IF($A138&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A138)+Tabelle1!$D$26,IF($A138&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A138+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E138">
-        <f>IF(A138&gt;=Tabelle1!$C$21,0,IF($A138&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A138)+Tabelle1!$C$27,IF($A138&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A138+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A138&gt;=Tabelle1!$D$21,0,IF($A138&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A138)+Tabelle1!$D$27,IF($A138&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A138+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F138">
-        <f>IF(A138&gt;=Tabelle1!$C$21,0,IF($A138&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A138)+Tabelle1!$C$28,IF($A138&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A138+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A138&gt;=Tabelle1!$D$21,0,IF($A138&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A138)+Tabelle1!$D$28,IF($A138&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A138+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G138">
-        <f>IF(A138&gt;=Tabelle1!$C$21,0,IF($A138&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A138)+Tabelle1!$C$29,IF($A138&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A138+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A138&gt;=Tabelle1!$D$21,0,IF($A138&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A138)+Tabelle1!$D$29,IF($A138&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A138+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15464,27 +15290,27 @@
         <v>13.6</v>
       </c>
       <c r="B139">
-        <f>IF(A139&gt;=Tabelle1!$C$21,0,IF($A139&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A139)+Tabelle1!$C$24,IF($A139&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A139+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A139&gt;=Tabelle1!$D$21,0,IF($A139&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A139)+Tabelle1!$D$24,IF($A139&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A139+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C139">
-        <f>IF(A139&gt;=Tabelle1!$C$21,0,IF($A139&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A139)+Tabelle1!$C$25,IF($A139&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A139+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A139&gt;=Tabelle1!$D$21,0,IF($A139&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A139)+Tabelle1!$D$25,IF($A139&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A139+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D139">
-        <f>IF(A139&gt;=Tabelle1!$C$21,0,IF($A139&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A139)+Tabelle1!$C$26,IF($A139&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A139+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A139&gt;=Tabelle1!$D$21,0,IF($A139&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A139)+Tabelle1!$D$26,IF($A139&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A139+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E139">
-        <f>IF(A139&gt;=Tabelle1!$C$21,0,IF($A139&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A139)+Tabelle1!$C$27,IF($A139&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A139+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A139&gt;=Tabelle1!$D$21,0,IF($A139&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A139)+Tabelle1!$D$27,IF($A139&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A139+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F139">
-        <f>IF(A139&gt;=Tabelle1!$C$21,0,IF($A139&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A139)+Tabelle1!$C$28,IF($A139&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A139+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A139&gt;=Tabelle1!$D$21,0,IF($A139&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A139)+Tabelle1!$D$28,IF($A139&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A139+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G139">
-        <f>IF(A139&gt;=Tabelle1!$C$21,0,IF($A139&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A139)+Tabelle1!$C$29,IF($A139&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A139+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A139&gt;=Tabelle1!$D$21,0,IF($A139&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A139)+Tabelle1!$D$29,IF($A139&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A139+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15493,27 +15319,27 @@
         <v>13.7</v>
       </c>
       <c r="B140">
-        <f>IF(A140&gt;=Tabelle1!$C$21,0,IF($A140&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A140)+Tabelle1!$C$24,IF($A140&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A140+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A140&gt;=Tabelle1!$D$21,0,IF($A140&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A140)+Tabelle1!$D$24,IF($A140&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A140+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C140">
-        <f>IF(A140&gt;=Tabelle1!$C$21,0,IF($A140&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A140)+Tabelle1!$C$25,IF($A140&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A140+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A140&gt;=Tabelle1!$D$21,0,IF($A140&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A140)+Tabelle1!$D$25,IF($A140&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A140+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D140">
-        <f>IF(A140&gt;=Tabelle1!$C$21,0,IF($A140&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A140)+Tabelle1!$C$26,IF($A140&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A140+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A140&gt;=Tabelle1!$D$21,0,IF($A140&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A140)+Tabelle1!$D$26,IF($A140&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A140+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E140">
-        <f>IF(A140&gt;=Tabelle1!$C$21,0,IF($A140&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A140)+Tabelle1!$C$27,IF($A140&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A140+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A140&gt;=Tabelle1!$D$21,0,IF($A140&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A140)+Tabelle1!$D$27,IF($A140&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A140+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F140">
-        <f>IF(A140&gt;=Tabelle1!$C$21,0,IF($A140&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A140)+Tabelle1!$C$28,IF($A140&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A140+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A140&gt;=Tabelle1!$D$21,0,IF($A140&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A140)+Tabelle1!$D$28,IF($A140&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A140+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G140">
-        <f>IF(A140&gt;=Tabelle1!$C$21,0,IF($A140&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A140)+Tabelle1!$C$29,IF($A140&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A140+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A140&gt;=Tabelle1!$D$21,0,IF($A140&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A140)+Tabelle1!$D$29,IF($A140&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A140+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15522,27 +15348,27 @@
         <v>13.8</v>
       </c>
       <c r="B141">
-        <f>IF(A141&gt;=Tabelle1!$C$21,0,IF($A141&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A141)+Tabelle1!$C$24,IF($A141&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A141+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A141&gt;=Tabelle1!$D$21,0,IF($A141&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A141)+Tabelle1!$D$24,IF($A141&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A141+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C141">
-        <f>IF(A141&gt;=Tabelle1!$C$21,0,IF($A141&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A141)+Tabelle1!$C$25,IF($A141&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A141+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A141&gt;=Tabelle1!$D$21,0,IF($A141&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A141)+Tabelle1!$D$25,IF($A141&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A141+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D141">
-        <f>IF(A141&gt;=Tabelle1!$C$21,0,IF($A141&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A141)+Tabelle1!$C$26,IF($A141&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A141+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A141&gt;=Tabelle1!$D$21,0,IF($A141&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A141)+Tabelle1!$D$26,IF($A141&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A141+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E141">
-        <f>IF(A141&gt;=Tabelle1!$C$21,0,IF($A141&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A141)+Tabelle1!$C$27,IF($A141&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A141+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A141&gt;=Tabelle1!$D$21,0,IF($A141&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A141)+Tabelle1!$D$27,IF($A141&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A141+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F141">
-        <f>IF(A141&gt;=Tabelle1!$C$21,0,IF($A141&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A141)+Tabelle1!$C$28,IF($A141&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A141+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A141&gt;=Tabelle1!$D$21,0,IF($A141&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A141)+Tabelle1!$D$28,IF($A141&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A141+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G141">
-        <f>IF(A141&gt;=Tabelle1!$C$21,0,IF($A141&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A141)+Tabelle1!$C$29,IF($A141&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A141+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A141&gt;=Tabelle1!$D$21,0,IF($A141&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A141)+Tabelle1!$D$29,IF($A141&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A141+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15551,27 +15377,27 @@
         <v>13.9</v>
       </c>
       <c r="B142">
-        <f>IF(A142&gt;=Tabelle1!$C$21,0,IF($A142&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A142)+Tabelle1!$C$24,IF($A142&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A142+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A142&gt;=Tabelle1!$D$21,0,IF($A142&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A142)+Tabelle1!$D$24,IF($A142&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A142+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C142">
-        <f>IF(A142&gt;=Tabelle1!$C$21,0,IF($A142&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A142)+Tabelle1!$C$25,IF($A142&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A142+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A142&gt;=Tabelle1!$D$21,0,IF($A142&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A142)+Tabelle1!$D$25,IF($A142&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A142+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D142">
-        <f>IF(A142&gt;=Tabelle1!$C$21,0,IF($A142&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A142)+Tabelle1!$C$26,IF($A142&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A142+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A142&gt;=Tabelle1!$D$21,0,IF($A142&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A142)+Tabelle1!$D$26,IF($A142&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A142+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E142">
-        <f>IF(A142&gt;=Tabelle1!$C$21,0,IF($A142&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A142)+Tabelle1!$C$27,IF($A142&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A142+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A142&gt;=Tabelle1!$D$21,0,IF($A142&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A142)+Tabelle1!$D$27,IF($A142&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A142+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F142">
-        <f>IF(A142&gt;=Tabelle1!$C$21,0,IF($A142&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A142)+Tabelle1!$C$28,IF($A142&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A142+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A142&gt;=Tabelle1!$D$21,0,IF($A142&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A142)+Tabelle1!$D$28,IF($A142&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A142+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G142">
-        <f>IF(A142&gt;=Tabelle1!$C$21,0,IF($A142&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A142)+Tabelle1!$C$29,IF($A142&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A142+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A142&gt;=Tabelle1!$D$21,0,IF($A142&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A142)+Tabelle1!$D$29,IF($A142&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A142+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15580,27 +15406,27 @@
         <v>14</v>
       </c>
       <c r="B143">
-        <f>IF(A143&gt;=Tabelle1!$C$21,0,IF($A143&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A143)+Tabelle1!$C$24,IF($A143&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A143+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A143&gt;=Tabelle1!$D$21,0,IF($A143&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A143)+Tabelle1!$D$24,IF($A143&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A143+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C143">
-        <f>IF(A143&gt;=Tabelle1!$C$21,0,IF($A143&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A143)+Tabelle1!$C$25,IF($A143&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A143+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A143&gt;=Tabelle1!$D$21,0,IF($A143&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A143)+Tabelle1!$D$25,IF($A143&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A143+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D143">
-        <f>IF(A143&gt;=Tabelle1!$C$21,0,IF($A143&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A143)+Tabelle1!$C$26,IF($A143&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A143+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A143&gt;=Tabelle1!$D$21,0,IF($A143&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A143)+Tabelle1!$D$26,IF($A143&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A143+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E143">
-        <f>IF(A143&gt;=Tabelle1!$C$21,0,IF($A143&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A143)+Tabelle1!$C$27,IF($A143&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A143+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A143&gt;=Tabelle1!$D$21,0,IF($A143&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A143)+Tabelle1!$D$27,IF($A143&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A143+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F143">
-        <f>IF(A143&gt;=Tabelle1!$C$21,0,IF($A143&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A143)+Tabelle1!$C$28,IF($A143&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A143+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A143&gt;=Tabelle1!$D$21,0,IF($A143&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A143)+Tabelle1!$D$28,IF($A143&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A143+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G143">
-        <f>IF(A143&gt;=Tabelle1!$C$21,0,IF($A143&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A143)+Tabelle1!$C$29,IF($A143&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A143+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A143&gt;=Tabelle1!$D$21,0,IF($A143&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A143)+Tabelle1!$D$29,IF($A143&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A143+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15609,27 +15435,27 @@
         <v>14.1</v>
       </c>
       <c r="B144">
-        <f>IF(A144&gt;=Tabelle1!$C$21,0,IF($A144&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A144)+Tabelle1!$C$24,IF($A144&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A144+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A144&gt;=Tabelle1!$D$21,0,IF($A144&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A144)+Tabelle1!$D$24,IF($A144&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A144+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C144">
-        <f>IF(A144&gt;=Tabelle1!$C$21,0,IF($A144&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A144)+Tabelle1!$C$25,IF($A144&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A144+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A144&gt;=Tabelle1!$D$21,0,IF($A144&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A144)+Tabelle1!$D$25,IF($A144&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A144+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D144">
-        <f>IF(A144&gt;=Tabelle1!$C$21,0,IF($A144&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A144)+Tabelle1!$C$26,IF($A144&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A144+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A144&gt;=Tabelle1!$D$21,0,IF($A144&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A144)+Tabelle1!$D$26,IF($A144&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A144+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E144">
-        <f>IF(A144&gt;=Tabelle1!$C$21,0,IF($A144&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A144)+Tabelle1!$C$27,IF($A144&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A144+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A144&gt;=Tabelle1!$D$21,0,IF($A144&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A144)+Tabelle1!$D$27,IF($A144&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A144+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F144">
-        <f>IF(A144&gt;=Tabelle1!$C$21,0,IF($A144&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A144)+Tabelle1!$C$28,IF($A144&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A144+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A144&gt;=Tabelle1!$D$21,0,IF($A144&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A144)+Tabelle1!$D$28,IF($A144&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A144+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G144">
-        <f>IF(A144&gt;=Tabelle1!$C$21,0,IF($A144&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A144)+Tabelle1!$C$29,IF($A144&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A144+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A144&gt;=Tabelle1!$D$21,0,IF($A144&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A144)+Tabelle1!$D$29,IF($A144&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A144+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15638,27 +15464,27 @@
         <v>14.2</v>
       </c>
       <c r="B145">
-        <f>IF(A145&gt;=Tabelle1!$C$21,0,IF($A145&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A145)+Tabelle1!$C$24,IF($A145&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A145+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A145&gt;=Tabelle1!$D$21,0,IF($A145&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A145)+Tabelle1!$D$24,IF($A145&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A145+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C145">
-        <f>IF(A145&gt;=Tabelle1!$C$21,0,IF($A145&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A145)+Tabelle1!$C$25,IF($A145&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A145+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A145&gt;=Tabelle1!$D$21,0,IF($A145&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A145)+Tabelle1!$D$25,IF($A145&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A145+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D145">
-        <f>IF(A145&gt;=Tabelle1!$C$21,0,IF($A145&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A145)+Tabelle1!$C$26,IF($A145&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A145+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A145&gt;=Tabelle1!$D$21,0,IF($A145&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A145)+Tabelle1!$D$26,IF($A145&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A145+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E145">
-        <f>IF(A145&gt;=Tabelle1!$C$21,0,IF($A145&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A145)+Tabelle1!$C$27,IF($A145&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A145+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A145&gt;=Tabelle1!$D$21,0,IF($A145&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A145)+Tabelle1!$D$27,IF($A145&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A145+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F145">
-        <f>IF(A145&gt;=Tabelle1!$C$21,0,IF($A145&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A145)+Tabelle1!$C$28,IF($A145&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A145+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A145&gt;=Tabelle1!$D$21,0,IF($A145&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A145)+Tabelle1!$D$28,IF($A145&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A145+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G145">
-        <f>IF(A145&gt;=Tabelle1!$C$21,0,IF($A145&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A145)+Tabelle1!$C$29,IF($A145&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A145+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A145&gt;=Tabelle1!$D$21,0,IF($A145&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A145)+Tabelle1!$D$29,IF($A145&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A145+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15667,27 +15493,27 @@
         <v>14.3</v>
       </c>
       <c r="B146">
-        <f>IF(A146&gt;=Tabelle1!$C$21,0,IF($A146&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A146)+Tabelle1!$C$24,IF($A146&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A146+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A146&gt;=Tabelle1!$D$21,0,IF($A146&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A146)+Tabelle1!$D$24,IF($A146&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A146+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C146">
-        <f>IF(A146&gt;=Tabelle1!$C$21,0,IF($A146&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A146)+Tabelle1!$C$25,IF($A146&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A146+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A146&gt;=Tabelle1!$D$21,0,IF($A146&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A146)+Tabelle1!$D$25,IF($A146&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A146+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D146">
-        <f>IF(A146&gt;=Tabelle1!$C$21,0,IF($A146&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A146)+Tabelle1!$C$26,IF($A146&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A146+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A146&gt;=Tabelle1!$D$21,0,IF($A146&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A146)+Tabelle1!$D$26,IF($A146&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A146+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E146">
-        <f>IF(A146&gt;=Tabelle1!$C$21,0,IF($A146&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A146)+Tabelle1!$C$27,IF($A146&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A146+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A146&gt;=Tabelle1!$D$21,0,IF($A146&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A146)+Tabelle1!$D$27,IF($A146&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A146+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F146">
-        <f>IF(A146&gt;=Tabelle1!$C$21,0,IF($A146&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A146)+Tabelle1!$C$28,IF($A146&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A146+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A146&gt;=Tabelle1!$D$21,0,IF($A146&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A146)+Tabelle1!$D$28,IF($A146&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A146+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G146">
-        <f>IF(A146&gt;=Tabelle1!$C$21,0,IF($A146&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A146)+Tabelle1!$C$29,IF($A146&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A146+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A146&gt;=Tabelle1!$D$21,0,IF($A146&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A146)+Tabelle1!$D$29,IF($A146&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A146+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15696,27 +15522,27 @@
         <v>14.4</v>
       </c>
       <c r="B147">
-        <f>IF(A147&gt;=Tabelle1!$C$21,0,IF($A147&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A147)+Tabelle1!$C$24,IF($A147&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A147+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A147&gt;=Tabelle1!$D$21,0,IF($A147&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A147)+Tabelle1!$D$24,IF($A147&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A147+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C147">
-        <f>IF(A147&gt;=Tabelle1!$C$21,0,IF($A147&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A147)+Tabelle1!$C$25,IF($A147&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A147+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A147&gt;=Tabelle1!$D$21,0,IF($A147&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A147)+Tabelle1!$D$25,IF($A147&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A147+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D147">
-        <f>IF(A147&gt;=Tabelle1!$C$21,0,IF($A147&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A147)+Tabelle1!$C$26,IF($A147&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A147+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A147&gt;=Tabelle1!$D$21,0,IF($A147&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A147)+Tabelle1!$D$26,IF($A147&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A147+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E147">
-        <f>IF(A147&gt;=Tabelle1!$C$21,0,IF($A147&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A147)+Tabelle1!$C$27,IF($A147&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A147+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A147&gt;=Tabelle1!$D$21,0,IF($A147&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A147)+Tabelle1!$D$27,IF($A147&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A147+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F147">
-        <f>IF(A147&gt;=Tabelle1!$C$21,0,IF($A147&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A147)+Tabelle1!$C$28,IF($A147&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A147+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A147&gt;=Tabelle1!$D$21,0,IF($A147&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A147)+Tabelle1!$D$28,IF($A147&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A147+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G147">
-        <f>IF(A147&gt;=Tabelle1!$C$21,0,IF($A147&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A147)+Tabelle1!$C$29,IF($A147&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A147+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A147&gt;=Tabelle1!$D$21,0,IF($A147&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A147)+Tabelle1!$D$29,IF($A147&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A147+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15725,27 +15551,27 @@
         <v>14.5</v>
       </c>
       <c r="B148">
-        <f>IF(A148&gt;=Tabelle1!$C$21,0,IF($A148&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A148)+Tabelle1!$C$24,IF($A148&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A148+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A148&gt;=Tabelle1!$D$21,0,IF($A148&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A148)+Tabelle1!$D$24,IF($A148&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A148+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C148">
-        <f>IF(A148&gt;=Tabelle1!$C$21,0,IF($A148&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A148)+Tabelle1!$C$25,IF($A148&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A148+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A148&gt;=Tabelle1!$D$21,0,IF($A148&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A148)+Tabelle1!$D$25,IF($A148&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A148+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D148">
-        <f>IF(A148&gt;=Tabelle1!$C$21,0,IF($A148&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A148)+Tabelle1!$C$26,IF($A148&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A148+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A148&gt;=Tabelle1!$D$21,0,IF($A148&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A148)+Tabelle1!$D$26,IF($A148&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A148+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E148">
-        <f>IF(A148&gt;=Tabelle1!$C$21,0,IF($A148&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A148)+Tabelle1!$C$27,IF($A148&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A148+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A148&gt;=Tabelle1!$D$21,0,IF($A148&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A148)+Tabelle1!$D$27,IF($A148&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A148+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F148">
-        <f>IF(A148&gt;=Tabelle1!$C$21,0,IF($A148&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A148)+Tabelle1!$C$28,IF($A148&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A148+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A148&gt;=Tabelle1!$D$21,0,IF($A148&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A148)+Tabelle1!$D$28,IF($A148&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A148+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G148">
-        <f>IF(A148&gt;=Tabelle1!$C$21,0,IF($A148&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A148)+Tabelle1!$C$29,IF($A148&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A148+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A148&gt;=Tabelle1!$D$21,0,IF($A148&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A148)+Tabelle1!$D$29,IF($A148&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A148+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15754,27 +15580,27 @@
         <v>14.6</v>
       </c>
       <c r="B149">
-        <f>IF(A149&gt;=Tabelle1!$C$21,0,IF($A149&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A149)+Tabelle1!$C$24,IF($A149&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A149+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A149&gt;=Tabelle1!$D$21,0,IF($A149&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A149)+Tabelle1!$D$24,IF($A149&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A149+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C149">
-        <f>IF(A149&gt;=Tabelle1!$C$21,0,IF($A149&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A149)+Tabelle1!$C$25,IF($A149&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A149+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A149&gt;=Tabelle1!$D$21,0,IF($A149&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A149)+Tabelle1!$D$25,IF($A149&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A149+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D149">
-        <f>IF(A149&gt;=Tabelle1!$C$21,0,IF($A149&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A149)+Tabelle1!$C$26,IF($A149&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A149+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A149&gt;=Tabelle1!$D$21,0,IF($A149&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A149)+Tabelle1!$D$26,IF($A149&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A149+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E149">
-        <f>IF(A149&gt;=Tabelle1!$C$21,0,IF($A149&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A149)+Tabelle1!$C$27,IF($A149&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A149+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A149&gt;=Tabelle1!$D$21,0,IF($A149&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A149)+Tabelle1!$D$27,IF($A149&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A149+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F149">
-        <f>IF(A149&gt;=Tabelle1!$C$21,0,IF($A149&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A149)+Tabelle1!$C$28,IF($A149&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A149+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A149&gt;=Tabelle1!$D$21,0,IF($A149&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A149)+Tabelle1!$D$28,IF($A149&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A149+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G149">
-        <f>IF(A149&gt;=Tabelle1!$C$21,0,IF($A149&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A149)+Tabelle1!$C$29,IF($A149&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A149+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A149&gt;=Tabelle1!$D$21,0,IF($A149&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A149)+Tabelle1!$D$29,IF($A149&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A149+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15783,27 +15609,27 @@
         <v>14.7</v>
       </c>
       <c r="B150">
-        <f>IF(A150&gt;=Tabelle1!$C$21,0,IF($A150&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A150)+Tabelle1!$C$24,IF($A150&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A150+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A150&gt;=Tabelle1!$D$21,0,IF($A150&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A150)+Tabelle1!$D$24,IF($A150&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A150+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C150">
-        <f>IF(A150&gt;=Tabelle1!$C$21,0,IF($A150&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A150)+Tabelle1!$C$25,IF($A150&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A150+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A150&gt;=Tabelle1!$D$21,0,IF($A150&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A150)+Tabelle1!$D$25,IF($A150&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A150+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D150">
-        <f>IF(A150&gt;=Tabelle1!$C$21,0,IF($A150&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A150)+Tabelle1!$C$26,IF($A150&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A150+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A150&gt;=Tabelle1!$D$21,0,IF($A150&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A150)+Tabelle1!$D$26,IF($A150&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A150+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E150">
-        <f>IF(A150&gt;=Tabelle1!$C$21,0,IF($A150&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A150)+Tabelle1!$C$27,IF($A150&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A150+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A150&gt;=Tabelle1!$D$21,0,IF($A150&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A150)+Tabelle1!$D$27,IF($A150&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A150+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F150">
-        <f>IF(A150&gt;=Tabelle1!$C$21,0,IF($A150&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A150)+Tabelle1!$C$28,IF($A150&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A150+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A150&gt;=Tabelle1!$D$21,0,IF($A150&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A150)+Tabelle1!$D$28,IF($A150&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A150+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G150">
-        <f>IF(A150&gt;=Tabelle1!$C$21,0,IF($A150&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A150)+Tabelle1!$C$29,IF($A150&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A150+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A150&gt;=Tabelle1!$D$21,0,IF($A150&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A150)+Tabelle1!$D$29,IF($A150&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A150+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15812,27 +15638,27 @@
         <v>14.8</v>
       </c>
       <c r="B151">
-        <f>IF(A151&gt;=Tabelle1!$C$21,0,IF($A151&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A151)+Tabelle1!$C$24,IF($A151&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A151+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A151&gt;=Tabelle1!$D$21,0,IF($A151&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A151)+Tabelle1!$D$24,IF($A151&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A151+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C151">
-        <f>IF(A151&gt;=Tabelle1!$C$21,0,IF($A151&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A151)+Tabelle1!$C$25,IF($A151&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A151+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A151&gt;=Tabelle1!$D$21,0,IF($A151&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A151)+Tabelle1!$D$25,IF($A151&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A151+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D151">
-        <f>IF(A151&gt;=Tabelle1!$C$21,0,IF($A151&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A151)+Tabelle1!$C$26,IF($A151&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A151+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A151&gt;=Tabelle1!$D$21,0,IF($A151&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A151)+Tabelle1!$D$26,IF($A151&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A151+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E151">
-        <f>IF(A151&gt;=Tabelle1!$C$21,0,IF($A151&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A151)+Tabelle1!$C$27,IF($A151&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A151+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A151&gt;=Tabelle1!$D$21,0,IF($A151&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A151)+Tabelle1!$D$27,IF($A151&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A151+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F151">
-        <f>IF(A151&gt;=Tabelle1!$C$21,0,IF($A151&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A151)+Tabelle1!$C$28,IF($A151&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A151+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A151&gt;=Tabelle1!$D$21,0,IF($A151&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A151)+Tabelle1!$D$28,IF($A151&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A151+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G151">
-        <f>IF(A151&gt;=Tabelle1!$C$21,0,IF($A151&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A151)+Tabelle1!$C$29,IF($A151&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A151+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A151&gt;=Tabelle1!$D$21,0,IF($A151&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A151)+Tabelle1!$D$29,IF($A151&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A151+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15841,27 +15667,27 @@
         <v>14.9</v>
       </c>
       <c r="B152">
-        <f>IF(A152&gt;=Tabelle1!$C$21,0,IF($A152&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A152)+Tabelle1!$C$24,IF($A152&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A152+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A152&gt;=Tabelle1!$D$21,0,IF($A152&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A152)+Tabelle1!$D$24,IF($A152&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A152+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C152">
-        <f>IF(A152&gt;=Tabelle1!$C$21,0,IF($A152&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A152)+Tabelle1!$C$25,IF($A152&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A152+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A152&gt;=Tabelle1!$D$21,0,IF($A152&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A152)+Tabelle1!$D$25,IF($A152&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A152+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D152">
-        <f>IF(A152&gt;=Tabelle1!$C$21,0,IF($A152&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A152)+Tabelle1!$C$26,IF($A152&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A152+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A152&gt;=Tabelle1!$D$21,0,IF($A152&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A152)+Tabelle1!$D$26,IF($A152&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A152+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E152">
-        <f>IF(A152&gt;=Tabelle1!$C$21,0,IF($A152&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A152)+Tabelle1!$C$27,IF($A152&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A152+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A152&gt;=Tabelle1!$D$21,0,IF($A152&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A152)+Tabelle1!$D$27,IF($A152&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A152+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F152">
-        <f>IF(A152&gt;=Tabelle1!$C$21,0,IF($A152&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A152)+Tabelle1!$C$28,IF($A152&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A152+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A152&gt;=Tabelle1!$D$21,0,IF($A152&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A152)+Tabelle1!$D$28,IF($A152&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A152+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G152">
-        <f>IF(A152&gt;=Tabelle1!$C$21,0,IF($A152&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A152)+Tabelle1!$C$29,IF($A152&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A152+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A152&gt;=Tabelle1!$D$21,0,IF($A152&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A152)+Tabelle1!$D$29,IF($A152&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A152+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
@@ -15870,27 +15696,27 @@
         <v>15</v>
       </c>
       <c r="B153">
-        <f>IF(A153&gt;=Tabelle1!$C$21,0,IF($A153&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$24*(Tabelle1!$C$21-$A153)+Tabelle1!$C$24,IF($A153&lt;Tabelle1!$E$21,Tabelle1!$D$24*$A153+Tabelle1!$C$24,Tabelle1!$E$24)))</f>
+        <f>IF(A153&gt;=Tabelle1!$D$21,0,IF($A153&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$24*(Tabelle1!$D$21-$A153)+Tabelle1!$D$24,IF($A153&lt;Tabelle1!$F$21,Tabelle1!$E$24*$A153+Tabelle1!$D$24,Tabelle1!$F$24)))</f>
         <v>0</v>
       </c>
       <c r="C153">
-        <f>IF(A153&gt;=Tabelle1!$C$21,0,IF($A153&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$25*(Tabelle1!$C$21-$A153)+Tabelle1!$C$25,IF($A153&lt;Tabelle1!$E$21,Tabelle1!$D$25*$A153+Tabelle1!$C$25,Tabelle1!$E$25)))</f>
+        <f>IF(A153&gt;=Tabelle1!$D$21,0,IF($A153&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$25*(Tabelle1!$D$21-$A153)+Tabelle1!$D$25,IF($A153&lt;Tabelle1!$F$21,Tabelle1!$E$25*$A153+Tabelle1!$D$25,Tabelle1!$F$25)))</f>
         <v>0</v>
       </c>
       <c r="D153">
-        <f>IF(A153&gt;=Tabelle1!$C$21,0,IF($A153&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$26*(Tabelle1!$C$21-$A153)+Tabelle1!$C$26,IF($A153&lt;Tabelle1!$E$21,Tabelle1!$D$26*$A153+Tabelle1!$C$26,Tabelle1!$E$26)))</f>
+        <f>IF(A153&gt;=Tabelle1!$D$21,0,IF($A153&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$26*(Tabelle1!$D$21-$A153)+Tabelle1!$D$26,IF($A153&lt;Tabelle1!$F$21,Tabelle1!$E$26*$A153+Tabelle1!$D$26,Tabelle1!$F$26)))</f>
         <v>0</v>
       </c>
       <c r="E153">
-        <f>IF(A153&gt;=Tabelle1!$C$21,0,IF($A153&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$27*(Tabelle1!$C$21-$A153)+Tabelle1!$C$27,IF($A153&lt;Tabelle1!$E$21,Tabelle1!$D$27*$A153+Tabelle1!$C$27,Tabelle1!$E$27)))</f>
+        <f>IF(A153&gt;=Tabelle1!$D$21,0,IF($A153&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$27*(Tabelle1!$D$21-$A153)+Tabelle1!$D$27,IF($A153&lt;Tabelle1!$F$21,Tabelle1!$E$27*$A153+Tabelle1!$D$27,Tabelle1!$F$27)))</f>
         <v>0</v>
       </c>
       <c r="F153">
-        <f>IF(A153&gt;=Tabelle1!$C$21,0,IF($A153&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$28*(Tabelle1!$C$21-$A153)+Tabelle1!$C$28,IF($A153&lt;Tabelle1!$E$21,Tabelle1!$D$28*$A153+Tabelle1!$C$28,Tabelle1!$E$28)))</f>
+        <f>IF(A153&gt;=Tabelle1!$D$21,0,IF($A153&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$28*(Tabelle1!$D$21-$A153)+Tabelle1!$D$28,IF($A153&lt;Tabelle1!$F$21,Tabelle1!$E$28*$A153+Tabelle1!$D$28,Tabelle1!$F$28)))</f>
         <v>0</v>
       </c>
       <c r="G153">
-        <f>IF(A153&gt;=Tabelle1!$C$21,0,IF($A153&gt;=(Tabelle1!$C$21-Tabelle1!$E$21),Tabelle1!$D$29*(Tabelle1!$C$21-$A153)+Tabelle1!$C$29,IF($A153&lt;Tabelle1!$E$21,Tabelle1!$D$29*$A153+Tabelle1!$C$29,Tabelle1!$E$29)))</f>
+        <f>IF(A153&gt;=Tabelle1!$D$21,0,IF($A153&gt;=(Tabelle1!$D$21-Tabelle1!$F$21),Tabelle1!$E$29*(Tabelle1!$D$21-$A153)+Tabelle1!$D$29,IF($A153&lt;Tabelle1!$F$21,Tabelle1!$E$29*$A153+Tabelle1!$D$29,Tabelle1!$F$29)))</f>
         <v>0</v>
       </c>
     </row>
